--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6397040</v>
+        <v>6394634</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,76 +1058,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>1.333</v>
+      </c>
+      <c r="L7">
+        <v>4.5</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>4.2</v>
+      </c>
+      <c r="P7">
+        <v>5.75</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7">
-        <v>2.2</v>
-      </c>
-      <c r="L7">
-        <v>3.4</v>
-      </c>
-      <c r="M7">
-        <v>2.75</v>
-      </c>
-      <c r="N7">
-        <v>2.25</v>
-      </c>
-      <c r="O7">
-        <v>3.4</v>
-      </c>
-      <c r="P7">
-        <v>2.625</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6394634</v>
+        <v>6397040</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,76 +1147,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>2.2</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.75</v>
+      </c>
+      <c r="N8">
+        <v>2.25</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8">
+        <v>2.625</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>1.333</v>
-      </c>
-      <c r="L8">
-        <v>4.5</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>1.4</v>
-      </c>
-      <c r="O8">
-        <v>4.2</v>
-      </c>
-      <c r="P8">
-        <v>5.75</v>
-      </c>
-      <c r="Q8">
-        <v>-1.25</v>
-      </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
         <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6394634</v>
+        <v>6397040</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,76 +1058,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>2.2</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>2.75</v>
+      </c>
+      <c r="N7">
+        <v>2.25</v>
+      </c>
+      <c r="O7">
+        <v>3.4</v>
+      </c>
+      <c r="P7">
+        <v>2.625</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>1.333</v>
-      </c>
-      <c r="L7">
-        <v>4.5</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>1.4</v>
-      </c>
-      <c r="O7">
-        <v>4.2</v>
-      </c>
-      <c r="P7">
-        <v>5.75</v>
-      </c>
-      <c r="Q7">
-        <v>-1.25</v>
-      </c>
       <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
         <v>2</v>
-      </c>
-      <c r="S7">
-        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>1</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6397040</v>
+        <v>6394634</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,76 +1147,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>1.333</v>
+      </c>
+      <c r="L8">
+        <v>4.5</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>4.2</v>
+      </c>
+      <c r="P8">
+        <v>5.75</v>
+      </c>
+      <c r="Q8">
+        <v>-1.25</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>2.2</v>
-      </c>
-      <c r="L8">
-        <v>3.4</v>
-      </c>
-      <c r="M8">
-        <v>2.75</v>
-      </c>
-      <c r="N8">
-        <v>2.25</v>
-      </c>
-      <c r="O8">
-        <v>3.4</v>
-      </c>
-      <c r="P8">
-        <v>2.625</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.8</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6397040</v>
+        <v>6394634</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,76 +1058,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>1.333</v>
+      </c>
+      <c r="L7">
+        <v>4.5</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>4.2</v>
+      </c>
+      <c r="P7">
+        <v>5.75</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7">
-        <v>2.2</v>
-      </c>
-      <c r="L7">
-        <v>3.4</v>
-      </c>
-      <c r="M7">
-        <v>2.75</v>
-      </c>
-      <c r="N7">
-        <v>2.25</v>
-      </c>
-      <c r="O7">
-        <v>3.4</v>
-      </c>
-      <c r="P7">
-        <v>2.625</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6394634</v>
+        <v>6397040</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,76 +1147,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>2.2</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.75</v>
+      </c>
+      <c r="N8">
+        <v>2.25</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8">
+        <v>2.625</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>1.333</v>
-      </c>
-      <c r="L8">
-        <v>4.5</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>1.4</v>
-      </c>
-      <c r="O8">
-        <v>4.2</v>
-      </c>
-      <c r="P8">
-        <v>5.75</v>
-      </c>
-      <c r="Q8">
-        <v>-1.25</v>
-      </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
         <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6478314</v>
+        <v>6475429</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,19 +3283,19 @@
         <v>45035.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3307,52 +3307,52 @@
         <v>2.4</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6475429</v>
+        <v>6478314</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,19 +3372,19 @@
         <v>45035.5</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3396,52 +3396,52 @@
         <v>2.4</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>1.975</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
         <v>1.9</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.9</v>
       </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB33">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3983,7 +3983,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6138991</v>
+        <v>6469833</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3995,76 +3995,76 @@
         <v>45044.5</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
+        <v>2.25</v>
+      </c>
+      <c r="U40">
+        <v>1.75</v>
+      </c>
+      <c r="V40">
+        <v>1.95</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>2.5</v>
       </c>
-      <c r="U40">
-        <v>1.9</v>
-      </c>
-      <c r="V40">
-        <v>1.9</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4072,7 +4072,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6469833</v>
+        <v>6138991</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4084,76 +4084,76 @@
         <v>45044.5</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N41">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -6386,7 +6386,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6139010</v>
+        <v>6138120</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6398,76 +6398,76 @@
         <v>45070.5</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="L67">
         <v>3.6</v>
       </c>
       <c r="M67">
+        <v>4.75</v>
+      </c>
+      <c r="N67">
         <v>1.727</v>
       </c>
-      <c r="N67">
-        <v>3.6</v>
-      </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
+        <v>4.333</v>
+      </c>
+      <c r="Q67">
+        <v>-0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.95</v>
+      </c>
+      <c r="S67">
         <v>1.85</v>
-      </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
-        <v>1.9</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
       </c>
       <c r="T67">
         <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB67">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
       <c r="AC67">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6475,7 +6475,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6138120</v>
+        <v>6139010</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6487,76 +6487,76 @@
         <v>45070.5</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L68">
         <v>3.6</v>
       </c>
       <c r="M68">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -13239,7 +13239,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13251,76 +13251,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M144">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N144">
+        <v>7</v>
+      </c>
+      <c r="O144">
+        <v>6</v>
+      </c>
+      <c r="P144">
+        <v>1.25</v>
+      </c>
+      <c r="Q144">
+        <v>1.75</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.2</v>
-      </c>
-      <c r="Q144">
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
+        <v>1.85</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
         <v>0.25</v>
       </c>
-      <c r="R144">
-        <v>1.825</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>2</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13328,7 +13328,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13340,76 +13340,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K145">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L145">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O145">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q145">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,76 +16366,76 @@
         <v>45241.375</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K179">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L179">
         <v>4</v>
       </c>
       <c r="M179">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16443,7 +16443,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16455,76 +16455,76 @@
         <v>45241.375</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K180">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L180">
         <v>4</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X180">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6394634</v>
+        <v>6397040</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,76 +1058,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>2.2</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>2.75</v>
+      </c>
+      <c r="N7">
+        <v>2.25</v>
+      </c>
+      <c r="O7">
+        <v>3.4</v>
+      </c>
+      <c r="P7">
+        <v>2.625</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>1.333</v>
-      </c>
-      <c r="L7">
-        <v>4.5</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>1.4</v>
-      </c>
-      <c r="O7">
-        <v>4.2</v>
-      </c>
-      <c r="P7">
-        <v>5.75</v>
-      </c>
-      <c r="Q7">
-        <v>-1.25</v>
-      </c>
       <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
         <v>2</v>
-      </c>
-      <c r="S7">
-        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>1</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6397040</v>
+        <v>6394634</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,76 +1147,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>1.333</v>
+      </c>
+      <c r="L8">
+        <v>4.5</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>4.2</v>
+      </c>
+      <c r="P8">
+        <v>5.75</v>
+      </c>
+      <c r="Q8">
+        <v>-1.25</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>2.2</v>
-      </c>
-      <c r="L8">
-        <v>3.4</v>
-      </c>
-      <c r="M8">
-        <v>2.75</v>
-      </c>
-      <c r="N8">
-        <v>2.25</v>
-      </c>
-      <c r="O8">
-        <v>3.4</v>
-      </c>
-      <c r="P8">
-        <v>2.625</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.8</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6475429</v>
+        <v>6478314</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,19 +3283,19 @@
         <v>45035.5</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3307,52 +3307,52 @@
         <v>2.4</v>
       </c>
       <c r="N32">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.725</v>
+      </c>
+      <c r="S32">
+        <v>1.975</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
         <v>1.9</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.9</v>
       </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB32">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6478314</v>
+        <v>6475429</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,19 +3372,19 @@
         <v>45035.5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3396,52 +3396,52 @@
         <v>2.4</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -6386,7 +6386,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6138120</v>
+        <v>6139010</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6398,76 +6398,76 @@
         <v>45070.5</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L67">
         <v>3.6</v>
       </c>
       <c r="M67">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="N67">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
         <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y67">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6475,7 +6475,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6139010</v>
+        <v>6138120</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6487,76 +6487,76 @@
         <v>45070.5</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="L68">
         <v>3.6</v>
       </c>
       <c r="M68">
+        <v>4.75</v>
+      </c>
+      <c r="N68">
         <v>1.727</v>
       </c>
-      <c r="N68">
-        <v>3.6</v>
-      </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
+        <v>4.333</v>
+      </c>
+      <c r="Q68">
+        <v>-0.75</v>
+      </c>
+      <c r="R68">
+        <v>1.95</v>
+      </c>
+      <c r="S68">
         <v>1.85</v>
-      </c>
-      <c r="Q68">
-        <v>0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.9</v>
-      </c>
-      <c r="S68">
-        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB68">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
       <c r="AC68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45084.5</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45084.5</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78">
+        <v>1.666</v>
+      </c>
+      <c r="L78">
+        <v>3.6</v>
+      </c>
+      <c r="M78">
+        <v>4.2</v>
+      </c>
+      <c r="N78">
+        <v>1.727</v>
+      </c>
+      <c r="O78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.9</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
         <v>1</v>
       </c>
-      <c r="J78" t="s">
-        <v>42</v>
-      </c>
-      <c r="K78">
-        <v>2.4</v>
-      </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>2.5</v>
-      </c>
-      <c r="N78">
-        <v>2.875</v>
-      </c>
-      <c r="O78">
-        <v>3.1</v>
-      </c>
-      <c r="P78">
-        <v>2.3</v>
-      </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.75</v>
-      </c>
-      <c r="S78">
-        <v>2.05</v>
-      </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>1.3</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
       <c r="AA78">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,76 +16366,76 @@
         <v>45241.375</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K179">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L179">
         <v>4</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X179">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16443,7 +16443,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16455,76 +16455,76 @@
         <v>45241.375</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K180">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L180">
         <v>4</v>
       </c>
       <c r="M180">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="181" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6397040</v>
+        <v>6394634</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,76 +1058,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>1.333</v>
+      </c>
+      <c r="L7">
+        <v>4.5</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>4.2</v>
+      </c>
+      <c r="P7">
+        <v>5.75</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7">
-        <v>2.2</v>
-      </c>
-      <c r="L7">
-        <v>3.4</v>
-      </c>
-      <c r="M7">
-        <v>2.75</v>
-      </c>
-      <c r="N7">
-        <v>2.25</v>
-      </c>
-      <c r="O7">
-        <v>3.4</v>
-      </c>
-      <c r="P7">
-        <v>2.625</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6394634</v>
+        <v>6397040</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,76 +1147,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>2.2</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.75</v>
+      </c>
+      <c r="N8">
+        <v>2.25</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8">
+        <v>2.625</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>1.333</v>
-      </c>
-      <c r="L8">
-        <v>4.5</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>1.4</v>
-      </c>
-      <c r="O8">
-        <v>4.2</v>
-      </c>
-      <c r="P8">
-        <v>5.75</v>
-      </c>
-      <c r="Q8">
-        <v>-1.25</v>
-      </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
         <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6478314</v>
+        <v>6475429</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,19 +3283,19 @@
         <v>45035.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3307,52 +3307,52 @@
         <v>2.4</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6475429</v>
+        <v>6478314</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,19 +3372,19 @@
         <v>45035.5</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3396,52 +3396,52 @@
         <v>2.4</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>1.975</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
         <v>1.9</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.9</v>
       </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB33">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3983,7 +3983,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6469833</v>
+        <v>6138991</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3995,76 +3995,76 @@
         <v>45044.5</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N40">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4072,7 +4072,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6138991</v>
+        <v>6469833</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4084,76 +4084,76 @@
         <v>45044.5</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>1.75</v>
+      </c>
+      <c r="V41">
+        <v>1.95</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
         <v>2.5</v>
       </c>
-      <c r="U41">
-        <v>1.9</v>
-      </c>
-      <c r="V41">
-        <v>1.9</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
       <c r="Y41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45084.5</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77">
+        <v>1.666</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>4.2</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.5</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.9</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
         <v>1</v>
       </c>
-      <c r="J77" t="s">
-        <v>42</v>
-      </c>
-      <c r="K77">
-        <v>2.4</v>
-      </c>
-      <c r="L77">
-        <v>3.4</v>
-      </c>
-      <c r="M77">
-        <v>2.5</v>
-      </c>
-      <c r="N77">
-        <v>2.875</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
-        <v>2.3</v>
-      </c>
-      <c r="Q77">
-        <v>0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.75</v>
-      </c>
-      <c r="S77">
-        <v>2.05</v>
-      </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
-      <c r="V77">
-        <v>1.875</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>1.3</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
-      </c>
       <c r="AA77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45084.5</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,34 +12628,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
       <c r="J137" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
         <v>3.8</v>
       </c>
       <c r="N137">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P137">
         <v>6</v>
@@ -12664,7 +12664,7 @@
         <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
         <v>1.95</v>
@@ -12679,19 +12679,19 @@
         <v>1.9</v>
       </c>
       <c r="W137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z137">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
         <v>0.8999999999999999</v>
@@ -12705,7 +12705,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12717,34 +12717,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K138">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
         <v>3.8</v>
       </c>
       <c r="N138">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
         <v>6</v>
@@ -12753,7 +12753,7 @@
         <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
         <v>1.95</v>
@@ -12768,19 +12768,19 @@
         <v>1.9</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>0.8999999999999999</v>
@@ -13239,7 +13239,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13251,76 +13251,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K144">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L144">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N144">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O144">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q144">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13328,7 +13328,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13340,76 +13340,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K145">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M145">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N145">
+        <v>7</v>
+      </c>
+      <c r="O145">
+        <v>6</v>
+      </c>
+      <c r="P145">
+        <v>1.25</v>
+      </c>
+      <c r="Q145">
+        <v>1.75</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>1.9</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>2.2</v>
-      </c>
-      <c r="Q145">
+      <c r="U145">
+        <v>1.95</v>
+      </c>
+      <c r="V145">
+        <v>1.85</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
         <v>0.25</v>
       </c>
-      <c r="R145">
-        <v>1.825</v>
-      </c>
-      <c r="S145">
-        <v>1.975</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
-      <c r="W145">
-        <v>2</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
       <c r="Z145">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15387,76 +15387,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K168">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L168">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O168">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q168">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15464,7 +15464,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15476,76 +15476,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K169">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N169">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P169">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T169">
         <v>3</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y169">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16176,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16188,76 +16188,76 @@
         <v>45241.375</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K177">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M177">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N177">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R177">
+        <v>1.85</v>
+      </c>
+      <c r="S177">
         <v>1.95</v>
-      </c>
-      <c r="S177">
-        <v>1.85</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
         <v>1.95</v>
       </c>
-      <c r="V177">
-        <v>1.85</v>
-      </c>
       <c r="W177">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
         <v>0.95</v>
       </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16265,7 +16265,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16277,73 +16277,73 @@
         <v>45241.375</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K178">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L178">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O178">
         <v>4</v>
       </c>
       <c r="P178">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X178">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,73 +16366,73 @@
         <v>45241.375</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K179">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M179">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N179">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O179">
         <v>4</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16443,7 +16443,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16455,76 +16455,76 @@
         <v>45241.375</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K180">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
+        <v>1.95</v>
+      </c>
+      <c r="S180">
         <v>1.85</v>
-      </c>
-      <c r="S180">
-        <v>1.95</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
+        <v>1.95</v>
+      </c>
+      <c r="V180">
         <v>1.85</v>
       </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6475429</v>
+        <v>6478314</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,19 +3283,19 @@
         <v>45035.5</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3307,52 +3307,52 @@
         <v>2.4</v>
       </c>
       <c r="N32">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.725</v>
+      </c>
+      <c r="S32">
+        <v>1.975</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
         <v>1.9</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.9</v>
       </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB32">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6478314</v>
+        <v>6475429</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,19 +3372,19 @@
         <v>45035.5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3396,52 +3396,52 @@
         <v>2.4</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3983,7 +3983,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6138991</v>
+        <v>6469833</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3995,76 +3995,76 @@
         <v>45044.5</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
+        <v>2.25</v>
+      </c>
+      <c r="U40">
+        <v>1.75</v>
+      </c>
+      <c r="V40">
+        <v>1.95</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>2.5</v>
       </c>
-      <c r="U40">
-        <v>1.9</v>
-      </c>
-      <c r="V40">
-        <v>1.9</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4072,7 +4072,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6469833</v>
+        <v>6138991</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4084,76 +4084,76 @@
         <v>45044.5</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N41">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -6386,7 +6386,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6139010</v>
+        <v>6138120</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6398,76 +6398,76 @@
         <v>45070.5</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="L67">
         <v>3.6</v>
       </c>
       <c r="M67">
+        <v>4.75</v>
+      </c>
+      <c r="N67">
         <v>1.727</v>
       </c>
-      <c r="N67">
-        <v>3.6</v>
-      </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
+        <v>4.333</v>
+      </c>
+      <c r="Q67">
+        <v>-0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.95</v>
+      </c>
+      <c r="S67">
         <v>1.85</v>
-      </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
-        <v>1.9</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
       </c>
       <c r="T67">
         <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB67">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
       <c r="AC67">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6475,7 +6475,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6138120</v>
+        <v>6139010</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6487,76 +6487,76 @@
         <v>45070.5</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L68">
         <v>3.6</v>
       </c>
       <c r="M68">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45084.5</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45084.5</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78">
+        <v>1.666</v>
+      </c>
+      <c r="L78">
+        <v>3.6</v>
+      </c>
+      <c r="M78">
+        <v>4.2</v>
+      </c>
+      <c r="N78">
+        <v>1.727</v>
+      </c>
+      <c r="O78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.9</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
         <v>1</v>
       </c>
-      <c r="J78" t="s">
-        <v>42</v>
-      </c>
-      <c r="K78">
-        <v>2.4</v>
-      </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>2.5</v>
-      </c>
-      <c r="N78">
-        <v>2.875</v>
-      </c>
-      <c r="O78">
-        <v>3.1</v>
-      </c>
-      <c r="P78">
-        <v>2.3</v>
-      </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.75</v>
-      </c>
-      <c r="S78">
-        <v>2.05</v>
-      </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>1.3</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
       <c r="AA78">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,34 +12628,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K137">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
         <v>3.8</v>
       </c>
       <c r="N137">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
         <v>6</v>
@@ -12664,7 +12664,7 @@
         <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
         <v>1.95</v>
@@ -12679,19 +12679,19 @@
         <v>1.9</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
         <v>0.8999999999999999</v>
@@ -12705,7 +12705,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12717,34 +12717,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>3</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
       <c r="J138" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
         <v>3.8</v>
       </c>
       <c r="N138">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P138">
         <v>6</v>
@@ -12753,7 +12753,7 @@
         <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
         <v>1.95</v>
@@ -12768,19 +12768,19 @@
         <v>1.9</v>
       </c>
       <c r="W138">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z138">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
         <v>0.8999999999999999</v>
@@ -13239,7 +13239,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13251,76 +13251,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M144">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N144">
+        <v>7</v>
+      </c>
+      <c r="O144">
+        <v>6</v>
+      </c>
+      <c r="P144">
+        <v>1.25</v>
+      </c>
+      <c r="Q144">
+        <v>1.75</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.2</v>
-      </c>
-      <c r="Q144">
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
+        <v>1.85</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
         <v>0.25</v>
       </c>
-      <c r="R144">
-        <v>1.825</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>2</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13328,7 +13328,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13340,76 +13340,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K145">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L145">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O145">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q145">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15387,76 +15387,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K168">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M168">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N168">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P168">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y168">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15464,7 +15464,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15476,76 +15476,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K169">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L169">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O169">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q169">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
         <v>3</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16176,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16188,76 +16188,76 @@
         <v>45241.375</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K177">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N177">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
         <v>1.85</v>
-      </c>
-      <c r="S177">
-        <v>1.95</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
+        <v>1.95</v>
+      </c>
+      <c r="V177">
         <v>1.85</v>
       </c>
-      <c r="V177">
-        <v>1.95</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X177">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6535416</v>
+        <v>6537957</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,40 +16366,40 @@
         <v>45241.375</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>41</v>
       </c>
       <c r="K179">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L179">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R179">
         <v>1.85</v>
@@ -16411,31 +16411,31 @@
         <v>2.75</v>
       </c>
       <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
         <v>1.95</v>
       </c>
-      <c r="V179">
-        <v>1.85</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.95</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16443,7 +16443,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16455,46 +16455,46 @@
         <v>45241.375</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M180">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
+        <v>1.85</v>
+      </c>
+      <c r="S180">
         <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>1.85</v>
       </c>
       <c r="T180">
         <v>2.75</v>
@@ -16506,25 +16506,25 @@
         <v>1.85</v>
       </c>
       <c r="W180">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
         <v>0.95</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
-      </c>
       <c r="AC180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6478314</v>
+        <v>6475429</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,19 +3283,19 @@
         <v>45035.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3307,52 +3307,52 @@
         <v>2.4</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6475429</v>
+        <v>6478314</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,19 +3372,19 @@
         <v>45035.5</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3396,52 +3396,52 @@
         <v>2.4</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>1.975</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
         <v>1.9</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.9</v>
       </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB33">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45084.5</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77">
+        <v>1.666</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>4.2</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.5</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.9</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
         <v>1</v>
       </c>
-      <c r="J77" t="s">
-        <v>42</v>
-      </c>
-      <c r="K77">
-        <v>2.4</v>
-      </c>
-      <c r="L77">
-        <v>3.4</v>
-      </c>
-      <c r="M77">
-        <v>2.5</v>
-      </c>
-      <c r="N77">
-        <v>2.875</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
-        <v>2.3</v>
-      </c>
-      <c r="Q77">
-        <v>0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.75</v>
-      </c>
-      <c r="S77">
-        <v>2.05</v>
-      </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
-      <c r="V77">
-        <v>1.875</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>1.3</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
-      </c>
       <c r="AA77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45084.5</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,34 +12628,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
       <c r="J137" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
         <v>3.8</v>
       </c>
       <c r="N137">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P137">
         <v>6</v>
@@ -12664,7 +12664,7 @@
         <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
         <v>1.95</v>
@@ -12679,19 +12679,19 @@
         <v>1.9</v>
       </c>
       <c r="W137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z137">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
         <v>0.8999999999999999</v>
@@ -12705,7 +12705,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12717,34 +12717,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K138">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
         <v>3.8</v>
       </c>
       <c r="N138">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
         <v>6</v>
@@ -12753,7 +12753,7 @@
         <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
         <v>1.95</v>
@@ -12768,19 +12768,19 @@
         <v>1.9</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>0.8999999999999999</v>
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15387,76 +15387,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K168">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L168">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O168">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q168">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15464,7 +15464,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15476,76 +15476,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K169">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N169">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P169">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T169">
         <v>3</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y169">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16176,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16188,76 +16188,76 @@
         <v>45241.375</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K177">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M177">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N177">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R177">
+        <v>1.85</v>
+      </c>
+      <c r="S177">
         <v>1.95</v>
-      </c>
-      <c r="S177">
-        <v>1.85</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
         <v>1.95</v>
       </c>
-      <c r="V177">
-        <v>1.85</v>
-      </c>
       <c r="W177">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
         <v>0.95</v>
       </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16265,7 +16265,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16277,73 +16277,73 @@
         <v>45241.375</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K178">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M178">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N178">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O178">
         <v>4</v>
       </c>
       <c r="P178">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,76 +16366,76 @@
         <v>45241.375</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K179">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
         <v>1.85</v>
-      </c>
-      <c r="S179">
-        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
+        <v>1.95</v>
+      </c>
+      <c r="V179">
         <v>1.85</v>
       </c>
-      <c r="V179">
-        <v>1.95</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X179">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16443,7 +16443,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16455,73 +16455,73 @@
         <v>45241.375</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L180">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N180">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O180">
         <v>4</v>
       </c>
       <c r="P180">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X180">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
         <v>-1</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6394634</v>
+        <v>6397040</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,76 +1058,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>2.2</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>2.75</v>
+      </c>
+      <c r="N7">
+        <v>2.25</v>
+      </c>
+      <c r="O7">
+        <v>3.4</v>
+      </c>
+      <c r="P7">
+        <v>2.625</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>1.333</v>
-      </c>
-      <c r="L7">
-        <v>4.5</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>1.4</v>
-      </c>
-      <c r="O7">
-        <v>4.2</v>
-      </c>
-      <c r="P7">
-        <v>5.75</v>
-      </c>
-      <c r="Q7">
-        <v>-1.25</v>
-      </c>
       <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
         <v>2</v>
-      </c>
-      <c r="S7">
-        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>1</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6397040</v>
+        <v>6394634</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,76 +1147,76 @@
         <v>45000.54166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>1.333</v>
+      </c>
+      <c r="L8">
+        <v>4.5</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>4.2</v>
+      </c>
+      <c r="P8">
+        <v>5.75</v>
+      </c>
+      <c r="Q8">
+        <v>-1.25</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>2.2</v>
-      </c>
-      <c r="L8">
-        <v>3.4</v>
-      </c>
-      <c r="M8">
-        <v>2.75</v>
-      </c>
-      <c r="N8">
-        <v>2.25</v>
-      </c>
-      <c r="O8">
-        <v>3.4</v>
-      </c>
-      <c r="P8">
-        <v>2.625</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.8</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45084.5</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45084.5</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78">
+        <v>1.666</v>
+      </c>
+      <c r="L78">
+        <v>3.6</v>
+      </c>
+      <c r="M78">
+        <v>4.2</v>
+      </c>
+      <c r="N78">
+        <v>1.727</v>
+      </c>
+      <c r="O78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.9</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
         <v>1</v>
       </c>
-      <c r="J78" t="s">
-        <v>42</v>
-      </c>
-      <c r="K78">
-        <v>2.4</v>
-      </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>2.5</v>
-      </c>
-      <c r="N78">
-        <v>2.875</v>
-      </c>
-      <c r="O78">
-        <v>3.1</v>
-      </c>
-      <c r="P78">
-        <v>2.3</v>
-      </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.75</v>
-      </c>
-      <c r="S78">
-        <v>2.05</v>
-      </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>1.3</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
       <c r="AA78">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15387,76 +15387,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K168">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M168">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N168">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P168">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y168">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15464,7 +15464,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15476,76 +15476,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K169">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L169">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O169">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q169">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
         <v>3</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16176,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16188,76 +16188,76 @@
         <v>45241.375</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K177">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N177">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
         <v>1.85</v>
-      </c>
-      <c r="S177">
-        <v>1.95</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
+        <v>1.95</v>
+      </c>
+      <c r="V177">
         <v>1.85</v>
       </c>
-      <c r="V177">
-        <v>1.95</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X177">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16265,7 +16265,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6535416</v>
+        <v>6537957</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16277,40 +16277,40 @@
         <v>45241.375</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>41</v>
       </c>
       <c r="K178">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L178">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P178">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R178">
         <v>1.85</v>
@@ -16322,31 +16322,31 @@
         <v>2.75</v>
       </c>
       <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="V178">
-        <v>1.85</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.95</v>
-      </c>
-      <c r="AC178">
-        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,13 +16366,13 @@
         <v>45241.375</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16381,43 +16381,43 @@
         <v>40</v>
       </c>
       <c r="K179">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N179">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16426,16 +16426,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16443,7 +16443,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16455,73 +16455,73 @@
         <v>45241.375</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K180">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M180">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O180">
         <v>4</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
         <v>-1</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6475429</v>
+        <v>6478314</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,19 +3283,19 @@
         <v>45035.5</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3307,52 +3307,52 @@
         <v>2.4</v>
       </c>
       <c r="N32">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.725</v>
+      </c>
+      <c r="S32">
+        <v>1.975</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
         <v>1.9</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.9</v>
       </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB32">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6478314</v>
+        <v>6475429</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,19 +3372,19 @@
         <v>45035.5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3396,52 +3396,52 @@
         <v>2.4</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45084.5</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77">
+        <v>1.666</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>4.2</v>
+      </c>
+      <c r="N77">
+        <v>1.727</v>
+      </c>
+      <c r="O77">
+        <v>3.5</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.9</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
         <v>1</v>
       </c>
-      <c r="J77" t="s">
-        <v>42</v>
-      </c>
-      <c r="K77">
-        <v>2.4</v>
-      </c>
-      <c r="L77">
-        <v>3.4</v>
-      </c>
-      <c r="M77">
-        <v>2.5</v>
-      </c>
-      <c r="N77">
-        <v>2.875</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
-        <v>2.3</v>
-      </c>
-      <c r="Q77">
-        <v>0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.75</v>
-      </c>
-      <c r="S77">
-        <v>2.05</v>
-      </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
-      <c r="V77">
-        <v>1.875</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>1.3</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
-      </c>
       <c r="AA77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45084.5</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -16176,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16188,76 +16188,76 @@
         <v>45241.375</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K177">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M177">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N177">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R177">
+        <v>1.85</v>
+      </c>
+      <c r="S177">
         <v>1.95</v>
-      </c>
-      <c r="S177">
-        <v>1.85</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
         <v>1.95</v>
       </c>
-      <c r="V177">
-        <v>1.85</v>
-      </c>
       <c r="W177">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
         <v>0.95</v>
       </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16265,7 +16265,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16277,76 +16277,76 @@
         <v>45241.375</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K178">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N178">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X178">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,73 +16366,73 @@
         <v>45241.375</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K179">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M179">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N179">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O179">
         <v>4</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16443,7 +16443,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6535416</v>
+        <v>6533597</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16455,46 +16455,46 @@
         <v>45241.375</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L180">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N180">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q180">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
+        <v>1.95</v>
+      </c>
+      <c r="S180">
         <v>1.85</v>
-      </c>
-      <c r="S180">
-        <v>1.95</v>
       </c>
       <c r="T180">
         <v>2.75</v>
@@ -16506,25 +16506,25 @@
         <v>1.85</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.95</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0.95</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6478314</v>
+        <v>6475429</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,19 +3283,19 @@
         <v>45035.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3307,52 +3307,52 @@
         <v>2.4</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6475429</v>
+        <v>6478314</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,19 +3372,19 @@
         <v>45035.5</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3396,52 +3396,52 @@
         <v>2.4</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>1.975</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
         <v>1.9</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.9</v>
       </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB33">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3983,7 +3983,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6469833</v>
+        <v>6138991</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3995,76 +3995,76 @@
         <v>45044.5</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N40">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4072,7 +4072,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6138991</v>
+        <v>6469833</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4084,76 +4084,76 @@
         <v>45044.5</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>1.75</v>
+      </c>
+      <c r="V41">
+        <v>1.95</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
         <v>2.5</v>
       </c>
-      <c r="U41">
-        <v>1.9</v>
-      </c>
-      <c r="V41">
-        <v>1.9</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
       <c r="Y41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45084.5</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45084.5</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78">
+        <v>1.666</v>
+      </c>
+      <c r="L78">
+        <v>3.6</v>
+      </c>
+      <c r="M78">
+        <v>4.2</v>
+      </c>
+      <c r="N78">
+        <v>1.727</v>
+      </c>
+      <c r="O78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.9</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
         <v>1</v>
       </c>
-      <c r="J78" t="s">
-        <v>42</v>
-      </c>
-      <c r="K78">
-        <v>2.4</v>
-      </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>2.5</v>
-      </c>
-      <c r="N78">
-        <v>2.875</v>
-      </c>
-      <c r="O78">
-        <v>3.1</v>
-      </c>
-      <c r="P78">
-        <v>2.3</v>
-      </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.75</v>
-      </c>
-      <c r="S78">
-        <v>2.05</v>
-      </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>1.3</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
       <c r="AA78">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -14752,7 +14752,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14764,40 +14764,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K161">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N161">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
         <v>1.875</v>
@@ -14806,22 +14806,22 @@
         <v>1.925</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y161">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
@@ -14830,10 +14830,10 @@
         <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14841,7 +14841,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14853,40 +14853,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>7</v>
+      </c>
+      <c r="J162" t="s">
+        <v>42</v>
+      </c>
+      <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>3.4</v>
+      </c>
+      <c r="M162">
+        <v>1.909</v>
+      </c>
+      <c r="N162">
+        <v>2.4</v>
+      </c>
+      <c r="O162">
+        <v>3.6</v>
+      </c>
+      <c r="P162">
+        <v>2.45</v>
+      </c>
+      <c r="Q162">
         <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162" t="s">
-        <v>41</v>
-      </c>
-      <c r="K162">
-        <v>1.615</v>
-      </c>
-      <c r="L162">
-        <v>4</v>
-      </c>
-      <c r="M162">
-        <v>4.5</v>
-      </c>
-      <c r="N162">
-        <v>1.85</v>
-      </c>
-      <c r="O162">
-        <v>3.8</v>
-      </c>
-      <c r="P162">
-        <v>3.5</v>
-      </c>
-      <c r="Q162">
-        <v>-0.5</v>
       </c>
       <c r="R162">
         <v>1.875</v>
@@ -14895,22 +14895,22 @@
         <v>1.925</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -14919,10 +14919,10 @@
         <v>0.925</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15387,76 +15387,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K168">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L168">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O168">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q168">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15464,7 +15464,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15476,76 +15476,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K169">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N169">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P169">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T169">
         <v>3</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y169">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16176,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16188,76 +16188,76 @@
         <v>45241.375</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K177">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N177">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
         <v>1.85</v>
-      </c>
-      <c r="S177">
-        <v>1.95</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
+        <v>1.95</v>
+      </c>
+      <c r="V177">
         <v>1.85</v>
       </c>
-      <c r="V177">
-        <v>1.95</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X177">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16265,7 +16265,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16277,76 +16277,76 @@
         <v>45241.375</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K178">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N178">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P178">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,73 +16366,73 @@
         <v>45241.375</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K179">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L179">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N179">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O179">
         <v>4</v>
       </c>
       <c r="P179">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X179">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16443,7 +16443,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16455,46 +16455,46 @@
         <v>45241.375</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M180">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
+        <v>1.85</v>
+      </c>
+      <c r="S180">
         <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>1.85</v>
       </c>
       <c r="T180">
         <v>2.75</v>
@@ -16506,25 +16506,25 @@
         <v>1.85</v>
       </c>
       <c r="W180">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
         <v>0.95</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
-      </c>
       <c r="AC180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -794,73 +794,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -883,73 +883,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1417,7 +1417,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1770,7 +1770,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2218,7 +2218,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2571,7 +2571,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2663,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2838,7 +2838,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3105,7 +3105,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3375,7 +3375,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3639,10 +3639,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4354,7 +4354,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4618,7 +4618,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4796,7 +4796,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4888,7 +4888,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5155,7 +5155,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5333,7 +5333,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5686,7 +5686,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6045,7 +6045,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6131,34 +6131,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6167,7 +6167,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6182,19 +6182,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6208,7 +6208,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6220,34 +6220,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6256,7 +6256,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6271,19 +6271,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6312,7 +6312,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6665,7 +6665,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6754,7 +6754,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7021,7 +7021,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7113,7 +7113,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7558,7 +7558,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7822,7 +7822,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8003,7 +8003,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8267,10 +8267,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
         <v>31</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9335,7 +9335,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9516,7 +9516,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9602,7 +9602,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9768,7 +9768,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9780,73 +9780,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9857,7 +9857,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9869,73 +9869,73 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O106">
         <v>4</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10047,7 +10047,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -8255,7 +8255,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8267,40 +8267,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N88">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8309,22 +8309,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8333,10 +8333,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,40 +8356,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>40</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.909</v>
+      </c>
+      <c r="N89">
+        <v>2.4</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>2.45</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>42</v>
-      </c>
-      <c r="K89">
-        <v>1.615</v>
-      </c>
-      <c r="L89">
-        <v>4</v>
-      </c>
-      <c r="M89">
-        <v>4.5</v>
-      </c>
-      <c r="N89">
-        <v>1.85</v>
-      </c>
-      <c r="O89">
-        <v>3.8</v>
-      </c>
-      <c r="P89">
-        <v>3.5</v>
-      </c>
-      <c r="Q89">
-        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8398,22 +8398,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8422,10 +8422,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8878,7 +8878,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8890,76 +8890,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8967,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8979,76 +8979,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O96">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q96">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,76 +9691,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="V104">
-        <v>1.95</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9768,7 +9768,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9780,76 +9780,76 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
         <v>4</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9857,7 +9857,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9869,73 +9869,73 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O106">
         <v>4</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9946,7 +9946,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9958,46 +9958,46 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
+        <v>1.85</v>
+      </c>
+      <c r="S107">
         <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
@@ -10009,25 +10009,25 @@
         <v>1.85</v>
       </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.95</v>
       </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Viimsi JK</t>
+  </si>
+  <si>
+    <t>JK Nomme United</t>
   </si>
   <si>
     <t>A</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC108"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -714,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1.8</v>
@@ -779,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -794,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -868,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -883,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.363</v>
@@ -1070,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>9</v>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>1.8</v>
@@ -1248,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>4.75</v>
@@ -1328,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1337,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>1.363</v>
@@ -1417,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1592,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1604,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1693,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1770,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1782,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.444</v>
@@ -1871,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.7</v>
@@ -1960,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>6.5</v>
@@ -2049,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>4.2</v>
@@ -2138,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -2218,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2227,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>1.571</v>
@@ -2307,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2316,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>1.2</v>
@@ -2405,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2494,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>2.2</v>
@@ -2571,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2583,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2663,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2672,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2761,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>1.55</v>
@@ -2838,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -2850,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2939,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>1.333</v>
@@ -3028,7 +3031,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3105,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>6.5</v>
@@ -3206,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>1.181</v>
@@ -3295,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>1.125</v>
@@ -3375,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3384,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>1.85</v>
@@ -3473,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>1.142</v>
@@ -3562,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>1.6</v>
@@ -3639,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3651,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>1.8</v>
@@ -3740,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3829,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K38">
         <v>7.5</v>
@@ -3909,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3918,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.533</v>
@@ -4007,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.125</v>
@@ -4084,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4096,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>2.75</v>
@@ -4185,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4274,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>3.75</v>
@@ -4354,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4363,7 +4366,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>1.45</v>
@@ -4452,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4541,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>8</v>
@@ -4618,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4630,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -4719,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>1.125</v>
@@ -4796,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4808,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>2.5</v>
@@ -4888,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4897,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.3</v>
@@ -4986,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.7</v>
@@ -5075,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>1.727</v>
@@ -5155,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5164,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K53">
         <v>2.375</v>
@@ -5253,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K54">
         <v>3.1</v>
@@ -5333,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5342,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>1.833</v>
@@ -5431,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>2.375</v>
@@ -5520,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.15</v>
@@ -5597,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5609,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>2.75</v>
@@ -5686,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -5698,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K59">
         <v>1.727</v>
@@ -5787,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>1.727</v>
@@ -5876,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>5.25</v>
@@ -5965,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6045,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6054,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K63">
         <v>1.166</v>
@@ -6119,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6131,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>41</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6167,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6182,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6208,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6220,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6256,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6271,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6312,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6321,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>1.75</v>
@@ -6410,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>1.2</v>
@@ -6499,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K68">
         <v>5.5</v>
@@ -6588,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K69">
         <v>8</v>
@@ -6665,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6677,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6754,7 +6757,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6766,7 +6769,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K71">
         <v>9</v>
@@ -6855,7 +6858,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>2.4</v>
@@ -6944,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>9.5</v>
@@ -7021,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7033,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -7113,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7122,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>3.6</v>
@@ -7211,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K76">
         <v>6.5</v>
@@ -7300,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K77">
         <v>1.2</v>
@@ -7389,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.666</v>
@@ -7466,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7478,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K79">
         <v>6.5</v>
@@ -7558,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7567,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7656,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>1.125</v>
@@ -7745,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>1.166</v>
@@ -7822,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -7834,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>2.1</v>
@@ -7923,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>3.5</v>
@@ -8003,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8012,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>1.2</v>
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>1.5</v>
@@ -8190,7 +8193,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K87">
         <v>11</v>
@@ -8279,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.615</v>
@@ -8356,10 +8359,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
         <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8368,7 +8371,7 @@
         <v>7</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K89">
         <v>3.6</v>
@@ -8457,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K90">
         <v>2.3</v>
@@ -8546,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8635,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>4.333</v>
@@ -8715,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8724,7 +8727,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K93">
         <v>3.75</v>
@@ -8813,7 +8816,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8902,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>1.166</v>
@@ -8979,7 +8982,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -8991,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K96">
         <v>1.833</v>
@@ -9080,7 +9083,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>12</v>
@@ -9169,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.615</v>
@@ -9258,7 +9261,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K99">
         <v>4</v>
@@ -9335,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9347,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -9436,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
         <v>2.5</v>
@@ -9516,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9525,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9602,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9614,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.909</v>
@@ -9679,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9768,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537957</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9780,40 +9783,40 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L105">
+        <v>3.8</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
         <v>4</v>
       </c>
-      <c r="M105">
-        <v>7.5</v>
-      </c>
-      <c r="N105">
-        <v>1.5</v>
-      </c>
-      <c r="O105">
-        <v>4.2</v>
-      </c>
       <c r="P105">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
         <v>1.85</v>
@@ -9825,31 +9828,31 @@
         <v>2.75</v>
       </c>
       <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="V105">
-        <v>1.95</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
       </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9857,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537869</v>
+        <v>6533597</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9869,58 +9872,58 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9929,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9946,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9958,73 +9961,73 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>42</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L107">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
         <v>4</v>
       </c>
       <c r="P107">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10047,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10059,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>1.285</v>
@@ -10117,6 +10120,317 @@
       </c>
       <c r="AC108">
         <v>0.875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7891672</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F109" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" t="s">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>42</v>
+      </c>
+      <c r="K109">
+        <v>1.285</v>
+      </c>
+      <c r="L109">
+        <v>5.5</v>
+      </c>
+      <c r="M109">
+        <v>6.5</v>
+      </c>
+      <c r="N109">
+        <v>1.4</v>
+      </c>
+      <c r="O109">
+        <v>4.75</v>
+      </c>
+      <c r="P109">
+        <v>6</v>
+      </c>
+      <c r="Q109">
+        <v>-1.5</v>
+      </c>
+      <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
+        <v>1.825</v>
+      </c>
+      <c r="T109">
+        <v>3.5</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
+        <v>1.8</v>
+      </c>
+      <c r="W109">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7891674</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45353.39583333334</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110">
+        <v>1.285</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="M110">
+        <v>7.5</v>
+      </c>
+      <c r="N110">
+        <v>1.25</v>
+      </c>
+      <c r="O110">
+        <v>4.75</v>
+      </c>
+      <c r="P110">
+        <v>9</v>
+      </c>
+      <c r="Q110">
+        <v>-1.75</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>1.85</v>
+      </c>
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
+        <v>1.8</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7891675</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45354.3125</v>
+      </c>
+      <c r="F111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111">
+        <v>1.571</v>
+      </c>
+      <c r="L111">
+        <v>3.75</v>
+      </c>
+      <c r="M111">
+        <v>4.75</v>
+      </c>
+      <c r="N111">
+        <v>1.909</v>
+      </c>
+      <c r="O111">
+        <v>3.5</v>
+      </c>
+      <c r="P111">
+        <v>3.5</v>
+      </c>
+      <c r="Q111">
+        <v>-0.5</v>
+      </c>
+      <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
+        <v>1.85</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
+        <v>1.825</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7891676</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45354.39583333334</v>
+      </c>
+      <c r="F112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" t="s">
+        <v>38</v>
+      </c>
+      <c r="K112">
+        <v>4.75</v>
+      </c>
+      <c r="L112">
+        <v>3.75</v>
+      </c>
+      <c r="M112">
+        <v>1.571</v>
+      </c>
+      <c r="N112">
+        <v>7</v>
+      </c>
+      <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
+        <v>1.363</v>
+      </c>
+      <c r="Q112">
+        <v>1.25</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>3</v>
+      </c>
+      <c r="U112">
+        <v>1.975</v>
+      </c>
+      <c r="V112">
+        <v>1.825</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <v>6</v>
+      </c>
+      <c r="P72">
+        <v>1.25</v>
+      </c>
+      <c r="Q72">
+        <v>1.75</v>
+      </c>
+      <c r="R72">
+        <v>1.9</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
         <v>3</v>
       </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>2.2</v>
-      </c>
-      <c r="Q72">
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.85</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>0.25</v>
       </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>2</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
         <v>31</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q95">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N96">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P96">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L104">
         <v>4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L107">
         <v>4</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7891674</v>
+        <v>7891673</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10225,64 +10225,79 @@
         <v>28</v>
       </c>
       <c r="E110" s="2">
-        <v>45353.39583333334</v>
+        <v>45353.3125</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
+      </c>
+      <c r="J110" t="s">
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L110">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>6.5</v>
       </c>
       <c r="O110">
         <v>4.75</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>1.333</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R110">
+        <v>1.85</v>
+      </c>
+      <c r="S110">
         <v>1.95</v>
-      </c>
-      <c r="S110">
-        <v>1.85</v>
       </c>
       <c r="T110">
         <v>3</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB110">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC110">
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10290,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7891675</v>
+        <v>7891674</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10299,34 +10314,43 @@
         <v>28</v>
       </c>
       <c r="E111" s="2">
-        <v>45354.3125</v>
+        <v>45353.39583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L111">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M111">
+        <v>7.5</v>
+      </c>
+      <c r="N111">
+        <v>1.25</v>
+      </c>
+      <c r="O111">
         <v>4.75</v>
       </c>
-      <c r="N111">
-        <v>1.909</v>
-      </c>
-      <c r="O111">
-        <v>3.5</v>
-      </c>
       <c r="P111">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
         <v>1.95</v>
@@ -10338,25 +10362,31 @@
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB111">
+        <v>0.75</v>
+      </c>
+      <c r="AC111">
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10364,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7891676</v>
+        <v>7891675</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10373,43 +10403,43 @@
         <v>28</v>
       </c>
       <c r="E112" s="2">
-        <v>45354.39583333334</v>
+        <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K112">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L112">
         <v>3.75</v>
       </c>
       <c r="M112">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
         <v>1.975</v>
@@ -10430,6 +10460,80 @@
         <v>0</v>
       </c>
       <c r="AA112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7891676</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45354.39583333334</v>
+      </c>
+      <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
+      </c>
+      <c r="K113">
+        <v>4.75</v>
+      </c>
+      <c r="L113">
+        <v>3.75</v>
+      </c>
+      <c r="M113">
+        <v>1.571</v>
+      </c>
+      <c r="N113">
+        <v>7</v>
+      </c>
+      <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
+        <v>1.363</v>
+      </c>
+      <c r="Q113">
+        <v>1.25</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>1.8</v>
+      </c>
+      <c r="T113">
+        <v>3</v>
+      </c>
+      <c r="U113">
+        <v>1.975</v>
+      </c>
+      <c r="V113">
+        <v>1.825</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
         <v>0</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6846,7 +6846,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88">
+        <v>3.6</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>1.909</v>
+      </c>
+      <c r="N88">
+        <v>2.4</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>2.45</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>1.615</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>4.5</v>
-      </c>
-      <c r="N88">
-        <v>1.85</v>
-      </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.5</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O96">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q96">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
         <v>4</v>
       </c>
       <c r="M104">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537957</v>
+        <v>6535416</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,40 +9961,40 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L107">
+        <v>3.8</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107">
         <v>4</v>
       </c>
-      <c r="M107">
-        <v>7.5</v>
-      </c>
-      <c r="N107">
-        <v>1.5</v>
-      </c>
-      <c r="O107">
-        <v>4.2</v>
-      </c>
       <c r="P107">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
         <v>1.85</v>
@@ -10006,31 +10006,31 @@
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.95</v>
       </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10406,10 +10406,19 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
       </c>
-      <c r="G112" t="s">
-        <v>32</v>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.571</v>
@@ -10421,49 +10430,55 @@
         <v>4.75</v>
       </c>
       <c r="N112">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10485,6 +10500,15 @@
       <c r="G113" t="s">
         <v>38</v>
       </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113" t="s">
+        <v>41</v>
+      </c>
       <c r="K113">
         <v>4.75</v>
       </c>
@@ -10495,46 +10519,52 @@
         <v>1.571</v>
       </c>
       <c r="N113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P113">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="Q113">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB113">
+        <v>-0.5</v>
+      </c>
+      <c r="AC113">
+        <v>0.425</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6846,7 +6846,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8270,10 +8270,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
         <v>31</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="V104">
-        <v>1.95</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P106">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
         <v>1.95</v>
-      </c>
-      <c r="S106">
-        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
         <v>1.95</v>
       </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
         <v>0.95</v>
       </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,73 +9961,73 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L107">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
         <v>4</v>
       </c>
       <c r="P107">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
         <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10565,6 +10565,80 @@
       </c>
       <c r="AC113">
         <v>0.425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7719642</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45361.39583333334</v>
+      </c>
+      <c r="F114" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114">
+        <v>1.444</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>6</v>
+      </c>
+      <c r="N114">
+        <v>1.363</v>
+      </c>
+      <c r="O114">
+        <v>4.333</v>
+      </c>
+      <c r="P114">
+        <v>7</v>
+      </c>
+      <c r="Q114">
+        <v>-1.25</v>
+      </c>
+      <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>1.925</v>
+      </c>
+      <c r="V114">
+        <v>1.875</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC114"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6846,7 +6846,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8270,10 +8270,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
         <v>32</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537957</v>
+        <v>6535416</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,40 +9872,40 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L106">
+        <v>3.8</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
         <v>4</v>
       </c>
-      <c r="M106">
-        <v>7.5</v>
-      </c>
-      <c r="N106">
-        <v>1.5</v>
-      </c>
-      <c r="O106">
-        <v>4.2</v>
-      </c>
       <c r="P106">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
         <v>1.85</v>
@@ -9917,31 +9917,31 @@
         <v>2.75</v>
       </c>
       <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
         <v>0.95</v>
       </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L107">
         <v>4</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10572,73 +10572,444 @@
         <v>112</v>
       </c>
       <c r="B114">
+        <v>7919321</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45360.3125</v>
+      </c>
+      <c r="F114" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K114">
+        <v>2.4</v>
+      </c>
+      <c r="L114">
+        <v>3.6</v>
+      </c>
+      <c r="M114">
+        <v>2.4</v>
+      </c>
+      <c r="N114">
+        <v>2.1</v>
+      </c>
+      <c r="O114">
+        <v>3.6</v>
+      </c>
+      <c r="P114">
+        <v>2.8</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.9</v>
+      </c>
+      <c r="V114">
+        <v>1.9</v>
+      </c>
+      <c r="W114">
+        <v>1.1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7919323</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45360.39583333334</v>
+      </c>
+      <c r="F115" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>42</v>
+      </c>
+      <c r="K115">
+        <v>1.285</v>
+      </c>
+      <c r="L115">
+        <v>5.5</v>
+      </c>
+      <c r="M115">
+        <v>6.5</v>
+      </c>
+      <c r="N115">
+        <v>1.571</v>
+      </c>
+      <c r="O115">
+        <v>4.75</v>
+      </c>
+      <c r="P115">
+        <v>4.2</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.875</v>
+      </c>
+      <c r="V115">
+        <v>1.925</v>
+      </c>
+      <c r="W115">
+        <v>0.571</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.925</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>0.4375</v>
+      </c>
+      <c r="AC115">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7919322</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45360.39583333334</v>
+      </c>
+      <c r="F116" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116" t="s">
+        <v>41</v>
+      </c>
+      <c r="K116">
+        <v>11</v>
+      </c>
+      <c r="L116">
+        <v>6</v>
+      </c>
+      <c r="M116">
+        <v>1.166</v>
+      </c>
+      <c r="N116">
+        <v>15</v>
+      </c>
+      <c r="O116">
+        <v>8.5</v>
+      </c>
+      <c r="P116">
+        <v>1.125</v>
+      </c>
+      <c r="Q116">
+        <v>2.5</v>
+      </c>
+      <c r="R116">
+        <v>1.825</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
+        <v>3.25</v>
+      </c>
+      <c r="U116">
+        <v>1.9</v>
+      </c>
+      <c r="V116">
+        <v>1.9</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>0.125</v>
+      </c>
+      <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB116">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7721006</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45361.3125</v>
+      </c>
+      <c r="F117" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" t="s">
+        <v>40</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>1.285</v>
+      </c>
+      <c r="L117">
+        <v>5.5</v>
+      </c>
+      <c r="M117">
+        <v>6.5</v>
+      </c>
+      <c r="N117">
+        <v>1.181</v>
+      </c>
+      <c r="O117">
+        <v>6.5</v>
+      </c>
+      <c r="P117">
+        <v>9</v>
+      </c>
+      <c r="Q117">
+        <v>-2</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>3.5</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>0.181</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>-0</v>
+      </c>
+      <c r="AB117">
+        <v>0.95</v>
+      </c>
+      <c r="AC117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
         <v>7719642</v>
       </c>
-      <c r="C114" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" t="s">
-        <v>28</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
         <v>45361.39583333334</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F118" t="s">
         <v>33</v>
       </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
-      <c r="K114">
+      <c r="G118" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>43</v>
+      </c>
+      <c r="K118">
         <v>1.444</v>
       </c>
-      <c r="L114">
+      <c r="L118">
         <v>4</v>
       </c>
-      <c r="M114">
+      <c r="M118">
         <v>6</v>
       </c>
-      <c r="N114">
-        <v>1.363</v>
-      </c>
-      <c r="O114">
-        <v>4.333</v>
-      </c>
-      <c r="P114">
-        <v>7</v>
-      </c>
-      <c r="Q114">
+      <c r="N118">
+        <v>1.444</v>
+      </c>
+      <c r="O118">
+        <v>3.8</v>
+      </c>
+      <c r="P118">
+        <v>6</v>
+      </c>
+      <c r="Q118">
         <v>-1.25</v>
       </c>
-      <c r="R114">
-        <v>1.8</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>1.925</v>
-      </c>
-      <c r="V114">
-        <v>1.875</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-      <c r="X114">
-        <v>0</v>
-      </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
-      <c r="AA114">
-        <v>0</v>
+      <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
+        <v>1.825</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.9</v>
+      </c>
+      <c r="V118">
+        <v>1.9</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>2.8</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.825</v>
+      </c>
+      <c r="AB118">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC118">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q95">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N96">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P96">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O106">
         <v>4</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
         <v>1.85</v>
-      </c>
-      <c r="S107">
-        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -11009,6 +11009,273 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7719643</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45367.3125</v>
+      </c>
+      <c r="F119" t="s">
+        <v>32</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" t="s">
+        <v>41</v>
+      </c>
+      <c r="K119">
+        <v>5</v>
+      </c>
+      <c r="L119">
+        <v>4.5</v>
+      </c>
+      <c r="M119">
+        <v>1.444</v>
+      </c>
+      <c r="N119">
+        <v>8</v>
+      </c>
+      <c r="O119">
+        <v>6.5</v>
+      </c>
+      <c r="P119">
+        <v>1.2</v>
+      </c>
+      <c r="Q119">
+        <v>1.75</v>
+      </c>
+      <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.825</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>1.825</v>
+      </c>
+      <c r="V119">
+        <v>1.975</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>0.2</v>
+      </c>
+      <c r="Z119">
+        <v>-0.5</v>
+      </c>
+      <c r="AA119">
+        <v>0.4125</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7721007</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45367.39583333334</v>
+      </c>
+      <c r="F120" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>5</v>
+      </c>
+      <c r="J120" t="s">
+        <v>41</v>
+      </c>
+      <c r="K120">
+        <v>2.25</v>
+      </c>
+      <c r="L120">
+        <v>3.3</v>
+      </c>
+      <c r="M120">
+        <v>2.75</v>
+      </c>
+      <c r="N120">
+        <v>2.1</v>
+      </c>
+      <c r="O120">
+        <v>3.25</v>
+      </c>
+      <c r="P120">
+        <v>3</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>1.875</v>
+      </c>
+      <c r="S120">
+        <v>1.925</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>1.825</v>
+      </c>
+      <c r="V120">
+        <v>1.975</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>2</v>
+      </c>
+      <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.925</v>
+      </c>
+      <c r="AB120">
+        <v>0.825</v>
+      </c>
+      <c r="AC120">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7721087</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45367.39583333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
+      <c r="K121">
+        <v>2.2</v>
+      </c>
+      <c r="L121">
+        <v>3.3</v>
+      </c>
+      <c r="M121">
+        <v>2.8</v>
+      </c>
+      <c r="N121">
+        <v>1.85</v>
+      </c>
+      <c r="O121">
+        <v>3.6</v>
+      </c>
+      <c r="P121">
+        <v>3.4</v>
+      </c>
+      <c r="Q121">
+        <v>-0.5</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
+        <v>1.85</v>
+      </c>
+      <c r="W121">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>0.95</v>
+      </c>
+      <c r="AC121">
         <v>-1</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>Paide Linnameeskond</t>
   </si>
   <si>
-    <t>Viimsi JK</t>
+    <t>JK Nomme United</t>
   </si>
   <si>
-    <t>JK Nomme United</t>
+    <t>Viimsi JK</t>
   </si>
   <si>
     <t>A</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="V104">
-        <v>1.95</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R107">
+        <v>1.85</v>
+      </c>
+      <c r="S107">
         <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.85</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
         <v>0.95</v>
       </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10142,7 +10142,7 @@
         <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -11277,6 +11277,184 @@
       </c>
       <c r="AC121">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7721008</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45368.3125</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
+      </c>
+      <c r="K122">
+        <v>1.5</v>
+      </c>
+      <c r="L122">
+        <v>4.5</v>
+      </c>
+      <c r="M122">
+        <v>4.5</v>
+      </c>
+      <c r="N122">
+        <v>1.909</v>
+      </c>
+      <c r="O122">
+        <v>4</v>
+      </c>
+      <c r="P122">
+        <v>3.1</v>
+      </c>
+      <c r="Q122">
+        <v>-0.5</v>
+      </c>
+      <c r="R122">
+        <v>1.975</v>
+      </c>
+      <c r="S122">
+        <v>1.825</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
+        <v>1.825</v>
+      </c>
+      <c r="W122">
+        <v>0.909</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7723750</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45368.39583333334</v>
+      </c>
+      <c r="F123" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123">
+        <v>5</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>1.5</v>
+      </c>
+      <c r="N123">
+        <v>7</v>
+      </c>
+      <c r="O123">
+        <v>4.5</v>
+      </c>
+      <c r="P123">
+        <v>1.363</v>
+      </c>
+      <c r="Q123">
+        <v>1.5</v>
+      </c>
+      <c r="R123">
+        <v>1.85</v>
+      </c>
+      <c r="S123">
+        <v>1.95</v>
+      </c>
+      <c r="T123">
+        <v>3</v>
+      </c>
+      <c r="U123">
+        <v>1.775</v>
+      </c>
+      <c r="V123">
+        <v>2.025</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>3.5</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N71">
+        <v>7</v>
+      </c>
+      <c r="O71">
+        <v>6</v>
+      </c>
+      <c r="P71">
+        <v>1.25</v>
+      </c>
+      <c r="Q71">
+        <v>1.75</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
         <v>3</v>
       </c>
-      <c r="O71">
-        <v>3.25</v>
-      </c>
-      <c r="P71">
-        <v>2.2</v>
-      </c>
-      <c r="Q71">
+      <c r="U71">
+        <v>1.95</v>
+      </c>
+      <c r="V71">
+        <v>1.85</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>0.25</v>
       </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O106">
         <v>4</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
         <v>1.85</v>
-      </c>
-      <c r="S107">
-        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>6</v>
-      </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11457,6 +11457,80 @@
         <v>1.025</v>
       </c>
     </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7721010</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45382.35416666666</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" t="s">
+        <v>38</v>
+      </c>
+      <c r="K124">
+        <v>1.615</v>
+      </c>
+      <c r="L124">
+        <v>3.7</v>
+      </c>
+      <c r="M124">
+        <v>4.8</v>
+      </c>
+      <c r="N124">
+        <v>1.75</v>
+      </c>
+      <c r="O124">
+        <v>3.5</v>
+      </c>
+      <c r="P124">
+        <v>4</v>
+      </c>
+      <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.9</v>
+      </c>
+      <c r="V124">
+        <v>1.9</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <v>6</v>
+      </c>
+      <c r="P72">
+        <v>1.25</v>
+      </c>
+      <c r="Q72">
+        <v>1.75</v>
+      </c>
+      <c r="R72">
+        <v>1.9</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
         <v>3</v>
       </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>2.2</v>
-      </c>
-      <c r="Q72">
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.85</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>0.25</v>
       </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>2</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N88">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.909</v>
+      </c>
+      <c r="N89">
+        <v>2.4</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>2.45</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89">
-        <v>1.615</v>
-      </c>
-      <c r="L89">
-        <v>4</v>
-      </c>
-      <c r="M89">
-        <v>4.5</v>
-      </c>
-      <c r="N89">
-        <v>1.85</v>
-      </c>
-      <c r="O89">
-        <v>3.8</v>
-      </c>
-      <c r="P89">
-        <v>3.5</v>
-      </c>
-      <c r="Q89">
-        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L104">
         <v>4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
         <v>4</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
         <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11121,7 +11121,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7721010</v>
+        <v>7719645</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11471,43 +11471,52 @@
         <v>28</v>
       </c>
       <c r="E124" s="2">
-        <v>45382.35416666666</v>
+        <v>45380.39583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L124">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>4.8</v>
+        <v>2.05</v>
       </c>
       <c r="N124">
+        <v>4.75</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>1.571</v>
+      </c>
+      <c r="Q124">
+        <v>0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.95</v>
+      </c>
+      <c r="S124">
         <v>1.75</v>
       </c>
-      <c r="O124">
-        <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>4</v>
-      </c>
-      <c r="Q124">
-        <v>-0.5</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.9</v>
@@ -11516,19 +11525,203 @@
         <v>1.9</v>
       </c>
       <c r="W124">
+        <v>3.75</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.95</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>0.45</v>
+      </c>
+      <c r="AC124">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7719646</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45381.3125</v>
+      </c>
+      <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="s">
+        <v>41</v>
+      </c>
+      <c r="K125">
+        <v>3.1</v>
+      </c>
+      <c r="L125">
+        <v>3.3</v>
+      </c>
+      <c r="M125">
+        <v>2.15</v>
+      </c>
+      <c r="N125">
+        <v>5.5</v>
+      </c>
+      <c r="O125">
+        <v>4</v>
+      </c>
+      <c r="P125">
+        <v>1.5</v>
+      </c>
+      <c r="Q125">
+        <v>1</v>
+      </c>
+      <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
+        <v>1.975</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.5</v>
+      </c>
+      <c r="Z125">
         <v>0</v>
       </c>
-      <c r="X124">
+      <c r="AA125">
+        <v>-0</v>
+      </c>
+      <c r="AB125">
+        <v>0.4125</v>
+      </c>
+      <c r="AC125">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7721009</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45381.39583333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
+        <v>39</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
         <v>0</v>
       </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
-      <c r="Z124">
-        <v>0</v>
-      </c>
-      <c r="AA124">
-        <v>0</v>
+      <c r="J126" t="s">
+        <v>42</v>
+      </c>
+      <c r="K126">
+        <v>1.95</v>
+      </c>
+      <c r="L126">
+        <v>3.3</v>
+      </c>
+      <c r="M126">
+        <v>3.6</v>
+      </c>
+      <c r="N126">
+        <v>2.1</v>
+      </c>
+      <c r="O126">
+        <v>3.25</v>
+      </c>
+      <c r="P126">
+        <v>3.1</v>
+      </c>
+      <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>1.875</v>
+      </c>
+      <c r="S126">
+        <v>1.925</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>1.85</v>
+      </c>
+      <c r="V126">
+        <v>1.95</v>
+      </c>
+      <c r="W126">
+        <v>1.1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>0.875</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6846,7 +6846,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
         <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O96">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q96">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
         <v>4</v>
       </c>
       <c r="M104">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537957</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,40 +9783,40 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>43</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L105">
+        <v>3.8</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
         <v>4</v>
       </c>
-      <c r="M105">
-        <v>7.5</v>
-      </c>
-      <c r="N105">
-        <v>1.5</v>
-      </c>
-      <c r="O105">
-        <v>4.2</v>
-      </c>
       <c r="P105">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
         <v>1.85</v>
@@ -9828,31 +9828,31 @@
         <v>2.75</v>
       </c>
       <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="V105">
-        <v>1.95</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
       </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6535416</v>
+        <v>6533597</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,46 +9872,46 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
         <v>1.85</v>
-      </c>
-      <c r="S106">
-        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
@@ -9923,25 +9923,25 @@
         <v>1.85</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.95</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>0.95</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,13 +9961,13 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -9976,43 +9976,43 @@
         <v>42</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,16 +10021,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11121,7 +11121,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11722,6 +11722,184 @@
       </c>
       <c r="AC126">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7721088</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45382.27083333334</v>
+      </c>
+      <c r="F127" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>43</v>
+      </c>
+      <c r="K127">
+        <v>11</v>
+      </c>
+      <c r="L127">
+        <v>5.4</v>
+      </c>
+      <c r="M127">
+        <v>1.222</v>
+      </c>
+      <c r="N127">
+        <v>4.5</v>
+      </c>
+      <c r="O127">
+        <v>3.6</v>
+      </c>
+      <c r="P127">
+        <v>1.666</v>
+      </c>
+      <c r="Q127">
+        <v>0.75</v>
+      </c>
+      <c r="R127">
+        <v>1.925</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
+        <v>1.975</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>2.6</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.925</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>7721010</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45382.35416666666</v>
+      </c>
+      <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
+        <v>38</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>42</v>
+      </c>
+      <c r="K128">
+        <v>1.615</v>
+      </c>
+      <c r="L128">
+        <v>3.7</v>
+      </c>
+      <c r="M128">
+        <v>4.8</v>
+      </c>
+      <c r="N128">
+        <v>1.75</v>
+      </c>
+      <c r="O128">
+        <v>3.5</v>
+      </c>
+      <c r="P128">
+        <v>4</v>
+      </c>
+      <c r="Q128">
+        <v>-0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>1.825</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>1.925</v>
+      </c>
+      <c r="V128">
+        <v>1.875</v>
+      </c>
+      <c r="W128">
+        <v>0.75</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N71">
+        <v>7</v>
+      </c>
+      <c r="O71">
+        <v>6</v>
+      </c>
+      <c r="P71">
+        <v>1.25</v>
+      </c>
+      <c r="Q71">
+        <v>1.75</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
         <v>3</v>
       </c>
-      <c r="O71">
-        <v>3.25</v>
-      </c>
-      <c r="P71">
-        <v>2.2</v>
-      </c>
-      <c r="Q71">
+      <c r="U71">
+        <v>1.95</v>
+      </c>
+      <c r="V71">
+        <v>1.85</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>0.25</v>
       </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="V104">
-        <v>1.95</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9887,43 +9887,43 @@
         <v>42</v>
       </c>
       <c r="K106">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L107">
         <v>4</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>6</v>
-      </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6757,7 +6757,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
         <v>31</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O106">
         <v>4</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
         <v>1.85</v>
-      </c>
-      <c r="S107">
-        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
         <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11900,6 +11900,169 @@
       </c>
       <c r="AC128">
         <v>0.875</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7721011</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45387.54166666666</v>
+      </c>
+      <c r="F129" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>42</v>
+      </c>
+      <c r="K129">
+        <v>3.8</v>
+      </c>
+      <c r="L129">
+        <v>3.5</v>
+      </c>
+      <c r="M129">
+        <v>1.85</v>
+      </c>
+      <c r="N129">
+        <v>4.2</v>
+      </c>
+      <c r="O129">
+        <v>3.4</v>
+      </c>
+      <c r="P129">
+        <v>1.8</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.9</v>
+      </c>
+      <c r="V129">
+        <v>1.9</v>
+      </c>
+      <c r="W129">
+        <v>3.2</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>0.8</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7719647</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45388.27083333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+      <c r="K130">
+        <v>3.9</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>1.85</v>
+      </c>
+      <c r="N130">
+        <v>7.5</v>
+      </c>
+      <c r="O130">
+        <v>3.75</v>
+      </c>
+      <c r="P130">
+        <v>1.4</v>
+      </c>
+      <c r="Q130">
+        <v>1.25</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
+        <v>1.95</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11991,80 +11991,6 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:29">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>7719647</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" s="2">
-        <v>45388.27083333334</v>
-      </c>
-      <c r="F130" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
-      </c>
-      <c r="K130">
-        <v>3.9</v>
-      </c>
-      <c r="L130">
-        <v>3.4</v>
-      </c>
-      <c r="M130">
-        <v>1.85</v>
-      </c>
-      <c r="N130">
-        <v>7.5</v>
-      </c>
-      <c r="O130">
-        <v>3.75</v>
-      </c>
-      <c r="P130">
-        <v>1.4</v>
-      </c>
-      <c r="Q130">
-        <v>1.25</v>
-      </c>
-      <c r="R130">
-        <v>1.9</v>
-      </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.85</v>
-      </c>
-      <c r="V130">
-        <v>1.95</v>
-      </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-      <c r="X130">
-        <v>0</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AA130">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6757,7 +6757,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
         <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q95">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N96">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P96">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="V104">
-        <v>1.95</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O106">
         <v>4</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R107">
+        <v>1.85</v>
+      </c>
+      <c r="S107">
         <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.85</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
         <v>0.95</v>
       </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11210,7 +11210,7 @@
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -11988,6 +11988,362 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7719647</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45388.27083333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>5</v>
+      </c>
+      <c r="J130" t="s">
+        <v>41</v>
+      </c>
+      <c r="K130">
+        <v>3.9</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>1.85</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130">
+        <v>3.6</v>
+      </c>
+      <c r="P130">
+        <v>1.5</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.75</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
+        <v>1.95</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>0.5</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.75</v>
+      </c>
+      <c r="AB130">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7721012</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45388.35416666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>42</v>
+      </c>
+      <c r="K131">
+        <v>1.3</v>
+      </c>
+      <c r="L131">
+        <v>5.25</v>
+      </c>
+      <c r="M131">
+        <v>7.5</v>
+      </c>
+      <c r="N131">
+        <v>1.2</v>
+      </c>
+      <c r="O131">
+        <v>7</v>
+      </c>
+      <c r="P131">
+        <v>7.5</v>
+      </c>
+      <c r="Q131">
+        <v>-2</v>
+      </c>
+      <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
+        <v>1.975</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
+        <v>1.8</v>
+      </c>
+      <c r="W131">
+        <v>0.2</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>-0</v>
+      </c>
+      <c r="AB131">
+        <v>1</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7721013</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s">
+        <v>37</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" t="s">
+        <v>42</v>
+      </c>
+      <c r="K132">
+        <v>1.181</v>
+      </c>
+      <c r="L132">
+        <v>6</v>
+      </c>
+      <c r="M132">
+        <v>13</v>
+      </c>
+      <c r="N132">
+        <v>1.4</v>
+      </c>
+      <c r="O132">
+        <v>6</v>
+      </c>
+      <c r="P132">
+        <v>5.25</v>
+      </c>
+      <c r="Q132">
+        <v>-1.25</v>
+      </c>
+      <c r="R132">
+        <v>1.85</v>
+      </c>
+      <c r="S132">
+        <v>1.95</v>
+      </c>
+      <c r="T132">
+        <v>3</v>
+      </c>
+      <c r="U132">
+        <v>1.925</v>
+      </c>
+      <c r="V132">
+        <v>1.875</v>
+      </c>
+      <c r="W132">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>-0.5</v>
+      </c>
+      <c r="AA132">
+        <v>0.475</v>
+      </c>
+      <c r="AB132">
+        <v>0.925</v>
+      </c>
+      <c r="AC132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7719648</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45389.35416666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>42</v>
+      </c>
+      <c r="K133">
+        <v>2.05</v>
+      </c>
+      <c r="L133">
+        <v>3.3</v>
+      </c>
+      <c r="M133">
+        <v>3.4</v>
+      </c>
+      <c r="N133">
+        <v>2.2</v>
+      </c>
+      <c r="O133">
+        <v>3.3</v>
+      </c>
+      <c r="P133">
+        <v>3.1</v>
+      </c>
+      <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
+        <v>1.9</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
+        <v>1.925</v>
+      </c>
+      <c r="V133">
+        <v>1.875</v>
+      </c>
+      <c r="W133">
+        <v>1.2</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>0.925</v>
+      </c>
+      <c r="AC133">
         <v>-1</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <v>6</v>
+      </c>
+      <c r="P72">
+        <v>1.25</v>
+      </c>
+      <c r="Q72">
+        <v>1.75</v>
+      </c>
+      <c r="R72">
+        <v>1.9</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
         <v>3</v>
       </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>2.2</v>
-      </c>
-      <c r="Q72">
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.85</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>0.25</v>
       </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>2</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88">
+        <v>3.6</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>1.909</v>
+      </c>
+      <c r="N88">
+        <v>2.4</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>2.45</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>1.615</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>4.5</v>
-      </c>
-      <c r="N88">
-        <v>1.85</v>
-      </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.5</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O96">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q96">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,46 +9694,46 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
@@ -9745,25 +9745,25 @@
         <v>1.85</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6533597</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,46 +9783,46 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
         <v>1.85</v>
-      </c>
-      <c r="S105">
-        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
@@ -9834,25 +9834,25 @@
         <v>1.85</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.95</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>0.95</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>37</v>
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
         <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>6</v>
-      </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6846,7 +6846,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N88">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.909</v>
+      </c>
+      <c r="N89">
+        <v>2.4</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>2.45</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89">
-        <v>1.615</v>
-      </c>
-      <c r="L89">
-        <v>4</v>
-      </c>
-      <c r="M89">
-        <v>4.5</v>
-      </c>
-      <c r="N89">
-        <v>1.85</v>
-      </c>
-      <c r="O89">
-        <v>3.8</v>
-      </c>
-      <c r="P89">
-        <v>3.5</v>
-      </c>
-      <c r="Q89">
-        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q95">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N96">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P96">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6535416</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,40 +9694,40 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>43</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R104">
         <v>1.85</v>
@@ -9739,31 +9739,31 @@
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.95</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,13 +9783,13 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9798,43 +9798,43 @@
         <v>42</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O106">
         <v>4</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
         <v>1.85</v>
-      </c>
-      <c r="S107">
-        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>6</v>
-      </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6846,7 +6846,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
         <v>31</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O96">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q96">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6533597</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,13 +9783,13 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9798,43 +9798,43 @@
         <v>42</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,13 +9961,13 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -9976,43 +9976,43 @@
         <v>42</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,16 +10021,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
         <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11121,7 +11121,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N71">
+        <v>7</v>
+      </c>
+      <c r="O71">
+        <v>6</v>
+      </c>
+      <c r="P71">
+        <v>1.25</v>
+      </c>
+      <c r="Q71">
+        <v>1.75</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
         <v>3</v>
       </c>
-      <c r="O71">
-        <v>3.25</v>
-      </c>
-      <c r="P71">
-        <v>2.2</v>
-      </c>
-      <c r="Q71">
+      <c r="U71">
+        <v>1.95</v>
+      </c>
+      <c r="V71">
+        <v>1.85</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>0.25</v>
       </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88">
+        <v>3.6</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>1.909</v>
+      </c>
+      <c r="N88">
+        <v>2.4</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>2.45</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>1.615</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>4.5</v>
-      </c>
-      <c r="N88">
-        <v>1.85</v>
-      </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.5</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9961,7 +9961,7 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6757,7 +6757,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N88">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.909</v>
+      </c>
+      <c r="N89">
+        <v>2.4</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>2.45</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89">
-        <v>1.615</v>
-      </c>
-      <c r="L89">
-        <v>4</v>
-      </c>
-      <c r="M89">
-        <v>4.5</v>
-      </c>
-      <c r="N89">
-        <v>1.85</v>
-      </c>
-      <c r="O89">
-        <v>3.8</v>
-      </c>
-      <c r="P89">
-        <v>3.5</v>
-      </c>
-      <c r="Q89">
-        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L104">
         <v>4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,46 +9783,46 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
         <v>1.95</v>
-      </c>
-      <c r="S105">
-        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.75</v>
@@ -9834,25 +9834,25 @@
         <v>1.85</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
       </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6535416</v>
+        <v>6533597</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,46 +9872,46 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
         <v>1.85</v>
-      </c>
-      <c r="S106">
-        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
@@ -9923,25 +9923,25 @@
         <v>1.85</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.95</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>0.95</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L107">
         <v>4</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
         <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>6</v>
-      </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -12345,6 +12345,273 @@
       </c>
       <c r="AC133">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7721014</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45395.27083333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>41</v>
+      </c>
+      <c r="K134">
+        <v>2.2</v>
+      </c>
+      <c r="L134">
+        <v>3.4</v>
+      </c>
+      <c r="M134">
+        <v>2.75</v>
+      </c>
+      <c r="N134">
+        <v>1.6</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>4.333</v>
+      </c>
+      <c r="Q134">
+        <v>-1</v>
+      </c>
+      <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>1.775</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
+        <v>1.9</v>
+      </c>
+      <c r="V134">
+        <v>1.9</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>3.333</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB134">
+        <v>0.45</v>
+      </c>
+      <c r="AC134">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7719649</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>43</v>
+      </c>
+      <c r="K135">
+        <v>2.5</v>
+      </c>
+      <c r="L135">
+        <v>3.4</v>
+      </c>
+      <c r="M135">
+        <v>2.375</v>
+      </c>
+      <c r="N135">
+        <v>2.3</v>
+      </c>
+      <c r="O135">
+        <v>3.4</v>
+      </c>
+      <c r="P135">
+        <v>2.6</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.875</v>
+      </c>
+      <c r="V135">
+        <v>1.925</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>2.4</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>-0</v>
+      </c>
+      <c r="AB135">
+        <v>0.875</v>
+      </c>
+      <c r="AC135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7721015</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45395.54166666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" t="s">
+        <v>39</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>42</v>
+      </c>
+      <c r="K136">
+        <v>1.2</v>
+      </c>
+      <c r="L136">
+        <v>6</v>
+      </c>
+      <c r="M136">
+        <v>9</v>
+      </c>
+      <c r="N136">
+        <v>1.062</v>
+      </c>
+      <c r="O136">
+        <v>11</v>
+      </c>
+      <c r="P136">
+        <v>26</v>
+      </c>
+      <c r="Q136">
+        <v>-3.25</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>1.85</v>
+      </c>
+      <c r="T136">
+        <v>4</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
+        <v>1.85</v>
+      </c>
+      <c r="W136">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q95">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N96">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P96">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12612,6 +12612,184 @@
       </c>
       <c r="AC136">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7721016</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45396.35416666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137" t="s">
+        <v>41</v>
+      </c>
+      <c r="K137">
+        <v>4.333</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>1.571</v>
+      </c>
+      <c r="N137">
+        <v>5.75</v>
+      </c>
+      <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
+        <v>1.4</v>
+      </c>
+      <c r="Q137">
+        <v>1.25</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>1.85</v>
+      </c>
+      <c r="V137">
+        <v>1.95</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB137">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7719650</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45396.45833333334</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
+        <v>38</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>42</v>
+      </c>
+      <c r="K138">
+        <v>2.375</v>
+      </c>
+      <c r="L138">
+        <v>3.4</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.6</v>
+      </c>
+      <c r="P138">
+        <v>2.375</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.85</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.925</v>
+      </c>
+      <c r="V138">
+        <v>1.875</v>
+      </c>
+      <c r="W138">
+        <v>1.45</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>0.95</v>
+      </c>
+      <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.4625</v>
+      </c>
+      <c r="AC138">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <v>6</v>
+      </c>
+      <c r="P72">
+        <v>1.25</v>
+      </c>
+      <c r="Q72">
+        <v>1.75</v>
+      </c>
+      <c r="R72">
+        <v>1.9</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
         <v>3</v>
       </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>2.2</v>
-      </c>
-      <c r="Q72">
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.85</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>0.25</v>
       </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>2</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88">
+        <v>3.6</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>1.909</v>
+      </c>
+      <c r="N88">
+        <v>2.4</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>2.45</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>1.615</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>4.5</v>
-      </c>
-      <c r="N88">
-        <v>1.85</v>
-      </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.5</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537869</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,13 +9694,13 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9709,43 +9709,43 @@
         <v>42</v>
       </c>
       <c r="K104">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,16 +9754,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6537957</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,40 +9783,40 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>43</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R105">
         <v>1.85</v>
@@ -9828,31 +9828,31 @@
         <v>2.75</v>
       </c>
       <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
         <v>1.95</v>
       </c>
-      <c r="V105">
-        <v>1.85</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.95</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,46 +9872,46 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
         <v>1.95</v>
-      </c>
-      <c r="S106">
-        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.75</v>
@@ -9923,25 +9923,25 @@
         <v>1.85</v>
       </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
         <v>0.95</v>
       </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L107">
         <v>4</v>
       </c>
       <c r="M107">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>6</v>
-      </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11210,7 +11210,7 @@
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -12364,7 +12364,7 @@
         <v>45395.27083333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12456,7 +12456,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12790,6 +12790,95 @@
       </c>
       <c r="AC138">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7719670</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="F139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>41</v>
+      </c>
+      <c r="K139">
+        <v>7</v>
+      </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
+      <c r="M139">
+        <v>1.3</v>
+      </c>
+      <c r="N139">
+        <v>29</v>
+      </c>
+      <c r="O139">
+        <v>12</v>
+      </c>
+      <c r="P139">
+        <v>1.055</v>
+      </c>
+      <c r="Q139">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>1.85</v>
+      </c>
+      <c r="T139">
+        <v>3.5</v>
+      </c>
+      <c r="U139">
+        <v>1.775</v>
+      </c>
+      <c r="V139">
+        <v>1.925</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z139">
+        <v>0.95</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N71">
+        <v>7</v>
+      </c>
+      <c r="O71">
+        <v>6</v>
+      </c>
+      <c r="P71">
+        <v>1.25</v>
+      </c>
+      <c r="Q71">
+        <v>1.75</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
         <v>3</v>
       </c>
-      <c r="O71">
-        <v>3.25</v>
-      </c>
-      <c r="P71">
-        <v>2.2</v>
-      </c>
-      <c r="Q71">
+      <c r="U71">
+        <v>1.95</v>
+      </c>
+      <c r="V71">
+        <v>1.85</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>0.25</v>
       </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P95">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O96">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q96">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
         <v>4</v>
       </c>
       <c r="M105">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6535416</v>
+        <v>6533597</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,46 +9872,46 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
         <v>1.85</v>
-      </c>
-      <c r="S106">
-        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
@@ -9923,25 +9923,25 @@
         <v>1.85</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.95</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>0.95</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,73 +9961,73 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O107">
         <v>4</v>
       </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12879,6 +12879,169 @@
       </c>
       <c r="AC139">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7721093</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45399.54166666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+      <c r="G140" t="s">
+        <v>38</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140" t="s">
+        <v>41</v>
+      </c>
+      <c r="K140">
+        <v>2.3</v>
+      </c>
+      <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
+        <v>2.6</v>
+      </c>
+      <c r="N140">
+        <v>2.4</v>
+      </c>
+      <c r="O140">
+        <v>3.5</v>
+      </c>
+      <c r="P140">
+        <v>2.4</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>1.75</v>
+      </c>
+      <c r="V140">
+        <v>1.95</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>1.4</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB140">
+        <v>0.75</v>
+      </c>
+      <c r="AC140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7721089</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45402.35416666666</v>
+      </c>
+      <c r="F141" t="s">
+        <v>38</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141">
+        <v>1.333</v>
+      </c>
+      <c r="L141">
+        <v>4.75</v>
+      </c>
+      <c r="M141">
+        <v>6.5</v>
+      </c>
+      <c r="N141">
+        <v>1.444</v>
+      </c>
+      <c r="O141">
+        <v>4.5</v>
+      </c>
+      <c r="P141">
+        <v>5</v>
+      </c>
+      <c r="Q141">
+        <v>-1.25</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>1.8</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N88">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.909</v>
+      </c>
+      <c r="N89">
+        <v>2.4</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>2.45</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89">
-        <v>1.615</v>
-      </c>
-      <c r="L89">
-        <v>4</v>
-      </c>
-      <c r="M89">
-        <v>4.5</v>
-      </c>
-      <c r="N89">
-        <v>1.85</v>
-      </c>
-      <c r="O89">
-        <v>3.8</v>
-      </c>
-      <c r="P89">
-        <v>3.5</v>
-      </c>
-      <c r="Q89">
-        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="V104">
-        <v>1.95</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
         <v>4</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9887,43 +9887,43 @@
         <v>42</v>
       </c>
       <c r="K106">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,73 +11118,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,73 +11207,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
         <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
         <v>-1</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1.666</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.875</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>2.3</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>1.3</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6757,7 +6757,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
         <v>31</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537957</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,40 +9783,40 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>43</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L105">
+        <v>3.8</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
         <v>4</v>
       </c>
-      <c r="M105">
-        <v>7.5</v>
-      </c>
-      <c r="N105">
-        <v>1.5</v>
-      </c>
-      <c r="O105">
-        <v>4.2</v>
-      </c>
       <c r="P105">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
         <v>1.85</v>
@@ -9828,31 +9828,31 @@
         <v>2.75</v>
       </c>
       <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="V105">
-        <v>1.95</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
       </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L106">
         <v>4</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N106">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,73 +9961,73 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L107">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
         <v>4</v>
       </c>
       <c r="P107">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
         <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="O116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11210,7 +11210,7 @@
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -12364,7 +12364,7 @@
         <v>45395.27083333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12456,7 +12456,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12809,7 +12809,7 @@
         <v>45398.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>36</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7721089</v>
+        <v>7723749</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,49 +12984,49 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45402.35416666666</v>
+        <v>45402.27083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="N141">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O141">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
         <v>1.95</v>
       </c>
-      <c r="S141">
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
         <v>1.85</v>
-      </c>
-      <c r="T141">
-        <v>3</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
-      <c r="V141">
-        <v>1.8</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13041,6 +13041,80 @@
         <v>0</v>
       </c>
       <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7721089</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45402.35416666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
+        <v>32</v>
+      </c>
+      <c r="K142">
+        <v>1.333</v>
+      </c>
+      <c r="L142">
+        <v>4.75</v>
+      </c>
+      <c r="M142">
+        <v>6.5</v>
+      </c>
+      <c r="N142">
+        <v>1.444</v>
+      </c>
+      <c r="O142">
+        <v>4.5</v>
+      </c>
+      <c r="P142">
+        <v>5</v>
+      </c>
+      <c r="Q142">
+        <v>-1.25</v>
+      </c>
+      <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
         <v>0</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12970,154 +12970,6 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:29">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>7723749</v>
-      </c>
-      <c r="C141" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" t="s">
-        <v>28</v>
-      </c>
-      <c r="E141" s="2">
-        <v>45402.27083333334</v>
-      </c>
-      <c r="F141" t="s">
-        <v>39</v>
-      </c>
-      <c r="G141" t="s">
-        <v>31</v>
-      </c>
-      <c r="K141">
-        <v>3.8</v>
-      </c>
-      <c r="L141">
-        <v>3.75</v>
-      </c>
-      <c r="M141">
-        <v>1.7</v>
-      </c>
-      <c r="N141">
-        <v>3.8</v>
-      </c>
-      <c r="O141">
-        <v>3.75</v>
-      </c>
-      <c r="P141">
-        <v>1.7</v>
-      </c>
-      <c r="Q141">
-        <v>0.75</v>
-      </c>
-      <c r="R141">
-        <v>1.85</v>
-      </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.95</v>
-      </c>
-      <c r="V141">
-        <v>1.85</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>7721089</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45402.35416666666</v>
-      </c>
-      <c r="F142" t="s">
-        <v>38</v>
-      </c>
-      <c r="G142" t="s">
-        <v>32</v>
-      </c>
-      <c r="K142">
-        <v>1.333</v>
-      </c>
-      <c r="L142">
-        <v>4.75</v>
-      </c>
-      <c r="M142">
-        <v>6.5</v>
-      </c>
-      <c r="N142">
-        <v>1.444</v>
-      </c>
-      <c r="O142">
-        <v>4.5</v>
-      </c>
-      <c r="P142">
-        <v>5</v>
-      </c>
-      <c r="Q142">
-        <v>-1.25</v>
-      </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
-      <c r="S142">
-        <v>1.85</v>
-      </c>
-      <c r="T142">
-        <v>3</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>1.666</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.2</v>
+      </c>
+      <c r="N4">
+        <v>1.727</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.75</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>1.9</v>
+      </c>
+      <c r="W4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>2.4</v>
-      </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>2.3</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.75</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>1.3</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>45105.5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>45115.5625</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2666,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3108,7 +3108,7 @@
         <v>45130.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3378,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3642,10 +3642,10 @@
         <v>45143.5625</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>45158.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4799,7 +4799,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5689,7 +5689,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,34 +6134,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
         <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>6</v>
@@ -6170,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6185,19 +6185,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
         <v>0.8999999999999999</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,34 +6223,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
         <v>3.8</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
         <v>1.95</v>
@@ -6274,19 +6274,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6315,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <v>6</v>
+      </c>
+      <c r="P72">
+        <v>1.25</v>
+      </c>
+      <c r="Q72">
+        <v>1.75</v>
+      </c>
+      <c r="R72">
+        <v>1.9</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
         <v>3</v>
       </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>2.2</v>
-      </c>
-      <c r="Q72">
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.85</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>0.25</v>
       </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>2</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,7 +7116,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,40 +8270,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88">
+        <v>3.6</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>1.909</v>
+      </c>
+      <c r="N88">
+        <v>2.4</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>2.45</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>1.615</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>4.5</v>
-      </c>
-      <c r="N88">
-        <v>1.85</v>
-      </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.5</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8312,22 +8312,22 @@
         <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8336,10 +8336,10 @@
         <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,40 +8359,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8401,22 +8401,22 @@
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
@@ -8425,10 +8425,10 @@
         <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9338,7 +9338,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -9519,7 +9519,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45241.375</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45241.375</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537957</v>
+        <v>6535416</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,40 +9872,40 @@
         <v>45241.375</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L106">
+        <v>3.8</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
         <v>4</v>
       </c>
-      <c r="M106">
-        <v>7.5</v>
-      </c>
-      <c r="N106">
-        <v>1.5</v>
-      </c>
-      <c r="O106">
-        <v>4.2</v>
-      </c>
       <c r="P106">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
         <v>1.85</v>
@@ -9917,31 +9917,31 @@
         <v>2.75</v>
       </c>
       <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
         <v>0.95</v>
       </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537869</v>
+        <v>6533597</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,13 +9961,13 @@
         <v>45241.375</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -9976,43 +9976,43 @@
         <v>42</v>
       </c>
       <c r="K107">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,16 +10021,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10406,10 +10406,10 @@
         <v>45354.3125</v>
       </c>
       <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10943,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11210,7 +11210,7 @@
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11477,7 +11477,7 @@
         <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11741,7 +11741,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -12364,7 +12364,7 @@
         <v>45395.27083333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12456,7 +12456,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12809,7 +12809,7 @@
         <v>45398.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>36</v>
@@ -12967,6 +12967,362 @@
         <v>0.75</v>
       </c>
       <c r="AC140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7723749</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45402.27083333334</v>
+      </c>
+      <c r="F141" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>41</v>
+      </c>
+      <c r="K141">
+        <v>3.8</v>
+      </c>
+      <c r="L141">
+        <v>3.75</v>
+      </c>
+      <c r="M141">
+        <v>1.7</v>
+      </c>
+      <c r="N141">
+        <v>2.75</v>
+      </c>
+      <c r="O141">
+        <v>3.4</v>
+      </c>
+      <c r="P141">
+        <v>2.25</v>
+      </c>
+      <c r="Q141">
+        <v>0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.8</v>
+      </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
+        <v>1.85</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>1.25</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>1</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7721089</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45402.35416666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>41</v>
+      </c>
+      <c r="K142">
+        <v>1.333</v>
+      </c>
+      <c r="L142">
+        <v>4.75</v>
+      </c>
+      <c r="M142">
+        <v>6.5</v>
+      </c>
+      <c r="N142">
+        <v>1.5</v>
+      </c>
+      <c r="O142">
+        <v>4.5</v>
+      </c>
+      <c r="P142">
+        <v>4.5</v>
+      </c>
+      <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
+        <v>1.975</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>3.5</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>1</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7721017</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45402.45833333334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>43</v>
+      </c>
+      <c r="K143">
+        <v>1.166</v>
+      </c>
+      <c r="L143">
+        <v>7</v>
+      </c>
+      <c r="M143">
+        <v>11</v>
+      </c>
+      <c r="N143">
+        <v>1.1</v>
+      </c>
+      <c r="O143">
+        <v>8.5</v>
+      </c>
+      <c r="P143">
+        <v>19</v>
+      </c>
+      <c r="Q143">
+        <v>-2.5</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>1.975</v>
+      </c>
+      <c r="T143">
+        <v>3.25</v>
+      </c>
+      <c r="U143">
+        <v>1.775</v>
+      </c>
+      <c r="V143">
+        <v>1.925</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>7.5</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7721018</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45403.35416666666</v>
+      </c>
+      <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
+        <v>37</v>
+      </c>
+      <c r="H144">
+        <v>5</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>42</v>
+      </c>
+      <c r="K144">
+        <v>2.3</v>
+      </c>
+      <c r="L144">
+        <v>3.4</v>
+      </c>
+      <c r="M144">
+        <v>2.6</v>
+      </c>
+      <c r="N144">
+        <v>2.6</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
+        <v>2.3</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
+        <v>1.975</v>
+      </c>
+      <c r="V144">
+        <v>1.825</v>
+      </c>
+      <c r="W144">
+        <v>1.6</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>1</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC144">
         <v>-1</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +667,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -753,10 +753,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -782,73 +782,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -856,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -868,65 +868,65 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>1.666</v>
+      </c>
+      <c r="K5">
+        <v>3.6</v>
+      </c>
+      <c r="L5">
+        <v>4.2</v>
+      </c>
+      <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>3.5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>-0.75</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1.8</v>
+      </c>
+      <c r="S5">
+        <v>2.5</v>
+      </c>
+      <c r="T5">
+        <v>1.9</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5">
-        <v>2.4</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>2.5</v>
-      </c>
-      <c r="M5">
-        <v>2.875</v>
-      </c>
-      <c r="N5">
-        <v>3.1</v>
-      </c>
-      <c r="O5">
-        <v>2.3</v>
-      </c>
-      <c r="P5">
-        <v>0.25</v>
-      </c>
-      <c r="Q5">
-        <v>1.75</v>
-      </c>
-      <c r="R5">
-        <v>2.05</v>
-      </c>
-      <c r="S5">
-        <v>2.25</v>
-      </c>
-      <c r="T5">
-        <v>1.925</v>
-      </c>
-      <c r="U5">
-        <v>1.875</v>
-      </c>
-      <c r="V5">
-        <v>-1</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>1.3</v>
-      </c>
-      <c r="Y5">
-        <v>0.75</v>
-      </c>
       <c r="Z5">
         <v>-1</v>
       </c>
@@ -934,7 +934,7 @@
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1097,10 +1097,10 @@
         <v>0.181</v>
       </c>
       <c r="Y7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
         <v>0.8500000000000001</v>
@@ -1183,10 +1183,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1269,10 +1269,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1298,7 +1298,7 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1384,7 +1384,7 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1441,10 +1441,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-0.5</v>
@@ -1527,10 +1527,10 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <v>0.75</v>
@@ -1553,7 +1553,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
@@ -1613,10 +1613,10 @@
         <v>3.333</v>
       </c>
       <c r="Y13">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>0.875</v>
@@ -1725,7 +1725,7 @@
         <v>45105.5</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -2129,10 +2129,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0.4</v>
@@ -2158,7 +2158,7 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2215,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>0.475</v>
@@ -2244,7 +2244,7 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2301,10 +2301,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2473,10 +2473,10 @@
         <v>2.6</v>
       </c>
       <c r="Y23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA23">
         <v>0.875</v>
@@ -2499,7 +2499,7 @@
         <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -2559,10 +2559,10 @@
         <v>1.05</v>
       </c>
       <c r="Y24">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA24">
         <v>0.925</v>
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2645,10 +2645,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>0.8999999999999999</v>
@@ -2731,10 +2731,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>0.45</v>
@@ -2757,7 +2757,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
@@ -2903,10 +2903,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -2989,10 +2989,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>0.875</v>
@@ -3015,7 +3015,7 @@
         <v>45130.5</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -3161,10 +3161,10 @@
         <v>18</v>
       </c>
       <c r="Y31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
         <v>0.8999999999999999</v>
@@ -3276,7 +3276,7 @@
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3333,10 +3333,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>0.9750000000000001</v>
@@ -3419,10 +3419,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>0.925</v>
@@ -3505,10 +3505,10 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
         <v>0.75</v>
@@ -3531,10 +3531,10 @@
         <v>45143.5625</v>
       </c>
       <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
         <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3763,10 +3763,10 @@
         <v>0.363</v>
       </c>
       <c r="Y38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>0.875</v>
@@ -3792,7 +3792,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3961,7 +3961,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>29</v>
@@ -4107,10 +4107,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>-1</v>
@@ -4193,10 +4193,10 @@
         <v>0.7</v>
       </c>
       <c r="Y43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4222,7 +4222,7 @@
         <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4279,10 +4279,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>1.025</v>
@@ -4477,7 +4477,7 @@
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
         <v>32</v>
@@ -4623,10 +4623,10 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z48">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4649,7 +4649,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
         <v>33</v>
@@ -4738,7 +4738,7 @@
         <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4967,10 +4967,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.8500000000000001</v>
@@ -4996,7 +4996,7 @@
         <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5053,10 +5053,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>0.825</v>
@@ -5139,10 +5139,10 @@
         <v>1.3</v>
       </c>
       <c r="Y54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
         <v>0.925</v>
@@ -5168,7 +5168,7 @@
         <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5311,10 +5311,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5423,7 +5423,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
         <v>36</v>
@@ -5483,10 +5483,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>0.875</v>
@@ -5509,7 +5509,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
@@ -5569,10 +5569,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
         <v>0.8500000000000001</v>
@@ -5655,10 +5655,10 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z60">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5827,10 +5827,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z62">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
         <v>0.925</v>
@@ -5856,7 +5856,7 @@
         <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5999,10 +5999,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.8999999999999999</v>
@@ -6085,10 +6085,10 @@
         <v>5</v>
       </c>
       <c r="Y65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
         <v>0.8999999999999999</v>
@@ -6114,7 +6114,7 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6171,10 +6171,10 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
         <v>0.8500000000000001</v>
@@ -6257,10 +6257,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>0.925</v>
@@ -6343,10 +6343,10 @@
         <v>0.444</v>
       </c>
       <c r="Y68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
         <v>-1</v>
@@ -6455,7 +6455,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
         <v>37</v>
@@ -6515,10 +6515,10 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>0.5</v>
@@ -6601,10 +6601,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>0.875</v>
@@ -6627,7 +6627,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
         <v>32</v>
@@ -6799,7 +6799,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -6859,10 +6859,10 @@
         <v>0.571</v>
       </c>
       <c r="Y74">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA74">
         <v>0.45</v>
@@ -6888,7 +6888,7 @@
         <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7117,10 +7117,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
         <v>35</v>
@@ -7318,7 +7318,7 @@
         <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7375,10 +7375,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7461,10 +7461,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0</v>
@@ -7547,10 +7547,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>0.875</v>
@@ -7573,7 +7573,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
         <v>33</v>
@@ -7633,10 +7633,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7719,10 +7719,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>0.4875</v>
@@ -7748,7 +7748,7 @@
         <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7994,7 +7994,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8003,40 +8003,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J88">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="K88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="N88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O88">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
         <v>1.875</v>
@@ -8045,34 +8045,34 @@
         <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8080,7 +8080,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8089,40 +8089,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J89">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M89">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="N89">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>1.875</v>
@@ -8131,22 +8131,22 @@
         <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8155,10 +8155,10 @@
         <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8235,10 +8235,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8321,10 +8321,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
         <v>0.9750000000000001</v>
@@ -8407,10 +8407,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>0.95</v>
@@ -8436,7 +8436,7 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8493,10 +8493,10 @@
         <v>1.15</v>
       </c>
       <c r="Y93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
         <v>-1</v>
@@ -8596,7 +8596,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8605,76 +8605,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J95">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="K95">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M95">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N95">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O95">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P95">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
         <v>3</v>
       </c>
       <c r="T95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8682,7 +8682,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8691,76 +8691,76 @@
         <v>45231.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J96">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="K96">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L96">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N96">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P96">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
         <v>3</v>
       </c>
       <c r="T96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
         <v>-1</v>
       </c>
       <c r="W96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8837,10 +8837,10 @@
         <v>0.3</v>
       </c>
       <c r="Y97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>0.825</v>
@@ -9009,10 +9009,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
         <v>0.875</v>
@@ -9035,7 +9035,7 @@
         <v>45235.3125</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
         <v>29</v>
@@ -9181,10 +9181,10 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
         <v>0.925</v>
@@ -9210,7 +9210,7 @@
         <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9267,10 +9267,10 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z102">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9293,7 +9293,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
         <v>34</v>
@@ -9353,10 +9353,10 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
         <v>0.4875</v>
@@ -9370,7 +9370,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6535416</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9379,40 +9379,40 @@
         <v>45241.375</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
         <v>42</v>
       </c>
       <c r="J104">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="K104">
+        <v>3.8</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
         <v>4</v>
       </c>
-      <c r="L104">
-        <v>7.5</v>
-      </c>
-      <c r="M104">
-        <v>1.5</v>
-      </c>
-      <c r="N104">
-        <v>4.2</v>
-      </c>
       <c r="O104">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="P104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q104">
         <v>1.85</v>
@@ -9424,31 +9424,31 @@
         <v>2.75</v>
       </c>
       <c r="T104">
+        <v>1.95</v>
+      </c>
+      <c r="U104">
         <v>1.85</v>
       </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9456,7 +9456,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6533597</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9465,13 +9465,13 @@
         <v>45241.375</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9480,43 +9480,43 @@
         <v>41</v>
       </c>
       <c r="J105">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M105">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
         <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9525,16 +9525,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9542,7 +9542,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6535416</v>
+        <v>6537957</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9551,40 +9551,40 @@
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>42</v>
       </c>
       <c r="J106">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="K106">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N106">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O106">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="P106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q106">
         <v>1.85</v>
@@ -9596,31 +9596,31 @@
         <v>2.75</v>
       </c>
       <c r="T106">
+        <v>1.85</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="U106">
-        <v>1.85</v>
-      </c>
       <c r="V106">
         <v>-1</v>
       </c>
       <c r="W106">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
         <v>0.95</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9628,7 +9628,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9637,13 +9637,13 @@
         <v>45241.375</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -9652,43 +9652,43 @@
         <v>41</v>
       </c>
       <c r="J107">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L107">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M107">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O107">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S107">
         <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -9697,16 +9697,16 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9723,7 +9723,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
         <v>39</v>
@@ -9869,10 +9869,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -9955,10 +9955,10 @@
         <v>0.333</v>
       </c>
       <c r="Y110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
         <v>0.9750000000000001</v>
@@ -10041,10 +10041,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>0.75</v>
@@ -10067,10 +10067,10 @@
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" t="s">
         <v>31</v>
-      </c>
-      <c r="F112" t="s">
-        <v>30</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10213,10 +10213,10 @@
         <v>0.222</v>
       </c>
       <c r="Y113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
         <v>-0.5</v>
@@ -10239,7 +10239,7 @@
         <v>45360.3125</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
         <v>33</v>
@@ -10299,10 +10299,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10316,7 +10316,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10325,76 +10325,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J115">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="K115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L115">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="M115">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="N115">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Q115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10402,7 +10402,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10411,76 +10411,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J116">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="K116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L116">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="M116">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="N116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="P116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Q116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10557,10 +10557,10 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA117">
         <v>0.95</v>
@@ -10586,7 +10586,7 @@
         <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10669,7 +10669,7 @@
         <v>45367.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
         <v>35</v>
@@ -10729,10 +10729,10 @@
         <v>0.2</v>
       </c>
       <c r="Y119">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -10758,7 +10758,7 @@
         <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10815,10 +10815,10 @@
         <v>2</v>
       </c>
       <c r="Y120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
         <v>0.825</v>
@@ -10901,10 +10901,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>0.95</v>
@@ -10987,10 +10987,10 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
         <v>0.9750000000000001</v>
@@ -11102,7 +11102,7 @@
         <v>28</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11159,10 +11159,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>0.45</v>
@@ -11245,10 +11245,10 @@
         <v>0.5</v>
       </c>
       <c r="Y125">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
         <v>0.4125</v>
@@ -11331,10 +11331,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -11357,7 +11357,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
         <v>32</v>
@@ -11503,10 +11503,10 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -11532,7 +11532,7 @@
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11589,10 +11589,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>0.8999999999999999</v>
@@ -11675,10 +11675,10 @@
         <v>0.5</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA130">
         <v>0.8500000000000001</v>
@@ -11761,10 +11761,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA131">
         <v>1</v>
@@ -11847,10 +11847,10 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA132">
         <v>0.925</v>
@@ -11873,7 +11873,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
         <v>33</v>
@@ -11933,10 +11933,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>0.925</v>
@@ -11959,7 +11959,7 @@
         <v>45395.27083333334</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
         <v>28</v>
@@ -12019,10 +12019,10 @@
         <v>3.333</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
         <v>0.45</v>
@@ -12048,7 +12048,7 @@
         <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12277,10 +12277,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
       </c>
       <c r="AA137">
         <v>0.8500000000000001</v>
@@ -12363,10 +12363,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.4625</v>
@@ -12389,7 +12389,7 @@
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
         <v>35</v>
@@ -12535,10 +12535,10 @@
         <v>1.4</v>
       </c>
       <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z140">
-        <v>-1</v>
       </c>
       <c r="AA140">
         <v>0.75</v>
@@ -12564,7 +12564,7 @@
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12621,10 +12621,10 @@
         <v>1.25</v>
       </c>
       <c r="Y141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA141">
         <v>-1</v>
@@ -12650,7 +12650,7 @@
         <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12707,10 +12707,10 @@
         <v>3.5</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -12879,15 +12879,101 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7719651</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45403.45833333334</v>
+      </c>
+      <c r="E145" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" t="s">
+        <v>29</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>42</v>
+      </c>
+      <c r="J145">
+        <v>2.5</v>
+      </c>
+      <c r="K145">
+        <v>3.4</v>
+      </c>
+      <c r="L145">
+        <v>2.4</v>
+      </c>
+      <c r="M145">
+        <v>2.45</v>
+      </c>
+      <c r="N145">
+        <v>3.3</v>
+      </c>
+      <c r="O145">
+        <v>2.4</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>1.95</v>
+      </c>
+      <c r="R145">
+        <v>1.85</v>
+      </c>
+      <c r="S145">
+        <v>2.5</v>
+      </c>
+      <c r="T145">
+        <v>1.825</v>
+      </c>
+      <c r="U145">
+        <v>1.975</v>
+      </c>
+      <c r="V145">
+        <v>-1</v>
+      </c>
+      <c r="W145">
+        <v>2.3</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0.825</v>
+      </c>
+      <c r="AB145">
         <v>-1</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7721019</t>
   </si>
   <si>
     <t>Estonia Meistriliiga</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +604,16 @@
         <v>6139016</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45083.5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -619,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -687,16 +690,16 @@
         <v>6138122</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -773,16 +776,16 @@
         <v>6139018</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45084.5</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -859,16 +862,16 @@
         <v>6139017</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45084.5</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1.666</v>
@@ -945,16 +948,16 @@
         <v>6139019</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1031,16 +1034,16 @@
         <v>6139021</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -1117,16 +1120,16 @@
         <v>6138123</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45087.5625</v>
       </c>
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1135,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1.8</v>
@@ -1203,16 +1206,16 @@
         <v>6139022</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45088.35416666666</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1221,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>4.75</v>
@@ -1289,16 +1292,16 @@
         <v>6139020</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45088.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1.363</v>
@@ -1375,16 +1378,16 @@
         <v>6139023</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45088.54166666666</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1461,16 +1464,16 @@
         <v>6139024</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45104.5</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1547,16 +1550,16 @@
         <v>6139025</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1565,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1633,16 +1636,16 @@
         <v>6138124</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45104.58333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1719,16 +1722,16 @@
         <v>6139026</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45105.5</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1737,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.444</v>
@@ -1805,16 +1808,16 @@
         <v>6139027</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1823,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.7</v>
@@ -1891,16 +1894,16 @@
         <v>6139028</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45107.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>6.5</v>
@@ -1977,16 +1980,16 @@
         <v>6139029</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45108.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1995,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>4.2</v>
@@ -2063,16 +2066,16 @@
         <v>6139030</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45108.5625</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2081,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2149,16 +2152,16 @@
         <v>6138125</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45109.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2167,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2235,16 +2238,16 @@
         <v>6139031</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45109.54166666666</v>
       </c>
       <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
         <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.2</v>
@@ -2321,16 +2324,16 @@
         <v>6139032</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2339,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2407,16 +2410,16 @@
         <v>6139033</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2425,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>2.2</v>
@@ -2493,16 +2496,16 @@
         <v>6139034</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2511,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2579,16 +2582,16 @@
         <v>6139035</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45116.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2597,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2665,16 +2668,16 @@
         <v>6138126</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45116.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2683,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.55</v>
@@ -2751,16 +2754,16 @@
         <v>6139037</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45129.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2769,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>2.2</v>
@@ -2837,16 +2840,16 @@
         <v>6140397</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45129.5625</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2855,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>1.333</v>
@@ -2923,16 +2926,16 @@
         <v>6139038</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2941,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3009,16 +3012,16 @@
         <v>6139039</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45130.5</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3027,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>6.5</v>
@@ -3095,16 +3098,16 @@
         <v>6813618</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45130.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>1.181</v>
@@ -3181,16 +3184,16 @@
         <v>6964794</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3199,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>1.125</v>
@@ -3267,16 +3270,16 @@
         <v>6825464</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45138.57291666666</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3285,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>1.85</v>
@@ -3353,16 +3356,16 @@
         <v>6139040</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>1.142</v>
@@ -3439,16 +3442,16 @@
         <v>6138127</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3457,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>1.6</v>
@@ -3525,16 +3528,16 @@
         <v>6139041</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45143.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3543,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3611,16 +3614,16 @@
         <v>6139042</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45144.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3629,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -3697,16 +3700,16 @@
         <v>6139043</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3715,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>7.5</v>
@@ -3783,16 +3786,16 @@
         <v>6139045</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>1.533</v>
@@ -3869,16 +3872,16 @@
         <v>6139046</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45150.5625</v>
       </c>
       <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
         <v>35</v>
-      </c>
-      <c r="F40" t="s">
-        <v>34</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3887,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.125</v>
@@ -3955,16 +3958,16 @@
         <v>6138128</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45151.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3973,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>2.75</v>
@@ -4041,16 +4044,16 @@
         <v>6139047</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45151.54166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4059,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4127,16 +4130,16 @@
         <v>6139048</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4145,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>3.75</v>
@@ -4213,16 +4216,16 @@
         <v>6139050</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4231,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4299,16 +4302,16 @@
         <v>6138129</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4317,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -4385,16 +4388,16 @@
         <v>6139049</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>8</v>
@@ -4471,16 +4474,16 @@
         <v>6139051</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4489,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>10</v>
@@ -4557,16 +4560,16 @@
         <v>6139052</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4575,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.125</v>
@@ -4643,16 +4646,16 @@
         <v>6139053</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4661,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>2.5</v>
@@ -4729,16 +4732,16 @@
         <v>6139054</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>1.3</v>
@@ -4815,16 +4818,16 @@
         <v>6139055</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45165.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4833,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>2.7</v>
@@ -4901,16 +4904,16 @@
         <v>6138130</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
         <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>28</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4919,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4987,16 +4990,16 @@
         <v>6139056</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45170.5</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5005,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>2.375</v>
@@ -5073,16 +5076,16 @@
         <v>6139058</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45171.35416666666</v>
       </c>
       <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
         <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>33</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5091,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>3.1</v>
@@ -5159,16 +5162,16 @@
         <v>6139057</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5177,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>1.833</v>
@@ -5245,16 +5248,16 @@
         <v>6138131</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5331,16 +5334,16 @@
         <v>6139059</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45172.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5349,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>2.15</v>
@@ -5417,16 +5420,16 @@
         <v>6139060</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5435,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5503,16 +5506,16 @@
         <v>6139061</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5521,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>1.727</v>
@@ -5589,16 +5592,16 @@
         <v>6139062</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45185.5625</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5607,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>1.727</v>
@@ -5675,16 +5678,16 @@
         <v>6138132</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5693,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>5.25</v>
@@ -5761,16 +5764,16 @@
         <v>6139063</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5779,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5847,16 +5850,16 @@
         <v>6139068</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45191.57291666666</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5930,10 +5933,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45192.35416666666</v>
@@ -5942,31 +5945,31 @@
         <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>3</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
       </c>
       <c r="I64" t="s">
         <v>41</v>
       </c>
       <c r="J64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L64">
         <v>3.8</v>
       </c>
       <c r="M64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="N64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O64">
         <v>6</v>
@@ -5975,7 +5978,7 @@
         <v>-1</v>
       </c>
       <c r="Q64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R64">
         <v>1.95</v>
@@ -5990,19 +5993,19 @@
         <v>1.9</v>
       </c>
       <c r="V64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>0.8999999999999999</v>
@@ -6016,43 +6019,43 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
         <v>34</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
         <v>3.8</v>
       </c>
       <c r="M65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O65">
         <v>6</v>
@@ -6061,7 +6064,7 @@
         <v>-1</v>
       </c>
       <c r="Q65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R65">
         <v>1.95</v>
@@ -6076,19 +6079,19 @@
         <v>1.9</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>0.8999999999999999</v>
@@ -6105,16 +6108,16 @@
         <v>6138133</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6123,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>1.75</v>
@@ -6191,16 +6194,16 @@
         <v>6139065</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6209,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.2</v>
@@ -6277,16 +6280,16 @@
         <v>6138134</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45195.46875</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6295,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>5.5</v>
@@ -6363,16 +6366,16 @@
         <v>6139069</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45195.57291666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6381,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -6449,16 +6452,16 @@
         <v>6139070</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45196.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6467,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -6532,22 +6535,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
         <v>33</v>
       </c>
-      <c r="F71" t="s">
-        <v>36</v>
-      </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6556,61 +6559,61 @@
         <v>41</v>
       </c>
       <c r="J71">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="L71">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="M71">
+        <v>7</v>
+      </c>
+      <c r="N71">
+        <v>6</v>
+      </c>
+      <c r="O71">
+        <v>1.25</v>
+      </c>
+      <c r="P71">
+        <v>1.75</v>
+      </c>
+      <c r="Q71">
+        <v>1.9</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
         <v>3</v>
       </c>
-      <c r="N71">
-        <v>3.25</v>
-      </c>
-      <c r="O71">
-        <v>2.2</v>
-      </c>
-      <c r="P71">
+      <c r="T71">
+        <v>1.95</v>
+      </c>
+      <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
+        <v>-1</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
         <v>0.25</v>
       </c>
-      <c r="Q71">
-        <v>1.825</v>
-      </c>
-      <c r="R71">
-        <v>1.975</v>
-      </c>
-      <c r="S71">
-        <v>2.5</v>
-      </c>
-      <c r="T71">
-        <v>1.875</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
       <c r="Y71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6618,85 +6621,85 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J72">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="K72">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="P72">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6707,16 +6710,16 @@
         <v>7262749</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6725,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>9.5</v>
@@ -6793,16 +6796,16 @@
         <v>6139073</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6811,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -6879,16 +6882,16 @@
         <v>6139075</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45200.35416666666</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6897,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>3.6</v>
@@ -6965,16 +6968,16 @@
         <v>6139076</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45200.45833333334</v>
       </c>
       <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
         <v>33</v>
-      </c>
-      <c r="F76" t="s">
-        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6983,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>6.5</v>
@@ -7051,16 +7054,16 @@
         <v>6139074</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45200.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7069,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>1.2</v>
@@ -7137,16 +7140,16 @@
         <v>6354608</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45206.27083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7155,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7223,16 +7226,16 @@
         <v>6354607</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45206.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7241,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>6.5</v>
@@ -7309,16 +7312,16 @@
         <v>6368429</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7327,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7395,16 +7398,16 @@
         <v>7287901</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45206.5625</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7413,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>1.125</v>
@@ -7481,16 +7484,16 @@
         <v>6350613</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7499,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>1.166</v>
@@ -7567,16 +7570,16 @@
         <v>6368431</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7585,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7653,16 +7656,16 @@
         <v>6370778</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7671,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>3.5</v>
@@ -7739,16 +7742,16 @@
         <v>6369469</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7757,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7825,16 +7828,16 @@
         <v>6376944</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45221.35416666666</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7843,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>1.5</v>
@@ -7911,16 +7914,16 @@
         <v>6368432</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45221.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7929,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>11</v>
@@ -7994,49 +7997,49 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J88">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L88">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M88">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>1.875</v>
@@ -8045,22 +8048,22 @@
         <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8069,10 +8072,10 @@
         <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8080,49 +8083,49 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J89">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="K89">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L89">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O89">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q89">
         <v>1.875</v>
@@ -8131,22 +8134,22 @@
         <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X89">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8155,10 +8158,10 @@
         <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8169,16 +8172,16 @@
         <v>6416365</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45227.27083333334</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8187,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>2.3</v>
@@ -8255,16 +8258,16 @@
         <v>6418048</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8273,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8341,16 +8344,16 @@
         <v>7380346</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8359,7 +8362,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8427,16 +8430,16 @@
         <v>6418047</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45230.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8445,7 +8448,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>3.75</v>
@@ -8513,16 +8516,16 @@
         <v>6419652</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45230.61458333334</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8531,7 +8534,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8599,16 +8602,16 @@
         <v>6416370</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8617,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>1.166</v>
@@ -8685,16 +8688,16 @@
         <v>6482819</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8703,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8771,16 +8774,16 @@
         <v>6513856</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45231.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8789,7 +8792,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>12</v>
@@ -8857,16 +8860,16 @@
         <v>6502200</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45234.3125</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8943,16 +8946,16 @@
         <v>6356579</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45234.39583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8961,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9029,16 +9032,16 @@
         <v>6528945</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" t="s">
         <v>30</v>
-      </c>
-      <c r="F100" t="s">
-        <v>29</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9047,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -9115,16 +9118,16 @@
         <v>6529676</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9133,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>2.5</v>
@@ -9201,16 +9204,16 @@
         <v>6533011</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45235.5</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9219,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9287,16 +9290,16 @@
         <v>7440206</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9305,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9370,55 +9373,55 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6535416</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45241.375</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>42</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K104">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="P104">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q104">
+        <v>1.95</v>
+      </c>
+      <c r="R104">
         <v>1.85</v>
-      </c>
-      <c r="R104">
-        <v>1.95</v>
       </c>
       <c r="S104">
         <v>2.75</v>
@@ -9430,25 +9433,25 @@
         <v>1.85</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W104">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
+        <v>0.95</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
-      <c r="AA104">
-        <v>0.95</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9456,55 +9459,55 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45241.375</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J105">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K105">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L105">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M105">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O105">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="P105">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q105">
+        <v>1.85</v>
+      </c>
+      <c r="R105">
         <v>1.95</v>
-      </c>
-      <c r="R105">
-        <v>1.85</v>
       </c>
       <c r="S105">
         <v>2.75</v>
@@ -9516,25 +9519,25 @@
         <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
         <v>0.95</v>
       </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9542,22 +9545,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9566,61 +9569,61 @@
         <v>42</v>
       </c>
       <c r="J106">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K106">
         <v>4</v>
       </c>
       <c r="L106">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="N106">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P106">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q106">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S106">
         <v>2.75</v>
       </c>
       <c r="T106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W106">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9628,85 +9631,85 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45241.375</v>
       </c>
       <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" t="s">
         <v>30</v>
       </c>
-      <c r="F107" t="s">
-        <v>36</v>
-      </c>
       <c r="G107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J107">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K107">
         <v>4</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="M107">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="N107">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O107">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
         <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9717,16 +9720,16 @@
         <v>7551820</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>1.285</v>
@@ -9803,16 +9806,16 @@
         <v>7891672</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9821,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.285</v>
@@ -9889,16 +9892,16 @@
         <v>7891673</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45353.3125</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9907,7 +9910,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -9975,16 +9978,16 @@
         <v>7891674</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45353.39583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>6</v>
@@ -9993,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>1.285</v>
@@ -10061,16 +10064,16 @@
         <v>7891675</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10079,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.571</v>
@@ -10147,16 +10150,16 @@
         <v>7891676</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10165,7 +10168,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10233,16 +10236,16 @@
         <v>7919321</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45360.3125</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10251,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.4</v>
@@ -10319,16 +10322,16 @@
         <v>7919323</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10337,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>1.285</v>
@@ -10405,16 +10408,16 @@
         <v>7919322</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10423,7 +10426,7 @@
         <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>11</v>
@@ -10491,16 +10494,16 @@
         <v>7721006</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10509,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>1.285</v>
@@ -10577,16 +10580,16 @@
         <v>7719642</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45361.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10595,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>1.444</v>
@@ -10663,16 +10666,16 @@
         <v>7719643</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45367.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10681,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>5</v>
@@ -10746,82 +10749,82 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J120">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K120">
         <v>3.3</v>
       </c>
       <c r="L120">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N120">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
         <v>2.5</v>
       </c>
       <c r="T120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -10832,10 +10835,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45367.39583333334</v>
@@ -10847,67 +10850,67 @@
         <v>32</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I121" t="s">
         <v>41</v>
       </c>
       <c r="J121">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K121">
         <v>3.3</v>
       </c>
       <c r="L121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M121">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N121">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
         <v>2.5</v>
       </c>
       <c r="T121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -10921,16 +10924,16 @@
         <v>7721008</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45368.3125</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10939,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>1.5</v>
@@ -11007,16 +11010,16 @@
         <v>7723750</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11025,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>5</v>
@@ -11093,16 +11096,16 @@
         <v>7719645</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11111,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11179,16 +11182,16 @@
         <v>7719646</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45381.3125</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11197,7 +11200,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>3.1</v>
@@ -11265,16 +11268,16 @@
         <v>7721009</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11283,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>1.95</v>
@@ -11351,16 +11354,16 @@
         <v>7721088</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45382.27083333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11369,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>11</v>
@@ -11437,16 +11440,16 @@
         <v>7721010</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11455,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11523,16 +11526,16 @@
         <v>7721011</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>3.8</v>
@@ -11609,16 +11612,16 @@
         <v>7719647</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45388.27083333334</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11627,7 +11630,7 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>3.9</v>
@@ -11695,16 +11698,16 @@
         <v>7721012</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11713,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J131">
         <v>1.3</v>
@@ -11781,16 +11784,16 @@
         <v>7721013</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11799,7 +11802,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>1.181</v>
@@ -11867,16 +11870,16 @@
         <v>7719648</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11885,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11953,16 +11956,16 @@
         <v>7721014</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45395.27083333334</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11971,7 +11974,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>2.2</v>
@@ -12039,16 +12042,16 @@
         <v>7719649</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12057,7 +12060,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>2.5</v>
@@ -12125,16 +12128,16 @@
         <v>7721015</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12143,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12211,16 +12214,16 @@
         <v>7721016</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45396.35416666666</v>
       </c>
       <c r="E137" t="s">
+        <v>34</v>
+      </c>
+      <c r="F137" t="s">
         <v>33</v>
-      </c>
-      <c r="F137" t="s">
-        <v>32</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12229,7 +12232,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>4.333</v>
@@ -12297,16 +12300,16 @@
         <v>7719650</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12315,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>2.375</v>
@@ -12383,16 +12386,16 @@
         <v>7719670</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12401,7 +12404,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>7</v>
@@ -12469,16 +12472,16 @@
         <v>7721093</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45399.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12490,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>2.3</v>
@@ -12555,16 +12558,16 @@
         <v>7723749</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45402.27083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12573,7 +12576,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>3.8</v>
@@ -12641,16 +12644,16 @@
         <v>7721089</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12659,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12727,16 +12730,16 @@
         <v>7721017</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12745,7 +12748,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>1.166</v>
@@ -12813,16 +12816,16 @@
         <v>7721018</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -12831,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12899,16 +12902,16 @@
         <v>7719651</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12917,7 +12920,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12975,6 +12978,71 @@
       </c>
       <c r="AB145">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45408.54166666666</v>
+      </c>
+      <c r="E146" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" t="s">
+        <v>39</v>
+      </c>
+      <c r="J146">
+        <v>1.727</v>
+      </c>
+      <c r="K146">
+        <v>3.75</v>
+      </c>
+      <c r="L146">
+        <v>3.75</v>
+      </c>
+      <c r="M146">
+        <v>1.95</v>
+      </c>
+      <c r="N146">
+        <v>3.5</v>
+      </c>
+      <c r="O146">
+        <v>3.1</v>
+      </c>
+      <c r="P146">
+        <v>-0.25</v>
+      </c>
+      <c r="Q146">
+        <v>1.8</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>2.75</v>
+      </c>
+      <c r="T146">
+        <v>1.975</v>
+      </c>
+      <c r="U146">
+        <v>1.825</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -97,7 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7721019</t>
+    <t>7721021</t>
   </si>
   <si>
     <t>Estonia Meistriliiga</t>
@@ -109,10 +109,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -785,73 +785,73 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>1.666</v>
+      </c>
+      <c r="K4">
+        <v>3.6</v>
+      </c>
+      <c r="L4">
+        <v>4.2</v>
+      </c>
+      <c r="M4">
+        <v>1.727</v>
+      </c>
+      <c r="N4">
+        <v>3.5</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>-0.75</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>1.8</v>
+      </c>
+      <c r="S4">
+        <v>2.5</v>
+      </c>
+      <c r="T4">
+        <v>1.9</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4">
-        <v>2.4</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>2.5</v>
-      </c>
-      <c r="M4">
-        <v>2.875</v>
-      </c>
-      <c r="N4">
-        <v>3.1</v>
-      </c>
-      <c r="O4">
-        <v>2.3</v>
-      </c>
-      <c r="P4">
-        <v>0.25</v>
-      </c>
-      <c r="Q4">
-        <v>1.75</v>
-      </c>
-      <c r="R4">
-        <v>2.05</v>
-      </c>
-      <c r="S4">
-        <v>2.25</v>
-      </c>
-      <c r="T4">
-        <v>1.925</v>
-      </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
-      <c r="V4">
-        <v>-1</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>1.3</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
       <c r="Z4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -859,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -871,73 +871,73 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1301,7 +1301,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1387,7 +1387,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>45104.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -1728,7 +1728,7 @@
         <v>45105.5</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -2161,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2502,7 +2502,7 @@
         <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
@@ -2591,7 +2591,7 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2760,7 +2760,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -3018,7 +3018,7 @@
         <v>45130.5</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
         <v>36</v>
@@ -3279,7 +3279,7 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3534,10 +3534,10 @@
         <v>45143.5625</v>
       </c>
       <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
         <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3964,7 +3964,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
@@ -4225,7 +4225,7 @@
         <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4480,7 +4480,7 @@
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
         <v>33</v>
@@ -4652,7 +4652,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
@@ -4741,7 +4741,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5171,7 +5171,7 @@
         <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5426,7 +5426,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -5512,7 +5512,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
         <v>35</v>
@@ -5859,7 +5859,7 @@
         <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -5942,34 +5942,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L64">
         <v>3.8</v>
       </c>
       <c r="M64">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O64">
         <v>6</v>
@@ -5978,7 +5978,7 @@
         <v>-1</v>
       </c>
       <c r="Q64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R64">
         <v>1.95</v>
@@ -5993,19 +5993,19 @@
         <v>1.9</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.8999999999999999</v>
@@ -6019,7 +6019,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6028,34 +6028,34 @@
         <v>45192.35416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>3</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
         <v>3.8</v>
       </c>
       <c r="M65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="N65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O65">
         <v>6</v>
@@ -6064,7 +6064,7 @@
         <v>-1</v>
       </c>
       <c r="Q65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R65">
         <v>1.95</v>
@@ -6079,19 +6079,19 @@
         <v>1.9</v>
       </c>
       <c r="V65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
         <v>0.8999999999999999</v>
@@ -6117,7 +6117,7 @@
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6458,7 +6458,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
         <v>38</v>
@@ -6535,7 +6535,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6544,76 +6544,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J71">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="K71">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="L71">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="P71">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6621,7 +6621,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6630,76 +6630,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J72">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="K72">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="L72">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="M72">
+        <v>7</v>
+      </c>
+      <c r="N72">
+        <v>6</v>
+      </c>
+      <c r="O72">
+        <v>1.25</v>
+      </c>
+      <c r="P72">
+        <v>1.75</v>
+      </c>
+      <c r="Q72">
+        <v>1.9</v>
+      </c>
+      <c r="R72">
+        <v>1.9</v>
+      </c>
+      <c r="S72">
         <v>3</v>
       </c>
-      <c r="N72">
-        <v>3.25</v>
-      </c>
-      <c r="O72">
-        <v>2.2</v>
-      </c>
-      <c r="P72">
+      <c r="T72">
+        <v>1.95</v>
+      </c>
+      <c r="U72">
+        <v>1.85</v>
+      </c>
+      <c r="V72">
+        <v>-1</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
         <v>0.25</v>
       </c>
-      <c r="Q72">
-        <v>1.825</v>
-      </c>
-      <c r="R72">
-        <v>1.975</v>
-      </c>
-      <c r="S72">
-        <v>2.5</v>
-      </c>
-      <c r="T72">
-        <v>1.875</v>
-      </c>
-      <c r="U72">
-        <v>1.925</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
       <c r="Y72">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6802,7 +6802,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
         <v>38</v>
@@ -6891,7 +6891,7 @@
         <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7232,7 +7232,7 @@
         <v>45206.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
         <v>36</v>
@@ -7321,7 +7321,7 @@
         <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7576,7 +7576,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
         <v>34</v>
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7997,7 +7997,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8006,40 +8006,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J88">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="K88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="N88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O88">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
         <v>1.875</v>
@@ -8048,22 +8048,22 @@
         <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8072,10 +8072,10 @@
         <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8083,7 +8083,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J89">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M89">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="N89">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>1.875</v>
@@ -8134,22 +8134,22 @@
         <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8158,10 +8158,10 @@
         <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8439,7 +8439,7 @@
         <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
         <v>29</v>
@@ -9038,7 +9038,7 @@
         <v>45235.3125</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
         <v>30</v>
@@ -9213,7 +9213,7 @@
         <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9296,7 +9296,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
         <v>35</v>
@@ -9373,7 +9373,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9382,46 +9382,46 @@
         <v>45241.375</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J104">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L104">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q104">
+        <v>1.85</v>
+      </c>
+      <c r="R104">
         <v>1.95</v>
-      </c>
-      <c r="R104">
-        <v>1.85</v>
       </c>
       <c r="S104">
         <v>2.75</v>
@@ -9433,25 +9433,25 @@
         <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9459,7 +9459,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6533597</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9468,46 +9468,46 @@
         <v>45241.375</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J105">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K105">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q105">
+        <v>1.95</v>
+      </c>
+      <c r="R105">
         <v>1.85</v>
-      </c>
-      <c r="R105">
-        <v>1.95</v>
       </c>
       <c r="S105">
         <v>2.75</v>
@@ -9519,25 +9519,25 @@
         <v>1.85</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
+        <v>0.95</v>
+      </c>
+      <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
-      <c r="AA105">
-        <v>0.95</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9545,7 +9545,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9554,76 +9554,76 @@
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J106">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K106">
         <v>4</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="M106">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="N106">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O106">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P106">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
         <v>2.75</v>
       </c>
       <c r="T106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9631,7 +9631,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9640,76 +9640,76 @@
         <v>45241.375</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J107">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K107">
         <v>4</v>
       </c>
       <c r="L107">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M107">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="N107">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P107">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S107">
         <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9726,7 +9726,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
         <v>40</v>
@@ -10070,10 +10070,10 @@
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" t="s">
         <v>31</v>
-      </c>
-      <c r="F112" t="s">
-        <v>32</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10242,7 +10242,7 @@
         <v>45360.3125</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
         <v>34</v>
@@ -10319,7 +10319,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10328,76 +10328,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="K115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="M115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="P115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Q115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Y115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10405,7 +10405,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10414,76 +10414,76 @@
         <v>45360.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="K116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="M116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="N116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="O116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Q116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10589,7 +10589,7 @@
         <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10672,7 +10672,7 @@
         <v>45367.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
         <v>36</v>
@@ -10749,7 +10749,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -10758,73 +10758,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J120">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K120">
         <v>3.3</v>
       </c>
       <c r="L120">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M120">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N120">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
         <v>2.5</v>
       </c>
       <c r="T120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -10835,7 +10835,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -10844,73 +10844,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J121">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K121">
         <v>3.3</v>
       </c>
       <c r="L121">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M121">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N121">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
         <v>2.5</v>
       </c>
       <c r="T121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -11105,7 +11105,7 @@
         <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11360,7 +11360,7 @@
         <v>45382.27083333334</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
         <v>33</v>
@@ -11535,7 +11535,7 @@
         <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11876,7 +11876,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
         <v>34</v>
@@ -11962,7 +11962,7 @@
         <v>45395.27083333334</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
         <v>29</v>
@@ -12051,7 +12051,7 @@
         <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12392,7 +12392,7 @@
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
         <v>36</v>
@@ -12567,7 +12567,7 @@
         <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12991,43 +12991,43 @@
         <v>28</v>
       </c>
       <c r="D146" s="2">
-        <v>45408.54166666666</v>
+        <v>45410.35416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J146">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="M146">
+        <v>7</v>
+      </c>
+      <c r="N146">
+        <v>5.75</v>
+      </c>
+      <c r="O146">
+        <v>1.25</v>
+      </c>
+      <c r="P146">
+        <v>1.75</v>
+      </c>
+      <c r="Q146">
+        <v>1.85</v>
+      </c>
+      <c r="R146">
         <v>1.95</v>
       </c>
-      <c r="N146">
-        <v>3.5</v>
-      </c>
-      <c r="O146">
-        <v>3.1</v>
-      </c>
-      <c r="P146">
-        <v>-0.25</v>
-      </c>
-      <c r="Q146">
-        <v>1.8</v>
-      </c>
-      <c r="R146">
-        <v>2</v>
-      </c>
       <c r="S146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T146">
         <v>1.975</v>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7719652</t>
+  </si>
+  <si>
+    <t>7721020</t>
   </si>
   <si>
     <t>7721021</t>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +610,16 @@
         <v>6139016</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45083.5</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -622,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -690,16 +696,16 @@
         <v>6138122</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -708,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -776,16 +782,16 @@
         <v>6139017</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45084.5</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -794,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>1.666</v>
@@ -862,16 +868,16 @@
         <v>6139018</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45084.5</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -880,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>2.4</v>
@@ -948,16 +954,16 @@
         <v>6139019</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -966,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1034,16 +1040,16 @@
         <v>6139021</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -1120,16 +1126,16 @@
         <v>6138123</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45087.5625</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>1.8</v>
@@ -1206,16 +1212,16 @@
         <v>6139022</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45088.35416666666</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1224,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>4.75</v>
@@ -1292,16 +1298,16 @@
         <v>6139020</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45088.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1310,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>1.363</v>
@@ -1378,16 +1384,16 @@
         <v>6139023</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45088.54166666666</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1396,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1464,16 +1470,16 @@
         <v>6139024</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45104.5</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1482,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1550,16 +1556,16 @@
         <v>6139025</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1568,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1636,16 +1642,16 @@
         <v>6138124</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45104.58333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1654,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1722,16 +1728,16 @@
         <v>6139026</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45105.5</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1740,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J15">
         <v>1.444</v>
@@ -1808,16 +1814,16 @@
         <v>6139027</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>2.7</v>
@@ -1894,16 +1900,16 @@
         <v>6139028</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45107.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J17">
         <v>6.5</v>
@@ -1980,16 +1986,16 @@
         <v>6139029</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45108.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1998,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>4.2</v>
@@ -2066,16 +2072,16 @@
         <v>6139030</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45108.5625</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2084,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2152,16 +2158,16 @@
         <v>6138125</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45109.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2170,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2238,16 +2244,16 @@
         <v>6139031</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45109.54166666666</v>
       </c>
       <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
         <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2256,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>1.2</v>
@@ -2324,16 +2330,16 @@
         <v>6139032</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2342,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2410,16 +2416,16 @@
         <v>6139033</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2428,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>2.2</v>
@@ -2496,16 +2502,16 @@
         <v>6139034</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2514,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2582,16 +2588,16 @@
         <v>6139035</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45116.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2600,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2668,16 +2674,16 @@
         <v>6138126</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45116.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2686,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>1.55</v>
@@ -2754,16 +2760,16 @@
         <v>6139037</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45129.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2772,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>2.2</v>
@@ -2840,16 +2846,16 @@
         <v>6140397</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45129.5625</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2858,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>1.333</v>
@@ -2926,16 +2932,16 @@
         <v>6139038</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2944,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3012,16 +3018,16 @@
         <v>6139039</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45130.5</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3030,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J30">
         <v>6.5</v>
@@ -3098,16 +3104,16 @@
         <v>6813618</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45130.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3116,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>1.181</v>
@@ -3184,16 +3190,16 @@
         <v>6964794</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3202,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>1.125</v>
@@ -3270,16 +3276,16 @@
         <v>6825464</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45138.57291666666</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3288,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>1.85</v>
@@ -3356,16 +3362,16 @@
         <v>6139040</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3374,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>1.142</v>
@@ -3442,16 +3448,16 @@
         <v>6138127</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3460,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>1.6</v>
@@ -3528,16 +3534,16 @@
         <v>6139041</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45143.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3546,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3614,16 +3620,16 @@
         <v>6139042</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45144.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3632,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -3700,16 +3706,16 @@
         <v>6139043</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3718,7 +3724,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>7.5</v>
@@ -3786,16 +3792,16 @@
         <v>6139045</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>1.533</v>
@@ -3872,16 +3878,16 @@
         <v>6139046</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45150.5625</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3890,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>1.125</v>
@@ -3958,16 +3964,16 @@
         <v>6138128</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45151.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3976,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>2.75</v>
@@ -4044,16 +4050,16 @@
         <v>6139047</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45151.54166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4062,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4130,16 +4136,16 @@
         <v>6139048</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4148,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J43">
         <v>3.75</v>
@@ -4216,16 +4222,16 @@
         <v>6139050</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4234,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4302,16 +4308,16 @@
         <v>6138129</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4320,7 +4326,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -4388,16 +4394,16 @@
         <v>6139049</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4406,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>8</v>
@@ -4474,16 +4480,16 @@
         <v>6139051</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4492,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>10</v>
@@ -4560,16 +4566,16 @@
         <v>6139052</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4578,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>1.125</v>
@@ -4646,16 +4652,16 @@
         <v>6139053</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4664,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>2.5</v>
@@ -4732,16 +4738,16 @@
         <v>6139054</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4750,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>1.3</v>
@@ -4818,16 +4824,16 @@
         <v>6139055</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45165.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4836,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J51">
         <v>2.7</v>
@@ -4904,16 +4910,16 @@
         <v>6138130</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4922,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4990,16 +4996,16 @@
         <v>6139056</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45170.5</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5008,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>2.375</v>
@@ -5076,16 +5082,16 @@
         <v>6139058</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45171.35416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5094,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J54">
         <v>3.1</v>
@@ -5162,16 +5168,16 @@
         <v>6139057</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5180,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>1.833</v>
@@ -5248,16 +5254,16 @@
         <v>6138131</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5266,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5334,16 +5340,16 @@
         <v>6139059</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45172.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5352,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J57">
         <v>2.15</v>
@@ -5420,16 +5426,16 @@
         <v>6139060</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5438,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5506,16 +5512,16 @@
         <v>6139061</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5524,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>1.727</v>
@@ -5592,16 +5598,16 @@
         <v>6139062</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45185.5625</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5610,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>1.727</v>
@@ -5678,16 +5684,16 @@
         <v>6138132</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5696,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>5.25</v>
@@ -5764,16 +5770,16 @@
         <v>6139063</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5782,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5850,16 +5856,16 @@
         <v>6139068</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45191.57291666666</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5868,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5936,16 +5942,16 @@
         <v>6139067</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5954,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>1.8</v>
@@ -6022,16 +6028,16 @@
         <v>6139064</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s">
         <v>37</v>
-      </c>
-      <c r="F65" t="s">
-        <v>35</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6040,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J65">
         <v>1.75</v>
@@ -6108,16 +6114,16 @@
         <v>6138133</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6126,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>1.75</v>
@@ -6194,16 +6200,16 @@
         <v>6139065</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6212,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>1.2</v>
@@ -6280,16 +6286,16 @@
         <v>6138134</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45195.46875</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6298,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>5.5</v>
@@ -6366,16 +6372,16 @@
         <v>6139069</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45195.57291666666</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6384,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -6452,16 +6458,16 @@
         <v>6139070</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45196.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6470,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -6535,85 +6541,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J71">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="L71">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="M71">
+        <v>7</v>
+      </c>
+      <c r="N71">
+        <v>6</v>
+      </c>
+      <c r="O71">
+        <v>1.25</v>
+      </c>
+      <c r="P71">
+        <v>1.75</v>
+      </c>
+      <c r="Q71">
+        <v>1.9</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
         <v>3</v>
       </c>
-      <c r="N71">
-        <v>3.25</v>
-      </c>
-      <c r="O71">
-        <v>2.2</v>
-      </c>
-      <c r="P71">
+      <c r="T71">
+        <v>1.95</v>
+      </c>
+      <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
+        <v>-1</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
         <v>0.25</v>
       </c>
-      <c r="Q71">
-        <v>1.825</v>
-      </c>
-      <c r="R71">
-        <v>1.975</v>
-      </c>
-      <c r="S71">
-        <v>2.5</v>
-      </c>
-      <c r="T71">
-        <v>1.875</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
       <c r="Y71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6621,85 +6627,85 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J72">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="K72">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="P72">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6710,16 +6716,16 @@
         <v>7262749</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6728,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>9.5</v>
@@ -6796,16 +6802,16 @@
         <v>6139073</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6814,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -6882,16 +6888,16 @@
         <v>6139075</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45200.35416666666</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6900,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>3.6</v>
@@ -6968,16 +6974,16 @@
         <v>6139076</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45200.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6986,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>6.5</v>
@@ -7054,16 +7060,16 @@
         <v>6139074</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45200.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7072,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>1.2</v>
@@ -7140,16 +7146,16 @@
         <v>6354608</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45206.27083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7158,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7226,16 +7232,16 @@
         <v>6354607</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45206.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7244,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J79">
         <v>6.5</v>
@@ -7312,16 +7318,16 @@
         <v>6368429</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7330,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7398,16 +7404,16 @@
         <v>7287901</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45206.5625</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7416,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>1.125</v>
@@ -7484,16 +7490,16 @@
         <v>6350613</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7502,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>1.166</v>
@@ -7570,16 +7576,16 @@
         <v>6368431</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7588,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7656,16 +7662,16 @@
         <v>6370778</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7674,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>3.5</v>
@@ -7742,16 +7748,16 @@
         <v>6369469</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7760,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7828,16 +7834,16 @@
         <v>6376944</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45221.35416666666</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7846,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>1.5</v>
@@ -7914,16 +7920,16 @@
         <v>6368432</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45221.45833333334</v>
       </c>
       <c r="E87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" t="s">
         <v>35</v>
-      </c>
-      <c r="F87" t="s">
-        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7932,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>11</v>
@@ -8000,16 +8006,16 @@
         <v>6376945</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8018,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8086,16 +8092,16 @@
         <v>6376947</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8104,7 +8110,7 @@
         <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>3.6</v>
@@ -8172,16 +8178,16 @@
         <v>6416365</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45227.27083333334</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8190,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>2.3</v>
@@ -8258,16 +8264,16 @@
         <v>6418048</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8276,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8344,16 +8350,16 @@
         <v>7380346</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8362,7 +8368,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8430,16 +8436,16 @@
         <v>6418047</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45230.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8448,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>3.75</v>
@@ -8516,16 +8522,16 @@
         <v>6419652</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45230.61458333334</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8534,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8602,17 +8608,17 @@
         <v>6416370</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
         <v>36</v>
       </c>
-      <c r="F95" t="s">
-        <v>34</v>
-      </c>
       <c r="G95">
         <v>0</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>1.166</v>
@@ -8688,16 +8694,16 @@
         <v>6482819</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E96" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" t="s">
         <v>31</v>
-      </c>
-      <c r="F96" t="s">
-        <v>29</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8706,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8774,16 +8780,16 @@
         <v>6513856</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45231.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8792,7 +8798,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>12</v>
@@ -8860,16 +8866,16 @@
         <v>6502200</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45234.3125</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8878,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8946,16 +8952,16 @@
         <v>6356579</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45234.39583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8964,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9032,16 +9038,16 @@
         <v>6528945</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" t="s">
         <v>32</v>
-      </c>
-      <c r="F100" t="s">
-        <v>30</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9050,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -9118,16 +9124,16 @@
         <v>6529676</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9136,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>2.5</v>
@@ -9204,16 +9210,16 @@
         <v>6533011</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45235.5</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9222,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9290,16 +9296,16 @@
         <v>7440206</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9308,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9373,55 +9379,55 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6535416</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45241.375</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
         <v>36</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K104">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="P104">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q104">
+        <v>1.95</v>
+      </c>
+      <c r="R104">
         <v>1.85</v>
-      </c>
-      <c r="R104">
-        <v>1.95</v>
       </c>
       <c r="S104">
         <v>2.75</v>
@@ -9433,25 +9439,25 @@
         <v>1.85</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W104">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
+        <v>0.95</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
-      <c r="AA104">
-        <v>0.95</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9459,55 +9465,55 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45241.375</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J105">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K105">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L105">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M105">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O105">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="P105">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q105">
+        <v>1.85</v>
+      </c>
+      <c r="R105">
         <v>1.95</v>
-      </c>
-      <c r="R105">
-        <v>1.85</v>
       </c>
       <c r="S105">
         <v>2.75</v>
@@ -9519,25 +9525,25 @@
         <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
         <v>0.95</v>
       </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9548,16 +9554,16 @@
         <v>6537957</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9566,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9634,16 +9640,16 @@
         <v>6537869</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45241.375</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9652,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>1.6</v>
@@ -9720,16 +9726,16 @@
         <v>7551820</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9738,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>1.285</v>
@@ -9806,16 +9812,16 @@
         <v>7891672</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9824,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>1.285</v>
@@ -9892,16 +9898,16 @@
         <v>7891673</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45353.3125</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9910,7 +9916,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -9978,16 +9984,16 @@
         <v>7891674</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45353.39583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G111">
         <v>6</v>
@@ -9996,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>1.285</v>
@@ -10064,16 +10070,16 @@
         <v>7891675</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10082,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>1.571</v>
@@ -10150,16 +10156,16 @@
         <v>7891676</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10168,7 +10174,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10236,16 +10242,16 @@
         <v>7919321</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45360.3125</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10254,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>2.4</v>
@@ -10319,85 +10325,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J115">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="K115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L115">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="M115">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="N115">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Q115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10405,85 +10411,85 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J116">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="K116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L116">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="M116">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="N116">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="P116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Q116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Y116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10494,16 +10500,16 @@
         <v>7721006</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10512,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>1.285</v>
@@ -10580,16 +10586,16 @@
         <v>7719642</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2">
         <v>45361.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10598,7 +10604,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>1.444</v>
@@ -10666,16 +10672,16 @@
         <v>7719643</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2">
         <v>45367.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10684,7 +10690,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>5</v>
@@ -10752,16 +10758,16 @@
         <v>7721007</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10770,7 +10776,7 @@
         <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2.25</v>
@@ -10838,16 +10844,16 @@
         <v>7721087</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10856,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>2.2</v>
@@ -10924,16 +10930,16 @@
         <v>7721008</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>45368.3125</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10942,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>1.5</v>
@@ -11010,16 +11016,16 @@
         <v>7723750</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11028,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J123">
         <v>5</v>
@@ -11096,16 +11102,16 @@
         <v>7719645</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11114,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11182,16 +11188,16 @@
         <v>7719646</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
         <v>45381.3125</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11200,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>3.1</v>
@@ -11268,16 +11274,16 @@
         <v>7721009</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11286,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>1.95</v>
@@ -11354,16 +11360,16 @@
         <v>7721088</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
         <v>45382.27083333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11372,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>11</v>
@@ -11440,16 +11446,16 @@
         <v>7721010</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11458,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11526,16 +11532,16 @@
         <v>7721011</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11544,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>3.8</v>
@@ -11612,16 +11618,16 @@
         <v>7719647</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>45388.27083333334</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11630,7 +11636,7 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>3.9</v>
@@ -11698,16 +11704,16 @@
         <v>7721012</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11716,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J131">
         <v>1.3</v>
@@ -11784,16 +11790,16 @@
         <v>7721013</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11802,7 +11808,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>1.181</v>
@@ -11870,16 +11876,16 @@
         <v>7719648</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11888,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11956,16 +11962,16 @@
         <v>7721014</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2">
         <v>45395.27083333334</v>
       </c>
       <c r="E134" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" t="s">
         <v>31</v>
-      </c>
-      <c r="F134" t="s">
-        <v>29</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11974,7 +11980,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>2.2</v>
@@ -12042,16 +12048,16 @@
         <v>7719649</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12060,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J135">
         <v>2.5</v>
@@ -12128,16 +12134,16 @@
         <v>7721015</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D136" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12146,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12214,16 +12220,16 @@
         <v>7721016</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D137" s="2">
         <v>45396.35416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12232,7 +12238,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J137">
         <v>4.333</v>
@@ -12300,16 +12306,16 @@
         <v>7719650</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12318,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>2.375</v>
@@ -12386,16 +12392,16 @@
         <v>7719670</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D139" s="2">
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12404,7 +12410,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>7</v>
@@ -12472,16 +12478,16 @@
         <v>7721093</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2">
         <v>45399.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12490,7 +12496,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>2.3</v>
@@ -12558,16 +12564,16 @@
         <v>7723749</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2">
         <v>45402.27083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12576,7 +12582,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>3.8</v>
@@ -12644,16 +12650,16 @@
         <v>7721089</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D142" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12662,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12730,16 +12736,16 @@
         <v>7721017</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" t="s">
         <v>36</v>
-      </c>
-      <c r="F143" t="s">
-        <v>34</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12748,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>1.166</v>
@@ -12816,16 +12822,16 @@
         <v>7721018</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D144" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -12834,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12902,16 +12908,16 @@
         <v>7719651</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12920,7 +12926,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12984,64 +12990,280 @@
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146">
+        <v>7721019</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45408.54166666666</v>
+      </c>
+      <c r="E146" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" t="s">
+        <v>41</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>44</v>
+      </c>
+      <c r="J146">
+        <v>1.727</v>
+      </c>
+      <c r="K146">
+        <v>3.75</v>
+      </c>
+      <c r="L146">
+        <v>3.75</v>
+      </c>
+      <c r="M146">
+        <v>1.95</v>
+      </c>
+      <c r="N146">
+        <v>3.4</v>
+      </c>
+      <c r="O146">
+        <v>3.25</v>
+      </c>
+      <c r="P146">
+        <v>-0.5</v>
+      </c>
+      <c r="Q146">
+        <v>2</v>
+      </c>
+      <c r="R146">
+        <v>1.8</v>
+      </c>
+      <c r="S146">
+        <v>2.5</v>
+      </c>
+      <c r="T146">
+        <v>1.9</v>
+      </c>
+      <c r="U146">
+        <v>1.9</v>
+      </c>
+      <c r="V146">
+        <v>0.95</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>1</v>
+      </c>
+      <c r="Z146">
+        <v>-1</v>
+      </c>
+      <c r="AA146">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
         <v>27</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45409.35416666666</v>
+      </c>
+      <c r="E147" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" t="s">
+        <v>32</v>
+      </c>
+      <c r="J147">
+        <v>3.1</v>
+      </c>
+      <c r="K147">
+        <v>3.75</v>
+      </c>
+      <c r="L147">
+        <v>1.909</v>
+      </c>
+      <c r="M147">
+        <v>4.2</v>
+      </c>
+      <c r="N147">
+        <v>4.5</v>
+      </c>
+      <c r="O147">
+        <v>1.533</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>1.85</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>2.75</v>
+      </c>
+      <c r="T147">
+        <v>1.825</v>
+      </c>
+      <c r="U147">
+        <v>1.975</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="2">
+      <c r="C148" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" t="s">
+        <v>35</v>
+      </c>
+      <c r="J148">
+        <v>5</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>1.5</v>
+      </c>
+      <c r="M148">
+        <v>6</v>
+      </c>
+      <c r="N148">
+        <v>4.333</v>
+      </c>
+      <c r="O148">
+        <v>1.4</v>
+      </c>
+      <c r="P148">
+        <v>1.25</v>
+      </c>
+      <c r="Q148">
+        <v>1.95</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
+        <v>2.75</v>
+      </c>
+      <c r="T148">
+        <v>1.85</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="2">
         <v>45410.35416666666</v>
       </c>
-      <c r="E146" t="s">
-        <v>31</v>
-      </c>
-      <c r="F146" t="s">
-        <v>36</v>
-      </c>
-      <c r="J146">
+      <c r="E149" t="s">
+        <v>33</v>
+      </c>
+      <c r="F149" t="s">
+        <v>38</v>
+      </c>
+      <c r="J149">
         <v>7</v>
       </c>
-      <c r="K146">
+      <c r="K149">
         <v>6</v>
       </c>
-      <c r="L146">
+      <c r="L149">
         <v>1.25</v>
       </c>
-      <c r="M146">
+      <c r="M149">
         <v>7</v>
       </c>
-      <c r="N146">
+      <c r="N149">
         <v>5.75</v>
       </c>
-      <c r="O146">
+      <c r="O149">
         <v>1.25</v>
       </c>
-      <c r="P146">
+      <c r="P149">
         <v>1.75</v>
       </c>
-      <c r="Q146">
+      <c r="Q149">
         <v>1.85</v>
       </c>
-      <c r="R146">
+      <c r="R149">
         <v>1.95</v>
       </c>
-      <c r="S146">
+      <c r="S149">
         <v>3</v>
       </c>
-      <c r="T146">
+      <c r="T149">
         <v>1.975</v>
       </c>
-      <c r="U146">
+      <c r="U149">
         <v>1.825</v>
       </c>
-      <c r="V146">
-        <v>0</v>
-      </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-      <c r="X146">
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
         <v>0</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7719652</t>
-  </si>
-  <si>
     <t>7721020</t>
   </si>
   <si>
@@ -115,10 +112,10 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>FC Flora Tallinn</t>
@@ -513,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +607,16 @@
         <v>6139016</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45083.5</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -628,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -696,16 +693,16 @@
         <v>6138122</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -714,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -779,85 +776,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45084.5</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -865,85 +862,85 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139018</v>
+        <v>6139017</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45084.5</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
+        <v>4.2</v>
+      </c>
+      <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>3.5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>-0.75</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1.8</v>
+      </c>
+      <c r="S5">
         <v>2.5</v>
       </c>
-      <c r="M5">
-        <v>2.875</v>
-      </c>
-      <c r="N5">
-        <v>3.1</v>
-      </c>
-      <c r="O5">
-        <v>2.3</v>
-      </c>
-      <c r="P5">
-        <v>0.25</v>
-      </c>
-      <c r="Q5">
-        <v>1.75</v>
-      </c>
-      <c r="R5">
-        <v>2.05</v>
-      </c>
-      <c r="S5">
-        <v>2.25</v>
-      </c>
       <c r="T5">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -954,16 +951,16 @@
         <v>6139019</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -972,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1040,16 +1037,16 @@
         <v>6139021</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1058,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -1126,16 +1123,16 @@
         <v>6138123</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45087.5625</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.8</v>
@@ -1212,16 +1209,16 @@
         <v>6139022</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45088.35416666666</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1230,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>4.75</v>
@@ -1298,16 +1295,16 @@
         <v>6139020</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45088.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1316,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>1.363</v>
@@ -1384,13 +1381,13 @@
         <v>6139023</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45088.54166666666</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1470,16 +1467,16 @@
         <v>6139024</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45104.5</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1488,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1556,7 +1553,7 @@
         <v>6139025</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45104.54166666666</v>
@@ -1565,7 +1562,7 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1574,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1642,16 +1639,16 @@
         <v>6138124</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45104.58333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1660,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1728,16 +1725,16 @@
         <v>6139026</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45105.5</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1746,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.444</v>
@@ -1814,16 +1811,16 @@
         <v>6139027</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1832,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>2.7</v>
@@ -1900,16 +1897,16 @@
         <v>6139028</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45107.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1918,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>6.5</v>
@@ -1986,16 +1983,16 @@
         <v>6139029</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45108.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2004,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>4.2</v>
@@ -2072,16 +2069,16 @@
         <v>6139030</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45108.5625</v>
       </c>
       <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2090,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2158,16 +2155,16 @@
         <v>6138125</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45109.45833333334</v>
       </c>
       <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2176,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2244,13 +2241,13 @@
         <v>6139031</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45109.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>33</v>
@@ -2262,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>1.2</v>
@@ -2330,16 +2327,16 @@
         <v>6139032</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2348,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2416,16 +2413,16 @@
         <v>6139033</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2434,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2.2</v>
@@ -2502,16 +2499,16 @@
         <v>6139034</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2520,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2588,13 +2585,13 @@
         <v>6139035</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45116.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -2606,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2674,16 +2671,16 @@
         <v>6138126</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45116.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2692,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.55</v>
@@ -2760,16 +2757,16 @@
         <v>6139037</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45129.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2778,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>2.2</v>
@@ -2846,16 +2843,16 @@
         <v>6140397</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45129.5625</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2864,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28">
         <v>1.333</v>
@@ -2932,16 +2929,16 @@
         <v>6139038</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2950,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3018,7 +3015,7 @@
         <v>6139039</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45130.5</v>
@@ -3027,7 +3024,7 @@
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3036,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>6.5</v>
@@ -3104,16 +3101,16 @@
         <v>6813618</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45130.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3122,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>1.181</v>
@@ -3190,16 +3187,16 @@
         <v>6964794</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
         <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3208,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>1.125</v>
@@ -3276,13 +3273,13 @@
         <v>6825464</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45138.57291666666</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -3294,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>1.85</v>
@@ -3362,16 +3359,16 @@
         <v>6139040</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3380,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>1.142</v>
@@ -3448,16 +3445,16 @@
         <v>6138127</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3466,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>1.6</v>
@@ -3534,13 +3531,13 @@
         <v>6139041</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45143.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
         <v>33</v>
@@ -3552,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3620,16 +3617,16 @@
         <v>6139042</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45144.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3638,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -3706,16 +3703,16 @@
         <v>6139043</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3724,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>7.5</v>
@@ -3792,16 +3789,16 @@
         <v>6139045</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3810,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>1.533</v>
@@ -3878,16 +3875,16 @@
         <v>6139046</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45150.5625</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3896,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>1.125</v>
@@ -3964,7 +3961,7 @@
         <v>6138128</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45151.45833333334</v>
@@ -3973,7 +3970,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3982,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>2.75</v>
@@ -4050,16 +4047,16 @@
         <v>6139047</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45151.54166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4068,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4136,16 +4133,16 @@
         <v>6139048</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4154,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>3.75</v>
@@ -4222,13 +4219,13 @@
         <v>6139050</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
         <v>33</v>
@@ -4240,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4308,16 +4305,16 @@
         <v>6138129</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4326,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -4394,16 +4391,16 @@
         <v>6139049</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4412,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>8</v>
@@ -4480,16 +4477,16 @@
         <v>6139051</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
         <v>34</v>
-      </c>
-      <c r="F47" t="s">
-        <v>35</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4498,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>10</v>
@@ -4566,16 +4563,16 @@
         <v>6139052</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4584,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>1.125</v>
@@ -4652,7 +4649,7 @@
         <v>6139053</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45164.45833333334</v>
@@ -4661,7 +4658,7 @@
         <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4670,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>2.5</v>
@@ -4738,16 +4735,16 @@
         <v>6139054</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4756,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>1.3</v>
@@ -4824,17 +4821,17 @@
         <v>6139055</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45165.45833333334</v>
       </c>
       <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
         <v>39</v>
       </c>
-      <c r="F51" t="s">
-        <v>40</v>
-      </c>
       <c r="G51">
         <v>0</v>
       </c>
@@ -4842,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>2.7</v>
@@ -4910,16 +4907,16 @@
         <v>6138130</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4928,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4996,16 +4993,16 @@
         <v>6139056</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45170.5</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5014,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>2.375</v>
@@ -5082,16 +5079,16 @@
         <v>6139058</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45171.35416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5100,7 +5097,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>3.1</v>
@@ -5168,13 +5165,13 @@
         <v>6139057</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
         <v>33</v>
@@ -5186,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>1.833</v>
@@ -5254,16 +5251,16 @@
         <v>6138131</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5272,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5340,16 +5337,16 @@
         <v>6139059</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45172.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5358,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>2.15</v>
@@ -5426,7 +5423,7 @@
         <v>6139060</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45184.54166666666</v>
@@ -5435,7 +5432,7 @@
         <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5444,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5512,16 +5509,16 @@
         <v>6139061</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5530,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>1.727</v>
@@ -5598,16 +5595,16 @@
         <v>6139062</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45185.5625</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5616,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J60">
         <v>1.727</v>
@@ -5684,16 +5681,16 @@
         <v>6138132</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5702,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>5.25</v>
@@ -5770,16 +5767,16 @@
         <v>6139063</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5788,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5856,16 +5853,16 @@
         <v>6139068</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45191.57291666666</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5874,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5939,43 +5936,43 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139067</v>
+        <v>6139064</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>36</v>
       </c>
       <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>3</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L64">
         <v>3.8</v>
       </c>
       <c r="M64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="N64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O64">
         <v>6</v>
@@ -5984,7 +5981,7 @@
         <v>-1</v>
       </c>
       <c r="Q64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R64">
         <v>1.95</v>
@@ -5999,19 +5996,19 @@
         <v>1.9</v>
       </c>
       <c r="V64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>0.8999999999999999</v>
@@ -6025,10 +6022,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139064</v>
+        <v>6139067</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45192.35416666666</v>
@@ -6037,31 +6034,31 @@
         <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
         <v>43</v>
       </c>
       <c r="J65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
         <v>3.8</v>
       </c>
       <c r="M65">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O65">
         <v>6</v>
@@ -6070,7 +6067,7 @@
         <v>-1</v>
       </c>
       <c r="Q65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R65">
         <v>1.95</v>
@@ -6085,19 +6082,19 @@
         <v>1.9</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>0.8999999999999999</v>
@@ -6114,13 +6111,13 @@
         <v>6138133</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
         <v>33</v>
@@ -6132,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>1.75</v>
@@ -6200,16 +6197,16 @@
         <v>6139065</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6218,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>1.2</v>
@@ -6286,16 +6283,16 @@
         <v>6138134</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45195.46875</v>
       </c>
       <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
         <v>31</v>
-      </c>
-      <c r="F68" t="s">
-        <v>32</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6304,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>5.5</v>
@@ -6372,16 +6369,16 @@
         <v>6139069</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45195.57291666666</v>
       </c>
       <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
         <v>37</v>
-      </c>
-      <c r="F69" t="s">
-        <v>38</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6390,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -6458,16 +6455,16 @@
         <v>6139070</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45196.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6476,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -6541,22 +6538,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139072</v>
+        <v>6139071</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6565,61 +6562,61 @@
         <v>43</v>
       </c>
       <c r="J71">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="K71">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="L71">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="P71">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6627,85 +6624,85 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6139071</v>
+        <v>6139072</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J72">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="K72">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="L72">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="M72">
+        <v>7</v>
+      </c>
+      <c r="N72">
+        <v>6</v>
+      </c>
+      <c r="O72">
+        <v>1.25</v>
+      </c>
+      <c r="P72">
+        <v>1.75</v>
+      </c>
+      <c r="Q72">
+        <v>1.9</v>
+      </c>
+      <c r="R72">
+        <v>1.9</v>
+      </c>
+      <c r="S72">
         <v>3</v>
       </c>
-      <c r="N72">
-        <v>3.25</v>
-      </c>
-      <c r="O72">
-        <v>2.2</v>
-      </c>
-      <c r="P72">
+      <c r="T72">
+        <v>1.95</v>
+      </c>
+      <c r="U72">
+        <v>1.85</v>
+      </c>
+      <c r="V72">
+        <v>-1</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
         <v>0.25</v>
       </c>
-      <c r="Q72">
-        <v>1.825</v>
-      </c>
-      <c r="R72">
-        <v>1.975</v>
-      </c>
-      <c r="S72">
-        <v>2.5</v>
-      </c>
-      <c r="T72">
-        <v>1.875</v>
-      </c>
-      <c r="U72">
-        <v>1.925</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
       <c r="Y72">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6716,16 +6713,16 @@
         <v>7262749</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6734,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J73">
         <v>9.5</v>
@@ -6802,7 +6799,7 @@
         <v>6139073</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45199.45833333334</v>
@@ -6811,7 +6808,7 @@
         <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6820,7 +6817,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -6888,16 +6885,16 @@
         <v>6139075</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45200.35416666666</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6906,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>3.6</v>
@@ -6974,16 +6971,16 @@
         <v>6139076</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45200.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6992,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>6.5</v>
@@ -7060,16 +7057,16 @@
         <v>6139074</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45200.54166666666</v>
       </c>
       <c r="E77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s">
         <v>38</v>
-      </c>
-      <c r="F77" t="s">
-        <v>39</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7078,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J77">
         <v>1.2</v>
@@ -7146,16 +7143,16 @@
         <v>6354608</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45206.27083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7164,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7232,16 +7229,16 @@
         <v>6354607</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45206.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7250,7 +7247,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>6.5</v>
@@ -7318,13 +7315,13 @@
         <v>6368429</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
         <v>33</v>
@@ -7336,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7404,16 +7401,16 @@
         <v>7287901</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45206.5625</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7422,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>1.125</v>
@@ -7490,16 +7487,16 @@
         <v>6350613</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7508,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>1.166</v>
@@ -7576,16 +7573,16 @@
         <v>6368431</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7594,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7662,16 +7659,16 @@
         <v>6370778</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7680,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>3.5</v>
@@ -7748,13 +7745,13 @@
         <v>6369469</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
         <v>33</v>
@@ -7766,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7834,16 +7831,16 @@
         <v>6376944</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45221.35416666666</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7852,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>1.5</v>
@@ -7920,16 +7917,16 @@
         <v>6368432</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45221.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7938,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>11</v>
@@ -8003,49 +8000,49 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J88">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L88">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M88">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>1.875</v>
@@ -8054,22 +8051,22 @@
         <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8078,10 +8075,10 @@
         <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8089,49 +8086,49 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J89">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="K89">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L89">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O89">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q89">
         <v>1.875</v>
@@ -8140,22 +8137,22 @@
         <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X89">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8164,10 +8161,10 @@
         <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8178,16 +8175,16 @@
         <v>6416365</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45227.27083333334</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8196,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>2.3</v>
@@ -8264,16 +8261,16 @@
         <v>6418048</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8282,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8350,16 +8347,16 @@
         <v>7380346</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8368,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8436,16 +8433,16 @@
         <v>6418047</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45230.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8454,7 +8451,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>3.75</v>
@@ -8522,16 +8519,16 @@
         <v>6419652</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45230.61458333334</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8540,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8605,85 +8602,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J95">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="K95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N95">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O95">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P95">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
         <v>3</v>
       </c>
       <c r="T95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8691,85 +8688,85 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J96">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M96">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N96">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O96">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P96">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
         <v>3</v>
       </c>
       <c r="T96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
         <v>-1</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8780,16 +8777,16 @@
         <v>6513856</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45231.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8798,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>12</v>
@@ -8866,16 +8863,16 @@
         <v>6502200</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45234.3125</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8884,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8952,16 +8949,16 @@
         <v>6356579</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45234.39583333334</v>
       </c>
       <c r="E99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="s">
         <v>39</v>
-      </c>
-      <c r="F99" t="s">
-        <v>40</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8970,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9038,16 +9035,16 @@
         <v>6528945</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9056,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -9124,16 +9121,16 @@
         <v>6529676</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9142,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>2.5</v>
@@ -9210,13 +9207,13 @@
         <v>6533011</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45235.5</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
         <v>33</v>
@@ -9228,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9296,7 +9293,7 @@
         <v>7440206</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45240.58333333334</v>
@@ -9305,7 +9302,7 @@
         <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9314,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9379,55 +9376,55 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6533597</v>
+        <v>6535416</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45241.375</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
         <v>44</v>
       </c>
       <c r="J104">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L104">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q104">
+        <v>1.85</v>
+      </c>
+      <c r="R104">
         <v>1.95</v>
-      </c>
-      <c r="R104">
-        <v>1.85</v>
       </c>
       <c r="S104">
         <v>2.75</v>
@@ -9439,25 +9436,25 @@
         <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.95</v>
       </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9465,82 +9462,82 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6535416</v>
+        <v>6537869</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45241.375</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
         <v>38</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J105">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="K105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="N105">
         <v>4</v>
       </c>
       <c r="O105">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="P105">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S105">
         <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9551,85 +9548,85 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" t="s">
         <v>35</v>
       </c>
-      <c r="F106" t="s">
-        <v>32</v>
-      </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J106">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L106">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="M106">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="N106">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="P106">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q106">
+        <v>1.95</v>
+      </c>
+      <c r="R106">
         <v>1.85</v>
-      </c>
-      <c r="R106">
-        <v>1.95</v>
       </c>
       <c r="S106">
         <v>2.75</v>
       </c>
       <c r="T106">
+        <v>1.95</v>
+      </c>
+      <c r="U106">
         <v>1.85</v>
       </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
       <c r="V106">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W106">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9637,10 +9634,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537869</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45241.375</v>
@@ -9649,10 +9646,10 @@
         <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -9661,61 +9658,61 @@
         <v>44</v>
       </c>
       <c r="J107">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K107">
         <v>4</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="M107">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="N107">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O107">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
         <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9726,7 +9723,7 @@
         <v>7551820</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45263.54166666666</v>
@@ -9735,7 +9732,7 @@
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9744,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>1.285</v>
@@ -9812,16 +9809,16 @@
         <v>7891672</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9830,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.285</v>
@@ -9898,16 +9895,16 @@
         <v>7891673</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45353.3125</v>
       </c>
       <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="s">
         <v>31</v>
-      </c>
-      <c r="F110" t="s">
-        <v>32</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9916,7 +9913,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -9984,16 +9981,16 @@
         <v>7891674</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45353.39583333334</v>
       </c>
       <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" t="s">
         <v>38</v>
-      </c>
-      <c r="F111" t="s">
-        <v>39</v>
       </c>
       <c r="G111">
         <v>6</v>
@@ -10002,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>1.285</v>
@@ -10070,13 +10067,13 @@
         <v>7891675</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
         <v>33</v>
@@ -10088,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.571</v>
@@ -10156,16 +10153,16 @@
         <v>7891676</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10174,7 +10171,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10242,7 +10239,7 @@
         <v>7919321</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45360.3125</v>
@@ -10251,7 +10248,7 @@
         <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10260,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>2.4</v>
@@ -10328,16 +10325,16 @@
         <v>7919323</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10346,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>1.285</v>
@@ -10414,16 +10411,16 @@
         <v>7919322</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10432,7 +10429,7 @@
         <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>11</v>
@@ -10500,16 +10497,16 @@
         <v>7721006</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E117" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" t="s">
         <v>40</v>
-      </c>
-      <c r="F117" t="s">
-        <v>41</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10518,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>1.285</v>
@@ -10586,16 +10583,16 @@
         <v>7719642</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45361.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10604,7 +10601,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J118">
         <v>1.444</v>
@@ -10672,16 +10669,16 @@
         <v>7719643</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45367.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10690,7 +10687,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>5</v>
@@ -10755,10 +10752,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45367.39583333334</v>
@@ -10767,70 +10764,70 @@
         <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
         <v>43</v>
       </c>
       <c r="J120">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K120">
         <v>3.3</v>
       </c>
       <c r="L120">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N120">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
         <v>2.5</v>
       </c>
       <c r="T120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -10841,82 +10838,82 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J121">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K121">
         <v>3.3</v>
       </c>
       <c r="L121">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M121">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N121">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
         <v>2.5</v>
       </c>
       <c r="T121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -10930,16 +10927,16 @@
         <v>7721008</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45368.3125</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10948,7 +10945,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>1.5</v>
@@ -11016,16 +11013,16 @@
         <v>7723750</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11034,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>5</v>
@@ -11102,16 +11099,16 @@
         <v>7719645</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11120,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11188,16 +11185,16 @@
         <v>7719646</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45381.3125</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11206,7 +11203,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>3.1</v>
@@ -11274,16 +11271,16 @@
         <v>7721009</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11292,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>1.95</v>
@@ -11360,7 +11357,7 @@
         <v>7721088</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45382.27083333334</v>
@@ -11369,7 +11366,7 @@
         <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11378,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>11</v>
@@ -11446,16 +11443,16 @@
         <v>7721010</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11464,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11532,13 +11529,13 @@
         <v>7721011</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
         <v>33</v>
@@ -11550,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>3.8</v>
@@ -11618,16 +11615,16 @@
         <v>7719647</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45388.27083333334</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11636,7 +11633,7 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>3.9</v>
@@ -11704,16 +11701,16 @@
         <v>7721012</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11722,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>1.3</v>
@@ -11790,16 +11787,16 @@
         <v>7721013</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11808,7 +11805,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>1.181</v>
@@ -11876,16 +11873,16 @@
         <v>7719648</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11894,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11962,7 +11959,7 @@
         <v>7721014</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45395.27083333334</v>
@@ -11971,7 +11968,7 @@
         <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11980,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2.2</v>
@@ -12048,16 +12045,16 @@
         <v>7719649</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12066,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>2.5</v>
@@ -12134,16 +12131,16 @@
         <v>7721015</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12152,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12220,16 +12217,16 @@
         <v>7721016</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45396.35416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12238,7 +12235,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>4.333</v>
@@ -12306,16 +12303,16 @@
         <v>7719650</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12324,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>2.375</v>
@@ -12392,16 +12389,16 @@
         <v>7719670</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12410,7 +12407,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>7</v>
@@ -12478,16 +12475,16 @@
         <v>7721093</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45399.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12496,7 +12493,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>2.3</v>
@@ -12564,16 +12561,16 @@
         <v>7723749</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45402.27083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12582,7 +12579,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>3.8</v>
@@ -12650,13 +12647,13 @@
         <v>7721089</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
         <v>33</v>
@@ -12668,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12736,16 +12733,16 @@
         <v>7721017</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12754,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>1.166</v>
@@ -12822,16 +12819,16 @@
         <v>7721018</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -12840,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12908,16 +12905,16 @@
         <v>7719651</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12926,7 +12923,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12994,16 +12991,16 @@
         <v>7721019</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13012,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13080,52 +13077,52 @@
         <v>27</v>
       </c>
       <c r="C147" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="E147" t="s">
         <v>30</v>
       </c>
-      <c r="D147" s="2">
-        <v>45409.35416666666</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>34</v>
       </c>
-      <c r="F147" t="s">
-        <v>32</v>
-      </c>
       <c r="J147">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="K147">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L147">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="M147">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N147">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O147">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="P147">
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S147">
         <v>2.75</v>
       </c>
       <c r="T147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -13145,52 +13142,52 @@
         <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
-        <v>45409.45833333334</v>
+        <v>45410.35416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J148">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L148">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="M148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N148">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="O148">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="P148">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q148">
+        <v>1.85</v>
+      </c>
+      <c r="R148">
         <v>1.95</v>
       </c>
-      <c r="R148">
-        <v>1.85</v>
-      </c>
       <c r="S148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
         <v>0</v>
@@ -13199,71 +13196,6 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>29</v>
-      </c>
-      <c r="C149" t="s">
-        <v>30</v>
-      </c>
-      <c r="D149" s="2">
-        <v>45410.35416666666</v>
-      </c>
-      <c r="E149" t="s">
-        <v>33</v>
-      </c>
-      <c r="F149" t="s">
-        <v>38</v>
-      </c>
-      <c r="J149">
-        <v>7</v>
-      </c>
-      <c r="K149">
-        <v>6</v>
-      </c>
-      <c r="L149">
-        <v>1.25</v>
-      </c>
-      <c r="M149">
-        <v>7</v>
-      </c>
-      <c r="N149">
-        <v>5.75</v>
-      </c>
-      <c r="O149">
-        <v>1.25</v>
-      </c>
-      <c r="P149">
-        <v>1.75</v>
-      </c>
-      <c r="Q149">
-        <v>1.85</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>3</v>
-      </c>
-      <c r="T149">
-        <v>1.975</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
         <v>0</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7721020</t>
-  </si>
-  <si>
-    <t>7721021</t>
+    <t>7721022</t>
   </si>
   <si>
     <t>Estonia Meistriliiga</t>
@@ -510,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +604,16 @@
         <v>6139016</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45083.5</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -625,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -693,16 +690,16 @@
         <v>6138122</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -711,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -779,16 +776,16 @@
         <v>6139018</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45084.5</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -797,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -865,16 +862,16 @@
         <v>6139017</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45084.5</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1.666</v>
@@ -951,16 +948,16 @@
         <v>6139019</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1037,16 +1034,16 @@
         <v>6139021</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1055,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -1123,16 +1120,16 @@
         <v>6138123</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45087.5625</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1141,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1.8</v>
@@ -1209,16 +1206,16 @@
         <v>6139022</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45088.35416666666</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1227,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>4.75</v>
@@ -1295,16 +1292,16 @@
         <v>6139020</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45088.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1313,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1.363</v>
@@ -1381,16 +1378,16 @@
         <v>6139023</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45088.54166666666</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1467,16 +1464,16 @@
         <v>6139024</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45104.5</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1485,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1553,16 +1550,16 @@
         <v>6139025</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1571,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1639,16 +1636,16 @@
         <v>6138124</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45104.58333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1657,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1725,16 +1722,16 @@
         <v>6139026</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45105.5</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1743,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.444</v>
@@ -1811,16 +1808,16 @@
         <v>6139027</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1829,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.7</v>
@@ -1897,16 +1894,16 @@
         <v>6139028</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45107.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>6.5</v>
@@ -1983,16 +1980,16 @@
         <v>6139029</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45108.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2001,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>4.2</v>
@@ -2069,16 +2066,16 @@
         <v>6139030</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45108.5625</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2087,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2155,16 +2152,16 @@
         <v>6138125</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45109.45833333334</v>
       </c>
       <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2173,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2241,16 +2238,16 @@
         <v>6139031</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45109.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2259,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.2</v>
@@ -2327,16 +2324,16 @@
         <v>6139032</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2345,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2413,16 +2410,16 @@
         <v>6139033</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2431,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>2.2</v>
@@ -2499,16 +2496,16 @@
         <v>6139034</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2517,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2585,16 +2582,16 @@
         <v>6139035</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45116.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2603,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2671,16 +2668,16 @@
         <v>6138126</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45116.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2689,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.55</v>
@@ -2757,16 +2754,16 @@
         <v>6139037</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45129.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2775,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>2.2</v>
@@ -2843,16 +2840,16 @@
         <v>6140397</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45129.5625</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2861,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>1.333</v>
@@ -2929,16 +2926,16 @@
         <v>6139038</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2947,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3015,16 +3012,16 @@
         <v>6139039</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45130.5</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3033,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>6.5</v>
@@ -3101,16 +3098,16 @@
         <v>6813618</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45130.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3119,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>1.181</v>
@@ -3187,16 +3184,16 @@
         <v>6964794</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
         <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3205,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>1.125</v>
@@ -3273,16 +3270,16 @@
         <v>6825464</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45138.57291666666</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3291,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>1.85</v>
@@ -3359,16 +3356,16 @@
         <v>6139040</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3377,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>1.142</v>
@@ -3445,16 +3442,16 @@
         <v>6138127</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3463,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>1.6</v>
@@ -3531,16 +3528,16 @@
         <v>6139041</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45143.5625</v>
       </c>
       <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
         <v>32</v>
-      </c>
-      <c r="F36" t="s">
-        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3549,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3617,16 +3614,16 @@
         <v>6139042</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45144.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3635,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -3703,16 +3700,16 @@
         <v>6139043</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3721,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>7.5</v>
@@ -3789,16 +3786,16 @@
         <v>6139045</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3807,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>1.533</v>
@@ -3875,16 +3872,16 @@
         <v>6139046</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45150.5625</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3893,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.125</v>
@@ -3961,16 +3958,16 @@
         <v>6138128</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45151.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3979,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>2.75</v>
@@ -4047,16 +4044,16 @@
         <v>6139047</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45151.54166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4065,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4133,16 +4130,16 @@
         <v>6139048</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4151,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>3.75</v>
@@ -4219,16 +4216,16 @@
         <v>6139050</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4237,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4305,16 +4302,16 @@
         <v>6138129</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4323,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -4391,16 +4388,16 @@
         <v>6139049</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4409,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>8</v>
@@ -4477,16 +4474,16 @@
         <v>6139051</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4495,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>10</v>
@@ -4563,16 +4560,16 @@
         <v>6139052</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4581,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.125</v>
@@ -4649,16 +4646,16 @@
         <v>6139053</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4667,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>2.5</v>
@@ -4735,16 +4732,16 @@
         <v>6139054</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4753,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>1.3</v>
@@ -4821,17 +4818,17 @@
         <v>6139055</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45165.45833333334</v>
       </c>
       <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" t="s">
-        <v>39</v>
-      </c>
       <c r="G51">
         <v>0</v>
       </c>
@@ -4839,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>2.7</v>
@@ -4907,16 +4904,16 @@
         <v>6138130</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4925,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4993,16 +4990,16 @@
         <v>6139056</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45170.5</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5011,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>2.375</v>
@@ -5079,16 +5076,16 @@
         <v>6139058</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45171.35416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5097,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>3.1</v>
@@ -5165,16 +5162,16 @@
         <v>6139057</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5183,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>1.833</v>
@@ -5251,16 +5248,16 @@
         <v>6138131</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5269,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5337,16 +5334,16 @@
         <v>6139059</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45172.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5355,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>2.15</v>
@@ -5423,16 +5420,16 @@
         <v>6139060</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5441,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5509,16 +5506,16 @@
         <v>6139061</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5527,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>1.727</v>
@@ -5595,16 +5592,16 @@
         <v>6139062</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45185.5625</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5613,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>1.727</v>
@@ -5681,16 +5678,16 @@
         <v>6138132</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5699,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>5.25</v>
@@ -5767,16 +5764,16 @@
         <v>6139063</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5785,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5853,16 +5850,16 @@
         <v>6139068</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45191.57291666666</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5939,16 +5936,16 @@
         <v>6139064</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5957,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6025,16 +6022,16 @@
         <v>6139067</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6043,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>1.8</v>
@@ -6111,16 +6108,16 @@
         <v>6138133</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6129,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>1.75</v>
@@ -6197,16 +6194,16 @@
         <v>6139065</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6215,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.2</v>
@@ -6283,16 +6280,16 @@
         <v>6138134</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45195.46875</v>
       </c>
       <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
         <v>30</v>
-      </c>
-      <c r="F68" t="s">
-        <v>31</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6301,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>5.5</v>
@@ -6369,16 +6366,16 @@
         <v>6139069</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45195.57291666666</v>
       </c>
       <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" t="s">
         <v>36</v>
-      </c>
-      <c r="F69" t="s">
-        <v>37</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6387,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -6455,16 +6452,16 @@
         <v>6139070</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45196.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6473,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -6541,16 +6538,16 @@
         <v>6139071</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6559,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6627,16 +6624,16 @@
         <v>6139072</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" t="s">
         <v>33</v>
-      </c>
-      <c r="F72" t="s">
-        <v>34</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6645,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>9</v>
@@ -6713,16 +6710,16 @@
         <v>7262749</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6731,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>9.5</v>
@@ -6799,16 +6796,16 @@
         <v>6139073</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6817,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -6885,16 +6882,16 @@
         <v>6139075</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45200.35416666666</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6903,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>3.6</v>
@@ -6971,16 +6968,16 @@
         <v>6139076</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45200.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6989,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>6.5</v>
@@ -7057,16 +7054,16 @@
         <v>6139074</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45200.54166666666</v>
       </c>
       <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
         <v>37</v>
-      </c>
-      <c r="F77" t="s">
-        <v>38</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7075,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>1.2</v>
@@ -7143,16 +7140,16 @@
         <v>6354608</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45206.27083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7161,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7229,16 +7226,16 @@
         <v>6354607</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45206.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7247,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>6.5</v>
@@ -7315,16 +7312,16 @@
         <v>6368429</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7333,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7401,16 +7398,16 @@
         <v>7287901</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45206.5625</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7419,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>1.125</v>
@@ -7487,16 +7484,16 @@
         <v>6350613</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7505,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>1.166</v>
@@ -7573,16 +7570,16 @@
         <v>6368431</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7591,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7659,16 +7656,16 @@
         <v>6370778</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7677,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>3.5</v>
@@ -7745,16 +7742,16 @@
         <v>6369469</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7763,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7831,16 +7828,16 @@
         <v>6376944</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45221.35416666666</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7849,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>1.5</v>
@@ -7917,16 +7914,16 @@
         <v>6368432</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45221.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7935,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>11</v>
@@ -8003,16 +8000,16 @@
         <v>6376947</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8021,7 +8018,7 @@
         <v>7</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>3.6</v>
@@ -8089,17 +8086,17 @@
         <v>6376945</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" t="s">
         <v>35</v>
       </c>
-      <c r="F89" t="s">
-        <v>36</v>
-      </c>
       <c r="G89">
         <v>0</v>
       </c>
@@ -8107,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>1.615</v>
@@ -8175,16 +8172,16 @@
         <v>6416365</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45227.27083333334</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8193,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>2.3</v>
@@ -8261,16 +8258,16 @@
         <v>6418048</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8279,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8347,16 +8344,16 @@
         <v>7380346</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8365,7 +8362,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8433,16 +8430,16 @@
         <v>6418047</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45230.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8451,7 +8448,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>3.75</v>
@@ -8519,16 +8516,16 @@
         <v>6419652</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45230.61458333334</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8537,7 +8534,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8605,16 +8602,16 @@
         <v>6482819</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8623,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>1.833</v>
@@ -8691,16 +8688,16 @@
         <v>6416370</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8709,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>1.166</v>
@@ -8777,16 +8774,16 @@
         <v>6513856</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45231.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8795,7 +8792,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>12</v>
@@ -8863,16 +8860,16 @@
         <v>6502200</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45234.3125</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8881,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8949,16 +8946,16 @@
         <v>6356579</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45234.39583333334</v>
       </c>
       <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" t="s">
         <v>38</v>
-      </c>
-      <c r="F99" t="s">
-        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8967,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9035,16 +9032,16 @@
         <v>6528945</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9053,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -9121,16 +9118,16 @@
         <v>6529676</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9139,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>2.5</v>
@@ -9207,16 +9204,16 @@
         <v>6533011</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45235.5</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9225,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9293,16 +9290,16 @@
         <v>7440206</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9311,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9379,16 +9376,16 @@
         <v>6535416</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45241.375</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9397,7 +9394,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -9465,16 +9462,16 @@
         <v>6537869</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45241.375</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -9483,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>1.6</v>
@@ -9551,16 +9548,16 @@
         <v>6533597</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9569,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>2.5</v>
@@ -9637,16 +9634,16 @@
         <v>6537957</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45241.375</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9655,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>1.4</v>
@@ -9723,16 +9720,16 @@
         <v>7551820</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9741,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>1.285</v>
@@ -9809,16 +9806,16 @@
         <v>7891672</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9827,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.285</v>
@@ -9895,16 +9892,16 @@
         <v>7891673</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45353.3125</v>
       </c>
       <c r="E110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" t="s">
         <v>30</v>
-      </c>
-      <c r="F110" t="s">
-        <v>31</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9913,7 +9910,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -9981,16 +9978,16 @@
         <v>7891674</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45353.39583333334</v>
       </c>
       <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" t="s">
         <v>37</v>
-      </c>
-      <c r="F111" t="s">
-        <v>38</v>
       </c>
       <c r="G111">
         <v>6</v>
@@ -9999,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>1.285</v>
@@ -10067,16 +10064,16 @@
         <v>7891675</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" t="s">
         <v>32</v>
-      </c>
-      <c r="F112" t="s">
-        <v>33</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10085,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.571</v>
@@ -10153,16 +10150,16 @@
         <v>7891676</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10171,7 +10168,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10239,16 +10236,16 @@
         <v>7919321</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45360.3125</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10257,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.4</v>
@@ -10322,85 +10319,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J115">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="K115">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L115">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="M115">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="P115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Q115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Y115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10408,10 +10405,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919322</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45360.39583333334</v>
@@ -10423,70 +10420,70 @@
         <v>37</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
         <v>42</v>
       </c>
       <c r="J116">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="K116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L116">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="M116">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="N116">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="O116">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Q116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10497,16 +10494,16 @@
         <v>7721006</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s">
         <v>39</v>
-      </c>
-      <c r="F117" t="s">
-        <v>40</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10515,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>1.285</v>
@@ -10583,16 +10580,16 @@
         <v>7719642</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45361.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10601,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>1.444</v>
@@ -10669,16 +10666,16 @@
         <v>7719643</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45367.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10687,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>5</v>
@@ -10755,16 +10752,16 @@
         <v>7721087</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10773,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10841,16 +10838,16 @@
         <v>7721007</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10859,7 +10856,7 @@
         <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>2.25</v>
@@ -10927,16 +10924,16 @@
         <v>7721008</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45368.3125</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10945,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>1.5</v>
@@ -11013,16 +11010,16 @@
         <v>7723750</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11031,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>5</v>
@@ -11099,16 +11096,16 @@
         <v>7719645</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11117,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11185,16 +11182,16 @@
         <v>7719646</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45381.3125</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11203,7 +11200,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>3.1</v>
@@ -11271,16 +11268,16 @@
         <v>7721009</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11289,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>1.95</v>
@@ -11357,17 +11354,17 @@
         <v>7721088</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45382.27083333334</v>
       </c>
       <c r="E127" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" t="s">
         <v>33</v>
       </c>
-      <c r="F127" t="s">
-        <v>34</v>
-      </c>
       <c r="G127">
         <v>0</v>
       </c>
@@ -11375,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>11</v>
@@ -11443,16 +11440,16 @@
         <v>7721010</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11461,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11529,16 +11526,16 @@
         <v>7721011</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11547,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>3.8</v>
@@ -11615,16 +11612,16 @@
         <v>7719647</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45388.27083333334</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11633,7 +11630,7 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>3.9</v>
@@ -11701,16 +11698,16 @@
         <v>7721012</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11719,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J131">
         <v>1.3</v>
@@ -11787,16 +11784,16 @@
         <v>7721013</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11805,7 +11802,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>1.181</v>
@@ -11873,16 +11870,16 @@
         <v>7719648</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11891,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11959,16 +11956,16 @@
         <v>7721014</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45395.27083333334</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11977,7 +11974,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>2.2</v>
@@ -12045,16 +12042,16 @@
         <v>7719649</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12063,7 +12060,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>2.5</v>
@@ -12131,16 +12128,16 @@
         <v>7721015</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12149,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12217,16 +12214,16 @@
         <v>7721016</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45396.35416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12235,7 +12232,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>4.333</v>
@@ -12303,16 +12300,16 @@
         <v>7719650</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12321,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>2.375</v>
@@ -12389,16 +12386,16 @@
         <v>7719670</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12407,7 +12404,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>7</v>
@@ -12475,16 +12472,16 @@
         <v>7721093</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45399.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12493,7 +12490,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>2.3</v>
@@ -12561,16 +12558,16 @@
         <v>7723749</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45402.27083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12579,7 +12576,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>3.8</v>
@@ -12647,16 +12644,16 @@
         <v>7721089</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12665,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12733,16 +12730,16 @@
         <v>7721017</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12751,7 +12748,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>1.166</v>
@@ -12819,16 +12816,16 @@
         <v>7721018</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -12837,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12905,16 +12902,16 @@
         <v>7719651</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12923,7 +12920,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12991,16 +12988,16 @@
         <v>7721019</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13009,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13077,16 +13074,16 @@
         <v>27</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
-        <v>45409.45833333334</v>
+        <v>45410.45833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J147">
         <v>5</v>
@@ -13098,31 +13095,31 @@
         <v>1.5</v>
       </c>
       <c r="M147">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O147">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="P147">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q147">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S147">
         <v>2.75</v>
       </c>
       <c r="T147">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -13131,71 +13128,6 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>28</v>
-      </c>
-      <c r="C148" t="s">
-        <v>29</v>
-      </c>
-      <c r="D148" s="2">
-        <v>45410.35416666666</v>
-      </c>
-      <c r="E148" t="s">
-        <v>33</v>
-      </c>
-      <c r="F148" t="s">
-        <v>37</v>
-      </c>
-      <c r="J148">
-        <v>7</v>
-      </c>
-      <c r="K148">
-        <v>6</v>
-      </c>
-      <c r="L148">
-        <v>1.25</v>
-      </c>
-      <c r="M148">
-        <v>7</v>
-      </c>
-      <c r="N148">
-        <v>5.75</v>
-      </c>
-      <c r="O148">
-        <v>1.25</v>
-      </c>
-      <c r="P148">
-        <v>1.75</v>
-      </c>
-      <c r="Q148">
-        <v>1.85</v>
-      </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>3</v>
-      </c>
-      <c r="T148">
-        <v>1.975</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>0</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="X148">
         <v>0</v>
       </c>
     </row>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7721022</t>
-  </si>
-  <si>
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
@@ -109,25 +106,25 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>FC Flora Tallinn</t>
   </si>
   <si>
     <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>FC Flora Tallinn</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>Parnu JK Vaprus</t>
   </si>
   <si>
-    <t>Harju JK Laagri</t>
+    <t>JK Trans Narva</t>
   </si>
   <si>
     <t>FC Levadia Tallinn</t>
   </si>
   <si>
-    <t>JK Trans Narva</t>
+    <t>Harju JK Laagri</t>
   </si>
   <si>
     <t>Paide Linnameeskond</t>
@@ -507,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +601,16 @@
         <v>6139016</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45083.5</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -622,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -690,16 +687,16 @@
         <v>6138122</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -773,16 +770,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139019</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45084.5</v>
+        <v>45084.54166666666</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -791,67 +788,67 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O4">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="P4">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q4">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
+        <v>1.875</v>
+      </c>
+      <c r="U4">
         <v>1.925</v>
       </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X4">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -862,16 +859,16 @@
         <v>6139017</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45084.5</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -880,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>1.666</v>
@@ -945,85 +942,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6139019</v>
+        <v>6139018</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>45084.54166666666</v>
+        <v>45084.5</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="K6">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="M6">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q6">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
+        <v>1.925</v>
+      </c>
+      <c r="U6">
         <v>1.875</v>
       </c>
-      <c r="U6">
-        <v>1.925</v>
-      </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1034,16 +1031,16 @@
         <v>6139021</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -1120,16 +1117,16 @@
         <v>6138123</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45087.5625</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1138,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>1.8</v>
@@ -1203,85 +1200,85 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6139022</v>
+        <v>6139023</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>45088.35416666666</v>
+        <v>45088.54166666666</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>41</v>
       </c>
       <c r="J9">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L9">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="N9">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O9">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q9">
+        <v>1.85</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>2.25</v>
+      </c>
+      <c r="T9">
+        <v>1.925</v>
+      </c>
+      <c r="U9">
         <v>1.875</v>
       </c>
-      <c r="R9">
-        <v>1.925</v>
-      </c>
-      <c r="S9">
-        <v>2.75</v>
-      </c>
-      <c r="T9">
-        <v>1.8</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
       <c r="V9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>-0.5</v>
+      </c>
+      <c r="AB9">
         <v>0.4375</v>
-      </c>
-      <c r="Z9">
-        <v>-0.5</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1292,16 +1289,16 @@
         <v>6139020</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45088.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1310,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>1.363</v>
@@ -1375,85 +1372,85 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6139023</v>
+        <v>6139022</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>45088.54166666666</v>
+        <v>45088.35416666666</v>
       </c>
       <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>4.75</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>1.533</v>
+      </c>
+      <c r="M11">
+        <v>6.5</v>
+      </c>
+      <c r="N11">
+        <v>4.2</v>
+      </c>
+      <c r="O11">
+        <v>1.4</v>
+      </c>
+      <c r="P11">
+        <v>1.25</v>
+      </c>
+      <c r="Q11">
+        <v>1.875</v>
+      </c>
+      <c r="R11">
+        <v>1.925</v>
+      </c>
+      <c r="S11">
+        <v>2.75</v>
+      </c>
+      <c r="T11">
+        <v>1.8</v>
+      </c>
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>3.3</v>
-      </c>
-      <c r="L11">
-        <v>3.2</v>
-      </c>
-      <c r="M11">
-        <v>2.05</v>
-      </c>
-      <c r="N11">
-        <v>3.3</v>
-      </c>
-      <c r="O11">
-        <v>3.1</v>
-      </c>
-      <c r="P11">
-        <v>-0.25</v>
-      </c>
-      <c r="Q11">
-        <v>1.85</v>
-      </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>2.25</v>
-      </c>
-      <c r="T11">
-        <v>1.925</v>
-      </c>
-      <c r="U11">
-        <v>1.875</v>
-      </c>
       <c r="V11">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1464,16 +1461,16 @@
         <v>6139024</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45104.5</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1482,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1550,16 +1547,16 @@
         <v>6139025</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1568,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1636,16 +1633,16 @@
         <v>6138124</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45104.58333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1654,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1719,58 +1716,58 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6139026</v>
+        <v>6139027</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>45105.5</v>
+        <v>45105.54166666666</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="K15">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M15">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N15">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P15">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q15">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T15">
         <v>1.875</v>
@@ -1782,16 +1779,16 @@
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z15">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1805,58 +1802,58 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6139027</v>
+        <v>6139026</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>45105.54166666666</v>
+        <v>45105.5</v>
       </c>
       <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="K16">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L16">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="N16">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O16">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T16">
         <v>1.875</v>
@@ -1868,16 +1865,16 @@
         <v>-1</v>
       </c>
       <c r="W16">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA16">
         <v>-1</v>
@@ -1894,16 +1891,16 @@
         <v>6139028</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45107.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>6.5</v>
@@ -1980,16 +1977,16 @@
         <v>6139029</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45108.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1998,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>4.2</v>
@@ -2066,16 +2063,16 @@
         <v>6139030</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45108.5625</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2084,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2152,16 +2149,16 @@
         <v>6138125</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45109.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2170,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2238,16 +2235,16 @@
         <v>6139031</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45109.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2256,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>1.2</v>
@@ -2324,16 +2321,16 @@
         <v>6139032</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2342,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2410,16 +2407,16 @@
         <v>6139033</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2428,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>2.2</v>
@@ -2496,16 +2493,16 @@
         <v>6139034</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2514,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2582,16 +2579,16 @@
         <v>6139035</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45116.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2600,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2668,16 +2665,16 @@
         <v>6138126</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45116.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2686,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>1.55</v>
@@ -2751,85 +2748,85 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6139037</v>
+        <v>6140397</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>45129.45833333334</v>
+        <v>45129.5625</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J27">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L27">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M27">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W27">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2837,85 +2834,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6140397</v>
+        <v>6139037</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>45129.5625</v>
+        <v>45129.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>42</v>
       </c>
       <c r="J28">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="K28">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M28">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2923,64 +2920,64 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6139038</v>
+        <v>6813618</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>45130.41666666666</v>
+        <v>45130.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="L29">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>1.111</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>1.727</v>
+        <v>19</v>
       </c>
       <c r="P29">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="Q29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T29">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
         <v>-1</v>
@@ -2989,16 +2986,16 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>0.7270000000000001</v>
+        <v>18</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3012,16 +3009,16 @@
         <v>6139039</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45130.5</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3030,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>6.5</v>
@@ -3095,64 +3092,64 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6813618</v>
+        <v>6139038</v>
       </c>
       <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45130.41666666666</v>
+      </c>
+      <c r="E31" t="s">
         <v>28</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45130.58333333334</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="K31">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="M31">
-        <v>1.111</v>
+        <v>3.75</v>
       </c>
       <c r="N31">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="O31">
-        <v>19</v>
+        <v>1.727</v>
       </c>
       <c r="P31">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
         <v>-1</v>
@@ -3161,16 +3158,16 @@
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>18</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3184,16 +3181,16 @@
         <v>6964794</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
         <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3202,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1.125</v>
@@ -3270,16 +3267,16 @@
         <v>6825464</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45138.57291666666</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3288,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>1.85</v>
@@ -3356,16 +3353,16 @@
         <v>6139040</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3374,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>1.142</v>
@@ -3442,16 +3439,16 @@
         <v>6138127</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3460,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>1.6</v>
@@ -3528,16 +3525,16 @@
         <v>6139041</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45143.5625</v>
       </c>
       <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
         <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3546,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3614,16 +3611,16 @@
         <v>6139042</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45144.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3632,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -3700,16 +3697,16 @@
         <v>6139043</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3718,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>7.5</v>
@@ -3783,19 +3780,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6139045</v>
+        <v>6139046</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
-        <v>45150.45833333334</v>
+        <v>45150.5625</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,37 +3801,37 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J39">
-        <v>1.533</v>
+        <v>1.125</v>
       </c>
       <c r="K39">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="N39">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P39">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T39">
         <v>1.95</v>
@@ -3846,7 +3843,7 @@
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3855,7 +3852,7 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3869,19 +3866,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6139046</v>
+        <v>6139045</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
-        <v>45150.5625</v>
+        <v>45150.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3890,37 +3887,37 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40">
-        <v>1.125</v>
+        <v>1.533</v>
       </c>
       <c r="K40">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="N40">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="O40">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P40">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T40">
         <v>1.95</v>
@@ -3932,7 +3929,7 @@
         <v>-1</v>
       </c>
       <c r="W40">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -3941,7 +3938,7 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -3958,16 +3955,16 @@
         <v>6138128</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45151.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3976,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>2.75</v>
@@ -4044,16 +4041,16 @@
         <v>6139047</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45151.54166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4062,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4130,16 +4127,16 @@
         <v>6139048</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4148,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>3.75</v>
@@ -4213,22 +4210,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6139050</v>
+        <v>6138129</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
-        <v>45157.45833333334</v>
+        <v>45157.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4237,58 +4234,58 @@
         <v>42</v>
       </c>
       <c r="J44">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L44">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="M44">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O44">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="P44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q44">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
         <v>2.5</v>
       </c>
       <c r="T44">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U44">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
         <v>-1</v>
@@ -4299,82 +4296,82 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6138129</v>
+        <v>6139050</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45157.54166666666</v>
+        <v>45157.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N45">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="P45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
         <v>2.5</v>
       </c>
       <c r="T45">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W45">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4388,16 +4385,16 @@
         <v>6139049</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4406,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <v>8</v>
@@ -4474,16 +4471,16 @@
         <v>6139051</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4492,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>10</v>
@@ -4560,16 +4557,16 @@
         <v>6139052</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4578,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>1.125</v>
@@ -4646,16 +4643,16 @@
         <v>6139053</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4664,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>2.5</v>
@@ -4732,16 +4729,16 @@
         <v>6139054</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4750,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>1.3</v>
@@ -4818,16 +4815,16 @@
         <v>6139055</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45165.45833333334</v>
       </c>
       <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
         <v>37</v>
-      </c>
-      <c r="F51" t="s">
-        <v>38</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4836,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2.7</v>
@@ -4904,16 +4901,16 @@
         <v>6138130</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4922,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>1.727</v>
@@ -4990,16 +4987,16 @@
         <v>6139056</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45170.5</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5008,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>2.375</v>
@@ -5073,85 +5070,85 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6139058</v>
+        <v>6139057</v>
       </c>
       <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45171.45833333334</v>
+      </c>
+      <c r="E54" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="2">
-        <v>45171.35416666666</v>
-      </c>
-      <c r="E54" t="s">
-        <v>35</v>
-      </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54">
+        <v>1.833</v>
+      </c>
+      <c r="K54">
+        <v>3.5</v>
+      </c>
+      <c r="L54">
         <v>4</v>
       </c>
-      <c r="I54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54">
-        <v>3.1</v>
-      </c>
-      <c r="K54">
-        <v>3.8</v>
-      </c>
-      <c r="L54">
-        <v>1.95</v>
-      </c>
       <c r="M54">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N54">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V54">
         <v>-1</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5159,85 +5156,85 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6139057</v>
+        <v>6139058</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
-        <v>45171.45833333334</v>
+        <v>45171.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J55">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="K55">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="M55">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O55">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="P55">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
         <v>-1</v>
       </c>
       <c r="W55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5248,16 +5245,16 @@
         <v>6138131</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5334,16 +5331,16 @@
         <v>6139059</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45172.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5352,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>2.15</v>
@@ -5420,16 +5417,16 @@
         <v>6139060</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5438,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5506,16 +5503,16 @@
         <v>6139061</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5524,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>1.727</v>
@@ -5592,16 +5589,16 @@
         <v>6139062</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45185.5625</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5610,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>1.727</v>
@@ -5678,16 +5675,16 @@
         <v>6138132</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
         <v>30</v>
-      </c>
-      <c r="F61" t="s">
-        <v>33</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5696,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>5.25</v>
@@ -5764,16 +5761,16 @@
         <v>6139063</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5782,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5850,16 +5847,16 @@
         <v>6139068</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45191.57291666666</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5868,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5933,49 +5930,49 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139064</v>
+        <v>6139065</v>
       </c>
       <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45192.5625</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="2">
-        <v>45192.35416666666</v>
-      </c>
-      <c r="E64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" t="s">
-        <v>35</v>
-      </c>
       <c r="G64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
         <v>41</v>
       </c>
       <c r="J64">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="M64">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="P64">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -5984,31 +5981,31 @@
         <v>1.95</v>
       </c>
       <c r="S64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T64">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6019,67 +6016,67 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6139067</v>
+        <v>6138133</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
-        <v>45192.35416666666</v>
+        <v>45192.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K65">
         <v>3.4</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="N65">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O65">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P65">
         <v>-1</v>
       </c>
       <c r="Q65">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
         <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6088,13 +6085,13 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6105,82 +6102,82 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6138133</v>
+        <v>6139064</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
-        <v>45192.45833333334</v>
+        <v>45192.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>1.75</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L66">
+        <v>3.8</v>
+      </c>
+      <c r="M66">
+        <v>1.45</v>
+      </c>
+      <c r="N66">
         <v>4</v>
       </c>
-      <c r="M66">
-        <v>1.533</v>
-      </c>
-      <c r="N66">
-        <v>3.5</v>
-      </c>
       <c r="O66">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P66">
         <v>-1</v>
       </c>
       <c r="Q66">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
         <v>2.5</v>
       </c>
       <c r="T66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6191,67 +6188,67 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6139065</v>
+        <v>6139067</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
-        <v>45192.5625</v>
+        <v>45192.35416666666</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J67">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K67">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L67">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="M67">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O67">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="P67">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="Q67">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R67">
         <v>1.95</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>0.2849999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6260,13 +6257,13 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6277,52 +6274,52 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6138134</v>
+        <v>6139069</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45195.46875</v>
+        <v>45195.57291666666</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J68">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="K68">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="L68">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M68">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="N68">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="O68">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="P68">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q68">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R68">
         <v>1.95</v>
@@ -6331,11 +6328,11 @@
         <v>3</v>
       </c>
       <c r="T68">
+        <v>1.85</v>
+      </c>
+      <c r="U68">
         <v>1.95</v>
       </c>
-      <c r="U68">
-        <v>1.85</v>
-      </c>
       <c r="V68">
         <v>-1</v>
       </c>
@@ -6343,19 +6340,19 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>0.444</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>-1</v>
+      </c>
+      <c r="AB68">
         <v>0.95</v>
-      </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
-      <c r="AB68">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6363,52 +6360,52 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6139069</v>
+        <v>6138134</v>
       </c>
       <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45195.46875</v>
+      </c>
+      <c r="E69" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="2">
-        <v>45195.57291666666</v>
-      </c>
-      <c r="E69" t="s">
-        <v>35</v>
-      </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J69">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="K69">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L69">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M69">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="N69">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="O69">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="P69">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q69">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R69">
         <v>1.95</v>
@@ -6417,11 +6414,11 @@
         <v>3</v>
       </c>
       <c r="T69">
+        <v>1.95</v>
+      </c>
+      <c r="U69">
         <v>1.85</v>
       </c>
-      <c r="U69">
-        <v>1.95</v>
-      </c>
       <c r="V69">
         <v>-1</v>
       </c>
@@ -6429,19 +6426,19 @@
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>0.1659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="Y69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6449,49 +6446,49 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6139070</v>
+        <v>6139071</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45196.45833333334</v>
+        <v>45196.54166666666</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
         <v>2</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="K70">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O70">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P70">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q70">
         <v>1.825</v>
@@ -6500,16 +6497,16 @@
         <v>1.975</v>
       </c>
       <c r="S70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T70">
+        <v>1.875</v>
+      </c>
+      <c r="U70">
+        <v>1.925</v>
+      </c>
+      <c r="V70">
         <v>2</v>
-      </c>
-      <c r="U70">
-        <v>1.8</v>
-      </c>
-      <c r="V70">
-        <v>2.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6524,10 +6521,10 @@
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6535,49 +6532,49 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139071</v>
+        <v>6139070</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45196.54166666666</v>
+        <v>45196.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
         <v>37</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J71">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N71">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O71">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P71">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q71">
         <v>1.825</v>
@@ -6586,16 +6583,16 @@
         <v>1.975</v>
       </c>
       <c r="S71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T71">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6610,10 +6607,10 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6624,16 +6621,16 @@
         <v>6139072</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6642,7 +6639,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>9</v>
@@ -6707,85 +6704,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7262749</v>
+        <v>6139073</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45199.35416666666</v>
+        <v>45199.45833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J73">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="K73">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="L73">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="M73">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="P73">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q73">
+        <v>1.95</v>
+      </c>
+      <c r="R73">
         <v>1.75</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
       <c r="S73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y73">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6793,85 +6790,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6139073</v>
+        <v>7262749</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45199.45833333334</v>
+        <v>45199.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="s">
         <v>41</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="L74">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="M74">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="O74">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="P74">
+        <v>2.25</v>
+      </c>
+      <c r="Q74">
+        <v>1.75</v>
+      </c>
+      <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>1.8</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>8</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
         <v>0.75</v>
       </c>
-      <c r="Q74">
-        <v>1.95</v>
-      </c>
-      <c r="R74">
-        <v>1.75</v>
-      </c>
-      <c r="S74">
-        <v>2.75</v>
-      </c>
-      <c r="T74">
-        <v>1.9</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>-1</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>0.571</v>
-      </c>
-      <c r="Y74">
-        <v>-0.5</v>
-      </c>
       <c r="Z74">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6879,85 +6876,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6139075</v>
+        <v>6139074</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
-        <v>45200.35416666666</v>
+        <v>45200.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J75">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="K75">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L75">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="M75">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="N75">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O75">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="P75">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q75">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W75">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6965,85 +6962,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6139076</v>
+        <v>6139075</v>
       </c>
       <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45200.35416666666</v>
+      </c>
+      <c r="E76" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="2">
-        <v>45200.45833333334</v>
-      </c>
-      <c r="E76" t="s">
-        <v>34</v>
-      </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J76">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="K76">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="M76">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O76">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="P76">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q76">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
+        <v>1.8</v>
+      </c>
+      <c r="U76">
         <v>2</v>
       </c>
-      <c r="U76">
-        <v>1.8</v>
-      </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X76">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7051,85 +7048,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139074</v>
+        <v>6139076</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
-        <v>45200.54166666666</v>
+        <v>45200.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J77">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="K77">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L77">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="M77">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O77">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="P77">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y77">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7137,55 +7134,55 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6354608</v>
+        <v>6354607</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45206.27083333334</v>
+        <v>45206.35416666666</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J78">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="M78">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O78">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="P78">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
         <v>3</v>
@@ -7200,22 +7197,22 @@
         <v>-1</v>
       </c>
       <c r="W78">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB78">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7223,55 +7220,55 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6354607</v>
+        <v>6354608</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45206.35416666666</v>
+        <v>45206.27083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J79">
+        <v>1.666</v>
+      </c>
+      <c r="K79">
+        <v>3.75</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>1.363</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>6.5</v>
       </c>
-      <c r="K79">
-        <v>5.5</v>
-      </c>
-      <c r="L79">
-        <v>1.285</v>
-      </c>
-      <c r="M79">
-        <v>6.5</v>
-      </c>
-      <c r="N79">
-        <v>5.5</v>
-      </c>
-      <c r="O79">
-        <v>1.285</v>
-      </c>
       <c r="P79">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q79">
+        <v>1.75</v>
+      </c>
+      <c r="R79">
         <v>1.95</v>
-      </c>
-      <c r="R79">
-        <v>1.85</v>
       </c>
       <c r="S79">
         <v>3</v>
@@ -7286,22 +7283,22 @@
         <v>-1</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X79">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
+        <v>-1</v>
+      </c>
+      <c r="Z79">
         <v>0.95</v>
       </c>
-      <c r="Z79">
-        <v>-1</v>
-      </c>
       <c r="AA79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7309,67 +7306,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6368429</v>
+        <v>7287901</v>
       </c>
       <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45206.5625</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="2">
-        <v>45206.45833333334</v>
-      </c>
-      <c r="E80" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" t="s">
-        <v>32</v>
-      </c>
       <c r="G80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="K80">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="M80">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="N80">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="O80">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="P80">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T80">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
         <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.15</v>
+        <v>0.181</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7378,16 +7375,16 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7395,67 +7392,67 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7287901</v>
+        <v>6368429</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
-        <v>45206.5625</v>
+        <v>45206.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J81">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="L81">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="M81">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="N81">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="O81">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="P81">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R81">
+        <v>1.875</v>
+      </c>
+      <c r="S81">
+        <v>2.5</v>
+      </c>
+      <c r="T81">
         <v>1.85</v>
-      </c>
-      <c r="S81">
-        <v>3</v>
-      </c>
-      <c r="T81">
-        <v>1.75</v>
       </c>
       <c r="U81">
         <v>1.95</v>
       </c>
       <c r="V81">
-        <v>0.181</v>
+        <v>1.15</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7464,16 +7461,16 @@
         <v>-1</v>
       </c>
       <c r="Y81">
+        <v>0.925</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>0.95</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7484,16 +7481,16 @@
         <v>6350613</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7502,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>1.166</v>
@@ -7570,16 +7567,16 @@
         <v>6368431</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7588,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7656,16 +7653,16 @@
         <v>6370778</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7674,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>3.5</v>
@@ -7742,16 +7739,16 @@
         <v>6369469</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7760,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7828,16 +7825,16 @@
         <v>6376944</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45221.35416666666</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7846,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>1.5</v>
@@ -7914,16 +7911,16 @@
         <v>6368432</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45221.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7932,7 +7929,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>11</v>
@@ -8000,16 +7997,16 @@
         <v>6376947</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" t="s">
         <v>32</v>
-      </c>
-      <c r="F88" t="s">
-        <v>31</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8018,7 +8015,7 @@
         <v>7</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J88">
         <v>3.6</v>
@@ -8086,16 +8083,16 @@
         <v>6376945</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8104,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>1.615</v>
@@ -8169,67 +8166,67 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6416365</v>
+        <v>7380346</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
-        <v>45227.27083333334</v>
+        <v>45227.45833333334</v>
       </c>
       <c r="E90" t="s">
         <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J90">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="K90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L90">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="M90">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O90">
+        <v>1.8</v>
+      </c>
+      <c r="P90">
+        <v>0.5</v>
+      </c>
+      <c r="Q90">
+        <v>1.95</v>
+      </c>
+      <c r="R90">
+        <v>1.85</v>
+      </c>
+      <c r="S90">
         <v>2.5</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>1.875</v>
-      </c>
-      <c r="R90">
-        <v>1.925</v>
-      </c>
-      <c r="S90">
-        <v>2.75</v>
-      </c>
       <c r="T90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8238,16 +8235,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8258,16 +8255,16 @@
         <v>6418048</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8276,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8341,67 +8338,67 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7380346</v>
+        <v>6416365</v>
       </c>
       <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45227.27083333334</v>
+      </c>
+      <c r="E92" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="2">
-        <v>45227.45833333334</v>
-      </c>
-      <c r="E92" t="s">
-        <v>30</v>
-      </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J92">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="K92">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L92">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M92">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O92">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="P92">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T92">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8410,16 +8407,16 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8427,85 +8424,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6418047</v>
+        <v>6419652</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>45230.54166666666</v>
+        <v>45230.61458333334</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93">
+        <v>2.4</v>
+      </c>
+      <c r="K93">
+        <v>3.4</v>
+      </c>
+      <c r="L93">
+        <v>2.5</v>
+      </c>
+      <c r="M93">
+        <v>2.375</v>
+      </c>
+      <c r="N93">
+        <v>3.6</v>
+      </c>
+      <c r="O93">
+        <v>2.4</v>
+      </c>
+      <c r="P93">
         <v>0</v>
       </c>
-      <c r="H93">
-        <v>2</v>
-      </c>
-      <c r="I93" t="s">
-        <v>41</v>
-      </c>
-      <c r="J93">
-        <v>3.75</v>
-      </c>
-      <c r="K93">
-        <v>3.75</v>
-      </c>
-      <c r="L93">
-        <v>1.727</v>
-      </c>
-      <c r="M93">
-        <v>2.875</v>
-      </c>
-      <c r="N93">
-        <v>3.3</v>
-      </c>
-      <c r="O93">
-        <v>2.15</v>
-      </c>
-      <c r="P93">
-        <v>0.25</v>
-      </c>
       <c r="Q93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T93">
+        <v>1.925</v>
+      </c>
+      <c r="U93">
         <v>1.875</v>
       </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
       <c r="V93">
         <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X93">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8513,85 +8510,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6419652</v>
+        <v>6418047</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
-        <v>45230.61458333334</v>
+        <v>45230.54166666666</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J94">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="K94">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L94">
+        <v>1.727</v>
+      </c>
+      <c r="M94">
+        <v>2.875</v>
+      </c>
+      <c r="N94">
+        <v>3.3</v>
+      </c>
+      <c r="O94">
+        <v>2.15</v>
+      </c>
+      <c r="P94">
+        <v>0.25</v>
+      </c>
+      <c r="Q94">
+        <v>1.85</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
         <v>2.5</v>
       </c>
-      <c r="M94">
-        <v>2.375</v>
-      </c>
-      <c r="N94">
-        <v>3.6</v>
-      </c>
-      <c r="O94">
-        <v>2.4</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
+      <c r="T94">
         <v>1.875</v>
       </c>
-      <c r="R94">
+      <c r="U94">
         <v>1.925</v>
       </c>
-      <c r="S94">
-        <v>2.75</v>
-      </c>
-      <c r="T94">
-        <v>1.925</v>
-      </c>
-      <c r="U94">
-        <v>1.875</v>
-      </c>
       <c r="V94">
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
         <v>0.925</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8599,85 +8596,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J95">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="K95">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M95">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N95">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O95">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P95">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
         <v>3</v>
       </c>
       <c r="T95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8685,85 +8682,85 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J96">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="K96">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L96">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N96">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P96">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
         <v>3</v>
       </c>
       <c r="T96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
         <v>-1</v>
       </c>
       <c r="W96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8774,16 +8771,16 @@
         <v>6513856</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45231.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8792,7 +8789,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J97">
         <v>12</v>
@@ -8860,16 +8857,16 @@
         <v>6502200</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45234.3125</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8878,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8946,16 +8943,16 @@
         <v>6356579</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45234.39583333334</v>
       </c>
       <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" t="s">
         <v>37</v>
-      </c>
-      <c r="F99" t="s">
-        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8964,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9032,16 +9029,16 @@
         <v>6528945</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9050,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -9118,16 +9115,16 @@
         <v>6529676</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9136,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>2.5</v>
@@ -9204,16 +9201,16 @@
         <v>6533011</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45235.5</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9222,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9290,16 +9287,16 @@
         <v>7440206</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9308,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9373,49 +9370,49 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6535416</v>
+        <v>6537957</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45241.375</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="K104">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="P104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q104">
         <v>1.85</v>
@@ -9427,31 +9424,31 @@
         <v>2.75</v>
       </c>
       <c r="T104">
+        <v>1.85</v>
+      </c>
+      <c r="U104">
         <v>1.95</v>
       </c>
-      <c r="U104">
-        <v>1.85</v>
-      </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0.95</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9459,82 +9456,82 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6537869</v>
+        <v>6535416</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45241.375</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
         <v>42</v>
       </c>
       <c r="J105">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="M105">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="N105">
         <v>4</v>
       </c>
       <c r="O105">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="P105">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
         <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9545,67 +9542,67 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
         <v>34</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J106">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K106">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O106">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="P106">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S106">
         <v>2.75</v>
       </c>
       <c r="T106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9614,16 +9611,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9631,85 +9628,85 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6537957</v>
+        <v>6533597</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45241.375</v>
       </c>
       <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
         <v>33</v>
       </c>
-      <c r="F107" t="s">
-        <v>30</v>
-      </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J107">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L107">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="M107">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="N107">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="P107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q107">
+        <v>1.95</v>
+      </c>
+      <c r="R107">
         <v>1.85</v>
-      </c>
-      <c r="R107">
-        <v>1.95</v>
       </c>
       <c r="S107">
         <v>2.75</v>
       </c>
       <c r="T107">
+        <v>1.95</v>
+      </c>
+      <c r="U107">
         <v>1.85</v>
       </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
       <c r="V107">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9720,16 +9717,16 @@
         <v>7551820</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9738,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1.285</v>
@@ -9806,16 +9803,16 @@
         <v>7891672</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9824,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>1.285</v>
@@ -9892,16 +9889,16 @@
         <v>7891673</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45353.3125</v>
       </c>
       <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
         <v>29</v>
-      </c>
-      <c r="F110" t="s">
-        <v>30</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9910,7 +9907,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -9978,16 +9975,16 @@
         <v>7891674</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45353.39583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>6</v>
@@ -9996,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>1.285</v>
@@ -10064,16 +10061,16 @@
         <v>7891675</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" t="s">
         <v>31</v>
-      </c>
-      <c r="F112" t="s">
-        <v>32</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10082,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.571</v>
@@ -10150,16 +10147,16 @@
         <v>7891676</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10168,7 +10165,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10233,67 +10230,67 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7919321</v>
+        <v>7919323</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
-        <v>45360.3125</v>
+        <v>45360.39583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
         <v>34</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J114">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="K114">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L114">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="M114">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N114">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O114">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10302,16 +10299,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10322,16 +10319,16 @@
         <v>7919322</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10340,7 +10337,7 @@
         <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>11</v>
@@ -10405,67 +10402,67 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919321</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
-        <v>45360.39583333334</v>
+        <v>45360.3125</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J116">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="K116">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L116">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="M116">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N116">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10474,16 +10471,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10494,16 +10491,16 @@
         <v>7721006</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E117" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" t="s">
         <v>38</v>
-      </c>
-      <c r="F117" t="s">
-        <v>39</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10512,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>1.285</v>
@@ -10580,16 +10577,16 @@
         <v>7719642</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45361.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10598,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J118">
         <v>1.444</v>
@@ -10666,16 +10663,16 @@
         <v>7719643</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45367.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10684,7 +10681,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J119">
         <v>5</v>
@@ -10749,82 +10746,82 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721087</v>
+        <v>7721007</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J120">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K120">
         <v>3.3</v>
       </c>
       <c r="L120">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M120">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N120">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
         <v>2.5</v>
       </c>
       <c r="T120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -10835,10 +10832,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45367.39583333334</v>
@@ -10847,70 +10844,70 @@
         <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
         <v>41</v>
       </c>
       <c r="J121">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K121">
         <v>3.3</v>
       </c>
       <c r="L121">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M121">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N121">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
         <v>2.5</v>
       </c>
       <c r="T121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -10924,16 +10921,16 @@
         <v>7721008</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45368.3125</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10942,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>1.5</v>
@@ -11010,16 +11007,16 @@
         <v>7723750</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11028,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>5</v>
@@ -11096,16 +11093,16 @@
         <v>7719645</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11114,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11179,85 +11176,85 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719646</v>
+        <v>7721009</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45381.3125</v>
+        <v>45381.39583333334</v>
       </c>
       <c r="E125" t="s">
         <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
         <v>41</v>
       </c>
       <c r="J125">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="K125">
         <v>3.3</v>
       </c>
       <c r="L125">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O125">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q125">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
         <v>2.75</v>
       </c>
       <c r="T125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11265,85 +11262,85 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7721009</v>
+        <v>7719646</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45381.39583333334</v>
+        <v>45381.3125</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
         <v>2</v>
       </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J126">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="K126">
         <v>3.3</v>
       </c>
       <c r="L126">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="M126">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N126">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="P126">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q126">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R126">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
         <v>2.75</v>
       </c>
       <c r="T126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y126">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11354,16 +11351,16 @@
         <v>7721088</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45382.27083333334</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11372,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>11</v>
@@ -11440,16 +11437,16 @@
         <v>7721010</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11458,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11526,16 +11523,16 @@
         <v>7721011</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11544,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>3.8</v>
@@ -11609,82 +11606,82 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7719647</v>
+        <v>7721013</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>45388.27083333334</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="E130" t="s">
         <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I130" t="s">
         <v>41</v>
       </c>
       <c r="J130">
-        <v>3.9</v>
+        <v>1.181</v>
       </c>
       <c r="K130">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L130">
+        <v>13</v>
+      </c>
+      <c r="M130">
+        <v>1.4</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130">
+        <v>5.25</v>
+      </c>
+      <c r="P130">
+        <v>-1.25</v>
+      </c>
+      <c r="Q130">
         <v>1.85</v>
       </c>
-      <c r="M130">
-        <v>6</v>
-      </c>
-      <c r="N130">
-        <v>3.6</v>
-      </c>
-      <c r="O130">
-        <v>1.5</v>
-      </c>
-      <c r="P130">
-        <v>1</v>
-      </c>
-      <c r="Q130">
+      <c r="R130">
         <v>1.95</v>
       </c>
-      <c r="R130">
-        <v>1.75</v>
-      </c>
       <c r="S130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z130">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA130">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -11698,16 +11695,16 @@
         <v>7721012</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11716,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>1.3</v>
@@ -11781,82 +11778,82 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7721013</v>
+        <v>7719647</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
-        <v>45388.45833333334</v>
+        <v>45388.27083333334</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J132">
-        <v>1.181</v>
+        <v>3.9</v>
       </c>
       <c r="K132">
+        <v>3.4</v>
+      </c>
+      <c r="L132">
+        <v>1.85</v>
+      </c>
+      <c r="M132">
         <v>6</v>
       </c>
-      <c r="L132">
-        <v>13</v>
-      </c>
-      <c r="M132">
-        <v>1.4</v>
-      </c>
       <c r="N132">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O132">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="P132">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="Q132">
+        <v>1.95</v>
+      </c>
+      <c r="R132">
+        <v>1.75</v>
+      </c>
+      <c r="S132">
+        <v>2.5</v>
+      </c>
+      <c r="T132">
         <v>1.85</v>
       </c>
-      <c r="R132">
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="S132">
-        <v>3</v>
-      </c>
-      <c r="T132">
-        <v>1.925</v>
-      </c>
-      <c r="U132">
-        <v>1.875</v>
-      </c>
       <c r="V132">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
@@ -11870,16 +11867,16 @@
         <v>7719648</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11888,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11956,16 +11953,16 @@
         <v>7721014</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45395.27083333334</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11974,7 +11971,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>2.2</v>
@@ -12042,16 +12039,16 @@
         <v>7719649</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12060,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J135">
         <v>2.5</v>
@@ -12128,16 +12125,16 @@
         <v>7721015</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12146,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12211,85 +12208,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7721016</v>
+        <v>7719650</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
-        <v>45396.35416666666</v>
+        <v>45396.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
         <v>1</v>
-      </c>
-      <c r="H137">
-        <v>3</v>
       </c>
       <c r="I137" t="s">
         <v>41</v>
       </c>
       <c r="J137">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="K137">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L137">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="M137">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="N137">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O137">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="P137">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
         <v>2.75</v>
       </c>
       <c r="T137">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12297,85 +12294,85 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7719650</v>
+        <v>7721016</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
-        <v>45396.45833333334</v>
+        <v>45396.35416666666</v>
       </c>
       <c r="E138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" t="s">
         <v>30</v>
       </c>
-      <c r="F138" t="s">
-        <v>38</v>
-      </c>
       <c r="G138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J138">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="K138">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L138">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="M138">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="N138">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O138">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
         <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12386,16 +12383,16 @@
         <v>7719670</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12404,7 +12401,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J139">
         <v>7</v>
@@ -12472,16 +12469,16 @@
         <v>7721093</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45399.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12490,7 +12487,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>2.3</v>
@@ -12558,16 +12555,16 @@
         <v>7723749</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45402.27083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12576,7 +12573,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J141">
         <v>3.8</v>
@@ -12644,16 +12641,16 @@
         <v>7721089</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12662,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12730,16 +12727,16 @@
         <v>7721017</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12748,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>1.166</v>
@@ -12816,16 +12813,16 @@
         <v>7721018</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -12834,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12902,16 +12899,16 @@
         <v>7719651</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12920,7 +12917,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12988,16 +12985,16 @@
         <v>7721019</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13006,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13070,20 +13067,29 @@
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>27</v>
+      <c r="B147">
+        <v>7721020</v>
       </c>
       <c r="C147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="E147" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="2">
-        <v>45410.45833333334</v>
-      </c>
-      <c r="E147" t="s">
-        <v>37</v>
-      </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>42</v>
       </c>
       <c r="J147">
         <v>5</v>
@@ -13095,40 +13101,138 @@
         <v>1.5</v>
       </c>
       <c r="M147">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N147">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O147">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="P147">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q147">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R147">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147">
+        <v>1.95</v>
+      </c>
+      <c r="U147">
+        <v>1.75</v>
+      </c>
+      <c r="V147">
+        <v>-1</v>
+      </c>
+      <c r="W147">
+        <v>2.8</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.95</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7719652</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45409.35416666666</v>
+      </c>
+      <c r="E148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>40</v>
+      </c>
+      <c r="J148">
+        <v>3.1</v>
+      </c>
+      <c r="K148">
+        <v>3.75</v>
+      </c>
+      <c r="L148">
+        <v>1.909</v>
+      </c>
+      <c r="M148">
+        <v>4.2</v>
+      </c>
+      <c r="N148">
+        <v>4.5</v>
+      </c>
+      <c r="O148">
+        <v>1.533</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>1.85</v>
+      </c>
+      <c r="R148">
+        <v>1.95</v>
+      </c>
+      <c r="S148">
         <v>2.75</v>
       </c>
-      <c r="T147">
-        <v>1.8</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="V147">
-        <v>0</v>
-      </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-      <c r="X147">
-        <v>0</v>
+      <c r="T148">
+        <v>1.825</v>
+      </c>
+      <c r="U148">
+        <v>1.975</v>
+      </c>
+      <c r="V148">
+        <v>-1</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.95</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -100,19 +100,19 @@
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
+    <t>JK Nomme Kalju</t>
+  </si>
+  <si>
     <t>FC Kuressaare</t>
   </si>
   <si>
-    <t>JK Nomme Kalju</t>
-  </si>
-  <si>
-    <t>FC Flora Tallinn</t>
+    <t>JK Tallinna Kalev</t>
   </si>
   <si>
     <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>JK Tallinna Kalev</t>
+    <t>FC Flora Tallinn</t>
   </si>
   <si>
     <t>Parnu JK Vaprus</t>
@@ -136,10 +136,10 @@
     <t>Viimsi JK</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,85 +598,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6139016</v>
+        <v>6138122</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>45083.5</v>
+        <v>45083.58333333334</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="K2">
+        <v>3.25</v>
+      </c>
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="L2">
-        <v>1.444</v>
-      </c>
       <c r="M2">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="N2">
         <v>3.6</v>
       </c>
       <c r="O2">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
         <v>1.8</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
       </c>
       <c r="S2">
         <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -684,85 +684,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6138122</v>
+        <v>6139016</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45083.58333333334</v>
+        <v>45083.5</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>41</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="M3">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="N3">
         <v>3.6</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="P3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q3">
+        <v>1.8</v>
+      </c>
+      <c r="R3">
         <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1.8</v>
       </c>
       <c r="S3">
         <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -770,85 +770,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139019</v>
+        <v>6139018</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45084.54166666666</v>
+        <v>45084.5</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="K4">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O4">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q4">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T4">
+        <v>1.925</v>
+      </c>
+      <c r="U4">
         <v>1.875</v>
       </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>1.666</v>
@@ -942,85 +942,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6139018</v>
+        <v>6139019</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>45084.5</v>
+        <v>45084.54166666666</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N6">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O6">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q6">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T6">
+        <v>1.875</v>
+      </c>
+      <c r="U6">
         <v>1.925</v>
       </c>
-      <c r="U6">
-        <v>1.875</v>
-      </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1028,58 +1028,58 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6139021</v>
+        <v>6138123</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>45087.45833333334</v>
+        <v>45087.5625</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>40</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O7">
-        <v>1.181</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q7">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R7">
         <v>1.95</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T7">
         <v>1.85</v>
@@ -1088,25 +1088,25 @@
         <v>1.95</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.95</v>
-      </c>
-      <c r="AA7">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1114,58 +1114,58 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6138123</v>
+        <v>6139021</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>45087.5625</v>
+        <v>45087.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
         <v>41</v>
       </c>
       <c r="J8">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="M8">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>1.181</v>
       </c>
       <c r="P8">
-        <v>-0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q8">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R8">
         <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T8">
         <v>1.85</v>
@@ -1174,25 +1174,25 @@
         <v>1.95</v>
       </c>
       <c r="V8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>0.95</v>
+      </c>
+      <c r="AA8">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z8">
-        <v>-1</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>1.363</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>4.75</v>
@@ -1467,7 +1467,7 @@
         <v>45104.5</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1642,7 +1642,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>45105.5</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
@@ -1986,7 +1986,7 @@
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2146,85 +2146,85 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6138125</v>
+        <v>6139031</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>45109.45833333334</v>
+        <v>45109.54166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>40</v>
       </c>
       <c r="J20">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="K20">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>1.55</v>
+        <v>1.125</v>
       </c>
       <c r="N20">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="Q20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2232,85 +2232,85 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6139031</v>
+        <v>6138125</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>45109.54166666666</v>
+        <v>45109.45833333334</v>
       </c>
       <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
         <v>30</v>
       </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
       </c>
       <c r="J21">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="M21">
-        <v>1.125</v>
+        <v>1.55</v>
       </c>
       <c r="N21">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="O21">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="Q21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2330,7 +2330,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>2.2</v>
@@ -2499,10 +2499,10 @@
         <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2674,7 +2674,7 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.55</v>
@@ -2748,85 +2748,85 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6140397</v>
+        <v>6139037</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>45129.5625</v>
+        <v>45129.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J27">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="K27">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N27">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2834,85 +2834,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6139037</v>
+        <v>6140397</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>45129.45833333334</v>
+        <v>45129.5625</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J28">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L28">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M28">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N28">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W28">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2929,7 +2929,7 @@
         <v>45130.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -2941,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>1.181</v>
@@ -3101,7 +3101,7 @@
         <v>45130.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -3113,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.5</v>
@@ -3187,7 +3187,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
@@ -3273,7 +3273,7 @@
         <v>45138.57291666666</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>1.85</v>
@@ -3359,10 +3359,10 @@
         <v>45142.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34">
         <v>1.142</v>
@@ -3436,85 +3436,85 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6138127</v>
+        <v>6139041</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2">
-        <v>45143.45833333334</v>
+        <v>45143.5625</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J35">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O35">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
         <v>2.5</v>
       </c>
       <c r="T35">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3522,85 +3522,85 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6139041</v>
+        <v>6138127</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2">
-        <v>45143.5625</v>
+        <v>45143.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J36">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>4.2</v>
+      </c>
+      <c r="M36">
+        <v>1.7</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
         <v>3.75</v>
       </c>
-      <c r="L36">
-        <v>3.4</v>
-      </c>
-      <c r="M36">
-        <v>2.1</v>
-      </c>
-      <c r="N36">
-        <v>3.5</v>
-      </c>
-      <c r="O36">
-        <v>2.8</v>
-      </c>
       <c r="P36">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
         <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W36">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3629,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -3715,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>7.5</v>
@@ -3878,7 +3878,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3952,85 +3952,85 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6138128</v>
+        <v>6139047</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2">
-        <v>45151.45833333334</v>
+        <v>45151.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
         <v>29</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J41">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K41">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
         <v>3.4</v>
       </c>
       <c r="O41">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="P41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q41">
+        <v>1.925</v>
+      </c>
+      <c r="R41">
+        <v>1.875</v>
+      </c>
+      <c r="S41">
+        <v>2.5</v>
+      </c>
+      <c r="T41">
         <v>1.95</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>1.85</v>
       </c>
-      <c r="S41">
-        <v>2.25</v>
-      </c>
-      <c r="T41">
-        <v>1.75</v>
-      </c>
-      <c r="U41">
-        <v>1.95</v>
-      </c>
       <c r="V41">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4038,85 +4038,85 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6139047</v>
+        <v>6138128</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2">
-        <v>45151.54166666666</v>
+        <v>45151.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
         <v>28</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J42">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L42">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="M42">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N42">
         <v>3.4</v>
       </c>
       <c r="O42">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q42">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T42">
+        <v>1.75</v>
+      </c>
+      <c r="U42">
         <v>1.95</v>
       </c>
-      <c r="U42">
-        <v>1.85</v>
-      </c>
       <c r="V42">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4145,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>3.75</v>
@@ -4210,82 +4210,82 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6138129</v>
+        <v>6139050</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2">
-        <v>45157.54166666666</v>
+        <v>45157.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J44">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="K44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L44">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="P44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q44">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
         <v>2.5</v>
       </c>
       <c r="T44">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W44">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB44">
         <v>-1</v>
@@ -4296,82 +4296,82 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6139050</v>
+        <v>6138129</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45157.45833333334</v>
+        <v>45157.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J45">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="M45">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O45">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="P45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
         <v>2.5</v>
       </c>
       <c r="T45">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U45">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4391,7 +4391,7 @@
         <v>45158.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
         <v>35</v>
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>8</v>
@@ -4477,10 +4477,10 @@
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
         <v>32</v>
-      </c>
-      <c r="F47" t="s">
-        <v>30</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>45163.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
         <v>36</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <v>1.125</v>
@@ -4738,7 +4738,7 @@
         <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4812,85 +4812,85 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6139055</v>
+        <v>6138130</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2">
-        <v>45165.45833333334</v>
+        <v>45165.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J51">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="K51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="N51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="P51">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q51">
+        <v>1.925</v>
+      </c>
+      <c r="R51">
         <v>1.875</v>
       </c>
-      <c r="R51">
-        <v>1.925</v>
-      </c>
       <c r="S51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T51">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4898,85 +4898,85 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6138130</v>
+        <v>6139055</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2">
-        <v>45165.52083333334</v>
+        <v>45165.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52">
+        <v>2.7</v>
+      </c>
+      <c r="K52">
+        <v>3.3</v>
+      </c>
+      <c r="L52">
+        <v>2.25</v>
+      </c>
+      <c r="M52">
+        <v>3.6</v>
+      </c>
+      <c r="N52">
+        <v>3.4</v>
+      </c>
+      <c r="O52">
+        <v>1.909</v>
+      </c>
+      <c r="P52">
+        <v>0.5</v>
+      </c>
+      <c r="Q52">
+        <v>1.875</v>
+      </c>
+      <c r="R52">
+        <v>1.925</v>
+      </c>
+      <c r="S52">
+        <v>2.25</v>
+      </c>
+      <c r="T52">
+        <v>1.8</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>-1</v>
+      </c>
+      <c r="W52">
+        <v>2.4</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
+        <v>0.875</v>
+      </c>
+      <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52">
-        <v>1.727</v>
-      </c>
-      <c r="K52">
-        <v>3.5</v>
-      </c>
-      <c r="L52">
-        <v>4</v>
-      </c>
-      <c r="M52">
-        <v>1.666</v>
-      </c>
-      <c r="N52">
-        <v>3.5</v>
-      </c>
-      <c r="O52">
-        <v>4.2</v>
-      </c>
-      <c r="P52">
-        <v>-0.75</v>
-      </c>
-      <c r="Q52">
-        <v>1.925</v>
-      </c>
-      <c r="R52">
-        <v>1.875</v>
-      </c>
-      <c r="S52">
-        <v>2.5</v>
-      </c>
-      <c r="T52">
-        <v>1.85</v>
-      </c>
-      <c r="U52">
-        <v>1.95</v>
-      </c>
-      <c r="V52">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>-1</v>
-      </c>
-      <c r="Y52">
-        <v>0.925</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
-      <c r="AA52">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB52">
-        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -4996,7 +4996,7 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>2.375</v>
@@ -5070,85 +5070,85 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6139057</v>
+        <v>6139058</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2">
-        <v>45171.45833333334</v>
+        <v>45171.35416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="K54">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="M54">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="P54">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T54">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
         <v>-1</v>
       </c>
       <c r="W54">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5156,85 +5156,85 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6139058</v>
+        <v>6139057</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2">
-        <v>45171.35416666666</v>
+        <v>45171.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55">
+        <v>1.833</v>
+      </c>
+      <c r="K55">
+        <v>3.5</v>
+      </c>
+      <c r="L55">
         <v>4</v>
       </c>
-      <c r="I55" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55">
-        <v>3.1</v>
-      </c>
-      <c r="K55">
-        <v>3.8</v>
-      </c>
-      <c r="L55">
-        <v>1.95</v>
-      </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V55">
         <v>-1</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5242,85 +5242,85 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6138131</v>
+        <v>6139059</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2">
-        <v>45172.35416666666</v>
+        <v>45172.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="K56">
+        <v>3.2</v>
+      </c>
+      <c r="L56">
+        <v>3.25</v>
+      </c>
+      <c r="M56">
+        <v>2.15</v>
+      </c>
+      <c r="N56">
         <v>3.3</v>
       </c>
-      <c r="L56">
-        <v>2.8</v>
-      </c>
-      <c r="M56">
+      <c r="O56">
+        <v>3.1</v>
+      </c>
+      <c r="P56">
+        <v>-0.25</v>
+      </c>
+      <c r="Q56">
+        <v>1.9</v>
+      </c>
+      <c r="R56">
+        <v>1.9</v>
+      </c>
+      <c r="S56">
+        <v>2.25</v>
+      </c>
+      <c r="T56">
+        <v>1.825</v>
+      </c>
+      <c r="U56">
+        <v>1.975</v>
+      </c>
+      <c r="V56">
+        <v>-1</v>
+      </c>
+      <c r="W56">
         <v>2.3</v>
       </c>
-      <c r="N56">
-        <v>3.5</v>
-      </c>
-      <c r="O56">
-        <v>2.75</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>1.775</v>
-      </c>
-      <c r="R56">
-        <v>2.025</v>
-      </c>
-      <c r="S56">
-        <v>2.5</v>
-      </c>
-      <c r="T56">
-        <v>1.925</v>
-      </c>
-      <c r="U56">
-        <v>1.875</v>
-      </c>
-      <c r="V56">
-        <v>1.3</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5328,85 +5328,85 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6139059</v>
+        <v>6138131</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2">
-        <v>45172.45833333334</v>
+        <v>45172.35416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J57">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="K57">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N57">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P57">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W57">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z57">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5509,7 +5509,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
         <v>36</v>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>1.727</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J60">
         <v>1.727</v>
@@ -5681,10 +5681,10 @@
         <v>45186.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5853,10 +5853,10 @@
         <v>45191.57291666666</v>
       </c>
       <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
         <v>30</v>
-      </c>
-      <c r="F63" t="s">
-        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5942,7 +5942,7 @@
         <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>1.2</v>
@@ -6025,7 +6025,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
         <v>31</v>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>1.75</v>
@@ -6123,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1.75</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6274,52 +6274,52 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6139069</v>
+        <v>6138134</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45195.57291666666</v>
+        <v>45195.46875</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J68">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="K68">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L68">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M68">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="N68">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="O68">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="P68">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q68">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R68">
         <v>1.95</v>
@@ -6328,11 +6328,11 @@
         <v>3</v>
       </c>
       <c r="T68">
+        <v>1.95</v>
+      </c>
+      <c r="U68">
         <v>1.85</v>
       </c>
-      <c r="U68">
-        <v>1.95</v>
-      </c>
       <c r="V68">
         <v>-1</v>
       </c>
@@ -6340,19 +6340,19 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>0.1659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="Y68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6360,52 +6360,52 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6138134</v>
+        <v>6139069</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45195.46875</v>
+        <v>45195.57291666666</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J69">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="K69">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M69">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="N69">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="O69">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="P69">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q69">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R69">
         <v>1.95</v>
@@ -6414,11 +6414,11 @@
         <v>3</v>
       </c>
       <c r="T69">
+        <v>1.85</v>
+      </c>
+      <c r="U69">
         <v>1.95</v>
       </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
       <c r="V69">
         <v>-1</v>
       </c>
@@ -6426,19 +6426,19 @@
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>0.444</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.95</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6446,49 +6446,49 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6139071</v>
+        <v>6139070</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45196.54166666666</v>
+        <v>45196.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J70">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="K70">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N70">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O70">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P70">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q70">
         <v>1.825</v>
@@ -6497,16 +6497,16 @@
         <v>1.975</v>
       </c>
       <c r="S70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T70">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6521,10 +6521,10 @@
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6532,49 +6532,49 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139070</v>
+        <v>6139071</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45196.45833333334</v>
+        <v>45196.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
         <v>2</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L71">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P71">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q71">
         <v>1.825</v>
@@ -6583,16 +6583,16 @@
         <v>1.975</v>
       </c>
       <c r="S71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T71">
+        <v>1.875</v>
+      </c>
+      <c r="U71">
+        <v>1.925</v>
+      </c>
+      <c r="V71">
         <v>2</v>
-      </c>
-      <c r="U71">
-        <v>1.8</v>
-      </c>
-      <c r="V71">
-        <v>2.75</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6607,10 +6607,10 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6630,7 +6630,7 @@
         <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6639,7 +6639,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>9</v>
@@ -6704,85 +6704,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6139073</v>
+        <v>7262749</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45199.45833333334</v>
+        <v>45199.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
         <v>40</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="L73">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="O73">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="P73">
+        <v>2.25</v>
+      </c>
+      <c r="Q73">
+        <v>1.75</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>1.8</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>8</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
         <v>0.75</v>
       </c>
-      <c r="Q73">
-        <v>1.95</v>
-      </c>
-      <c r="R73">
-        <v>1.75</v>
-      </c>
-      <c r="S73">
-        <v>2.75</v>
-      </c>
-      <c r="T73">
-        <v>1.9</v>
-      </c>
-      <c r="U73">
-        <v>1.9</v>
-      </c>
-      <c r="V73">
-        <v>-1</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>0.571</v>
-      </c>
-      <c r="Y73">
-        <v>-0.5</v>
-      </c>
       <c r="Z73">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6790,85 +6790,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7262749</v>
+        <v>6139073</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45199.35416666666</v>
+        <v>45199.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
         <v>41</v>
       </c>
       <c r="J74">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="L74">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="M74">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N74">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="P74">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q74">
+        <v>1.95</v>
+      </c>
+      <c r="R74">
         <v>1.75</v>
       </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
       <c r="S74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y74">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6876,85 +6876,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6139074</v>
+        <v>6139076</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2">
-        <v>45200.54166666666</v>
+        <v>45200.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
         <v>41</v>
       </c>
       <c r="J75">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="K75">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="M75">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="P75">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y75">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6962,85 +6962,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6139075</v>
+        <v>6139074</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2">
-        <v>45200.35416666666</v>
+        <v>45200.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J76">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="K76">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="M76">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O76">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="P76">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q76">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W76">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7048,85 +7048,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139076</v>
+        <v>6139075</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2">
-        <v>45200.45833333334</v>
+        <v>45200.35416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J77">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="K77">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="M77">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N77">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O77">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="P77">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q77">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T77">
+        <v>1.8</v>
+      </c>
+      <c r="U77">
         <v>2</v>
       </c>
-      <c r="U77">
-        <v>1.8</v>
-      </c>
       <c r="V77">
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X77">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7134,55 +7134,55 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6354607</v>
+        <v>6354608</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45206.35416666666</v>
+        <v>45206.27083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J78">
+        <v>1.666</v>
+      </c>
+      <c r="K78">
+        <v>3.75</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>1.363</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>6.5</v>
       </c>
-      <c r="K78">
-        <v>5.5</v>
-      </c>
-      <c r="L78">
-        <v>1.285</v>
-      </c>
-      <c r="M78">
-        <v>6.5</v>
-      </c>
-      <c r="N78">
-        <v>5.5</v>
-      </c>
-      <c r="O78">
-        <v>1.285</v>
-      </c>
       <c r="P78">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q78">
+        <v>1.75</v>
+      </c>
+      <c r="R78">
         <v>1.95</v>
-      </c>
-      <c r="R78">
-        <v>1.85</v>
       </c>
       <c r="S78">
         <v>3</v>
@@ -7197,22 +7197,22 @@
         <v>-1</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X78">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
         <v>0.95</v>
       </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
       <c r="AA78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7220,55 +7220,55 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6354608</v>
+        <v>6354607</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45206.27083333334</v>
+        <v>45206.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J79">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="M79">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O79">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="P79">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q79">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
         <v>3</v>
@@ -7283,22 +7283,22 @@
         <v>-1</v>
       </c>
       <c r="W79">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB79">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7306,67 +7306,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7287901</v>
+        <v>6368429</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2">
-        <v>45206.5625</v>
+        <v>45206.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J80">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="K80">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="L80">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="N80">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="O80">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="P80">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R80">
+        <v>1.875</v>
+      </c>
+      <c r="S80">
+        <v>2.5</v>
+      </c>
+      <c r="T80">
         <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>3</v>
-      </c>
-      <c r="T80">
-        <v>1.75</v>
       </c>
       <c r="U80">
         <v>1.95</v>
       </c>
       <c r="V80">
-        <v>0.181</v>
+        <v>1.15</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7375,16 +7375,16 @@
         <v>-1</v>
       </c>
       <c r="Y80">
+        <v>0.925</v>
+      </c>
+      <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>0.95</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7392,67 +7392,67 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6368429</v>
+        <v>7287901</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2">
-        <v>45206.45833333334</v>
+        <v>45206.5625</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="K81">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="N81">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="O81">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="P81">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T81">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
         <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.15</v>
+        <v>0.181</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7461,16 +7461,16 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>1.166</v>
@@ -7573,7 +7573,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
         <v>33</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7662,7 +7662,7 @@
         <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>3.5</v>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7834,7 +7834,7 @@
         <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>1.5</v>
@@ -7920,7 +7920,7 @@
         <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7929,7 +7929,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>11</v>
@@ -7994,7 +7994,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6376947</v>
+        <v>6376945</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8003,40 +8003,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J88">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="K88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="N88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O88">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
         <v>1.875</v>
@@ -8045,22 +8045,22 @@
         <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X88">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8069,10 +8069,10 @@
         <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8080,7 +8080,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6376945</v>
+        <v>6376947</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8089,40 +8089,40 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J89">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M89">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="N89">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>1.875</v>
@@ -8131,22 +8131,22 @@
         <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8155,10 +8155,10 @@
         <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8166,67 +8166,67 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7380346</v>
+        <v>6416365</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2">
-        <v>45227.45833333334</v>
+        <v>45227.27083333334</v>
       </c>
       <c r="E90" t="s">
         <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J90">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="K90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L90">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M90">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="P90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8235,16 +8235,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8261,7 +8261,7 @@
         <v>45227.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
         <v>37</v>
@@ -8273,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8338,67 +8338,67 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6416365</v>
+        <v>7380346</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2">
-        <v>45227.27083333334</v>
+        <v>45227.45833333334</v>
       </c>
       <c r="E92" t="s">
         <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J92">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="K92">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L92">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="M92">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O92">
+        <v>1.8</v>
+      </c>
+      <c r="P92">
+        <v>0.5</v>
+      </c>
+      <c r="Q92">
+        <v>1.95</v>
+      </c>
+      <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
         <v>2.5</v>
       </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>1.875</v>
-      </c>
-      <c r="R92">
-        <v>1.925</v>
-      </c>
-      <c r="S92">
-        <v>2.75</v>
-      </c>
       <c r="T92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8407,16 +8407,16 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8424,85 +8424,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6419652</v>
+        <v>6418047</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>45230.61458333334</v>
+        <v>45230.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J93">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="K93">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L93">
+        <v>1.727</v>
+      </c>
+      <c r="M93">
+        <v>2.875</v>
+      </c>
+      <c r="N93">
+        <v>3.3</v>
+      </c>
+      <c r="O93">
+        <v>2.15</v>
+      </c>
+      <c r="P93">
+        <v>0.25</v>
+      </c>
+      <c r="Q93">
+        <v>1.85</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>2.5</v>
       </c>
-      <c r="M93">
-        <v>2.375</v>
-      </c>
-      <c r="N93">
-        <v>3.6</v>
-      </c>
-      <c r="O93">
-        <v>2.4</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
+      <c r="T93">
         <v>1.875</v>
       </c>
-      <c r="R93">
+      <c r="U93">
         <v>1.925</v>
       </c>
-      <c r="S93">
-        <v>2.75</v>
-      </c>
-      <c r="T93">
-        <v>1.925</v>
-      </c>
-      <c r="U93">
-        <v>1.875</v>
-      </c>
       <c r="V93">
         <v>-1</v>
       </c>
       <c r="W93">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
         <v>0.925</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8510,85 +8510,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6418047</v>
+        <v>6419652</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2">
-        <v>45230.54166666666</v>
+        <v>45230.61458333334</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J94">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="K94">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L94">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M94">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N94">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O94">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="P94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T94">
+        <v>1.925</v>
+      </c>
+      <c r="U94">
         <v>1.875</v>
       </c>
-      <c r="U94">
-        <v>1.925</v>
-      </c>
       <c r="V94">
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X94">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z94">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8694,7 +8694,7 @@
         <v>31</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8780,7 +8780,7 @@
         <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>12</v>
@@ -8863,7 +8863,7 @@
         <v>45234.3125</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
         <v>36</v>
@@ -8961,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9026,70 +9026,70 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6528945</v>
+        <v>6533011</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2">
-        <v>45235.3125</v>
+        <v>45235.5</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J100">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L100">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="M100">
+        <v>2.3</v>
+      </c>
+      <c r="N100">
         <v>3.4</v>
       </c>
-      <c r="N100">
-        <v>3.75</v>
-      </c>
       <c r="O100">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="P100">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q100">
         <v>1.975</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W100">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9104,7 +9104,7 @@
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9124,7 +9124,7 @@
         <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9133,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J101">
         <v>2.5</v>
@@ -9198,70 +9198,70 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6533011</v>
+        <v>6528945</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2">
-        <v>45235.5</v>
+        <v>45235.3125</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J102">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>1.615</v>
+      </c>
+      <c r="M102">
         <v>3.4</v>
       </c>
-      <c r="L102">
-        <v>2.625</v>
-      </c>
-      <c r="M102">
-        <v>2.3</v>
-      </c>
       <c r="N102">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O102">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="P102">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q102">
         <v>1.975</v>
       </c>
       <c r="R102">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T102">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9276,7 +9276,7 @@
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9370,7 +9370,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537957</v>
+        <v>6537869</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9382,73 +9382,73 @@
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J104">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K104">
         <v>4</v>
       </c>
       <c r="L104">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="N104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P104">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S104">
         <v>2.75</v>
       </c>
       <c r="T104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9542,7 +9542,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6537869</v>
+        <v>6533597</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9551,58 +9551,58 @@
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J106">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M106">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O106">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="P106">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
         <v>2.75</v>
       </c>
       <c r="T106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9611,16 +9611,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9628,7 +9628,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6533597</v>
+        <v>6537957</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9637,76 +9637,76 @@
         <v>45241.375</v>
       </c>
       <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" t="s">
         <v>28</v>
       </c>
-      <c r="F107" t="s">
-        <v>33</v>
-      </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J107">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L107">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="M107">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="N107">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O107">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q107">
+        <v>1.85</v>
+      </c>
+      <c r="R107">
         <v>1.95</v>
-      </c>
-      <c r="R107">
-        <v>1.85</v>
       </c>
       <c r="S107">
         <v>2.75</v>
       </c>
       <c r="T107">
+        <v>1.85</v>
+      </c>
+      <c r="U107">
         <v>1.95</v>
       </c>
-      <c r="U107">
-        <v>1.85</v>
-      </c>
       <c r="V107">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
         <v>0.95</v>
       </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9809,7 +9809,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
         <v>38</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J109">
         <v>1.285</v>
@@ -9895,10 +9895,10 @@
         <v>45353.3125</v>
       </c>
       <c r="E110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" t="s">
         <v>28</v>
-      </c>
-      <c r="F110" t="s">
-        <v>29</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9907,7 +9907,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.285</v>
@@ -10067,7 +10067,7 @@
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
         <v>31</v>
@@ -10165,7 +10165,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10230,7 +10230,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7919323</v>
+        <v>7919322</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10242,73 +10242,73 @@
         <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I114" t="s">
         <v>41</v>
       </c>
       <c r="J114">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="K114">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L114">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="M114">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="N114">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="P114">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Q114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Y114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10316,58 +10316,58 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919322</v>
+        <v>7919321</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2">
-        <v>45360.39583333334</v>
+        <v>45360.3125</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>40</v>
       </c>
       <c r="J115">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="K115">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L115">
-        <v>1.166</v>
+        <v>2.4</v>
       </c>
       <c r="M115">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="N115">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="O115">
-        <v>1.125</v>
+        <v>2.8</v>
       </c>
       <c r="P115">
+        <v>-0.25</v>
+      </c>
+      <c r="Q115">
+        <v>1.9</v>
+      </c>
+      <c r="R115">
+        <v>1.9</v>
+      </c>
+      <c r="S115">
         <v>2.5</v>
-      </c>
-      <c r="Q115">
-        <v>1.825</v>
-      </c>
-      <c r="R115">
-        <v>1.975</v>
-      </c>
-      <c r="S115">
-        <v>3.25</v>
       </c>
       <c r="T115">
         <v>1.9</v>
@@ -10376,25 +10376,25 @@
         <v>1.9</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10402,67 +10402,67 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919321</v>
+        <v>7919323</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2">
-        <v>45360.3125</v>
+        <v>45360.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J116">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="K116">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L116">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="M116">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N116">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10471,16 +10471,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10488,82 +10488,82 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7721006</v>
+        <v>7719642</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2">
-        <v>45361.3125</v>
+        <v>45361.39583333334</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J117">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="K117">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M117">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="O117">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P117">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="Q117">
+        <v>1.975</v>
+      </c>
+      <c r="R117">
         <v>1.825</v>
       </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
       <c r="S117">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10574,82 +10574,82 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7719642</v>
+        <v>7721006</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2">
-        <v>45361.39583333334</v>
+        <v>45361.3125</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J118">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M118">
-        <v>1.444</v>
+        <v>1.181</v>
       </c>
       <c r="N118">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O118">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P118">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="Q118">
+        <v>1.825</v>
+      </c>
+      <c r="R118">
         <v>1.975</v>
       </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
       <c r="S118">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W118">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -10660,58 +10660,58 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7719643</v>
+        <v>7721007</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2">
-        <v>45367.3125</v>
+        <v>45367.39583333334</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J119">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="K119">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L119">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="M119">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N119">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="O119">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T119">
         <v>1.825</v>
@@ -10726,19 +10726,19 @@
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="Y119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10746,7 +10746,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7721007</v>
+        <v>7721087</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10755,73 +10755,73 @@
         <v>45367.39583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
         <v>40</v>
       </c>
       <c r="J120">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K120">
         <v>3.3</v>
       </c>
       <c r="L120">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M120">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N120">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
         <v>2.5</v>
       </c>
       <c r="T120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -10832,85 +10832,85 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7721087</v>
+        <v>7719643</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2">
-        <v>45367.39583333334</v>
+        <v>45367.3125</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>2</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
       </c>
       <c r="I121" t="s">
         <v>41</v>
       </c>
       <c r="J121">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="K121">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L121">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="M121">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="N121">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="P121">
+        <v>1.75</v>
+      </c>
+      <c r="Q121">
+        <v>1.975</v>
+      </c>
+      <c r="R121">
+        <v>1.825</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>1.825</v>
+      </c>
+      <c r="U121">
+        <v>1.975</v>
+      </c>
+      <c r="V121">
+        <v>-1</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>0.2</v>
+      </c>
+      <c r="Y121">
         <v>-0.5</v>
       </c>
-      <c r="Q121">
-        <v>1.9</v>
-      </c>
-      <c r="R121">
-        <v>1.9</v>
-      </c>
-      <c r="S121">
-        <v>2.5</v>
-      </c>
-      <c r="T121">
-        <v>1.95</v>
-      </c>
-      <c r="U121">
-        <v>1.85</v>
-      </c>
-      <c r="V121">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W121">
-        <v>-1</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10930,7 +10930,7 @@
         <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10939,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>1.5</v>
@@ -11016,7 +11016,7 @@
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11099,10 +11099,10 @@
         <v>45380.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11176,85 +11176,85 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7721009</v>
+        <v>7719646</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45381.39583333334</v>
+        <v>45381.3125</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
         <v>2</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
       </c>
       <c r="I125" t="s">
         <v>41</v>
       </c>
       <c r="J125">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="K125">
         <v>3.3</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="P125">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q125">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
         <v>2.75</v>
       </c>
       <c r="T125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y125">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11262,85 +11262,85 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7719646</v>
+        <v>7721009</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45381.3125</v>
+        <v>45381.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>40</v>
       </c>
       <c r="J126">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="K126">
         <v>3.3</v>
       </c>
       <c r="L126">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N126">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O126">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q126">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
         <v>2.75</v>
       </c>
       <c r="T126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11360,7 +11360,7 @@
         <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J129">
         <v>3.8</v>
@@ -11606,67 +11606,67 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7721013</v>
+        <v>7721012</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>45388.45833333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J130">
-        <v>1.181</v>
+        <v>1.3</v>
       </c>
       <c r="K130">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="L130">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="M130">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="N130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O130">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="P130">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="Q130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T130">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -11675,13 +11675,13 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z130">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -11692,67 +11692,67 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7721012</v>
+        <v>7721013</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2">
-        <v>45388.35416666666</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G131">
+        <v>4</v>
+      </c>
+      <c r="H131">
         <v>3</v>
       </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J131">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="K131">
+        <v>6</v>
+      </c>
+      <c r="L131">
+        <v>13</v>
+      </c>
+      <c r="M131">
+        <v>1.4</v>
+      </c>
+      <c r="N131">
+        <v>6</v>
+      </c>
+      <c r="O131">
         <v>5.25</v>
       </c>
-      <c r="L131">
-        <v>7.5</v>
-      </c>
-      <c r="M131">
-        <v>1.2</v>
-      </c>
-      <c r="N131">
-        <v>7</v>
-      </c>
-      <c r="O131">
-        <v>7.5</v>
-      </c>
       <c r="P131">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="Q131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -11761,13 +11761,13 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
         <v>-1</v>
@@ -11787,7 +11787,7 @@
         <v>45388.27083333334</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F132" t="s">
         <v>35</v>
@@ -11799,7 +11799,7 @@
         <v>5</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>3.9</v>
@@ -11873,7 +11873,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
         <v>33</v>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11950,85 +11950,85 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7721014</v>
+        <v>7721015</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2">
-        <v>45395.27083333334</v>
+        <v>45395.54166666666</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>40</v>
       </c>
       <c r="J134">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L134">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="M134">
-        <v>1.6</v>
+        <v>1.062</v>
       </c>
       <c r="N134">
+        <v>11</v>
+      </c>
+      <c r="O134">
+        <v>26</v>
+      </c>
+      <c r="P134">
+        <v>-3.25</v>
+      </c>
+      <c r="Q134">
+        <v>1.95</v>
+      </c>
+      <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
         <v>4</v>
       </c>
-      <c r="O134">
-        <v>4.333</v>
-      </c>
-      <c r="P134">
-        <v>-1</v>
-      </c>
-      <c r="Q134">
-        <v>2.025</v>
-      </c>
-      <c r="R134">
-        <v>1.775</v>
-      </c>
-      <c r="S134">
-        <v>2.75</v>
-      </c>
       <c r="T134">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12048,7 +12048,7 @@
         <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12122,85 +12122,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7721015</v>
+        <v>7721014</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2">
-        <v>45395.54166666666</v>
+        <v>45395.27083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
         <v>2</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
       </c>
       <c r="I136" t="s">
         <v>41</v>
       </c>
       <c r="J136">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="K136">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L136">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="M136">
-        <v>1.062</v>
+        <v>1.6</v>
       </c>
       <c r="N136">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O136">
-        <v>26</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
-        <v>-3.25</v>
+        <v>-1</v>
       </c>
       <c r="Q136">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12208,85 +12208,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7719650</v>
+        <v>7721016</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2">
-        <v>45396.45833333334</v>
+        <v>45396.35416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137" t="s">
         <v>41</v>
       </c>
       <c r="J137">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="K137">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L137">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="M137">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="N137">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O137">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
         <v>2.75</v>
       </c>
       <c r="T137">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12294,85 +12294,85 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7721016</v>
+        <v>7719650</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2">
-        <v>45396.35416666666</v>
+        <v>45396.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
         <v>1</v>
-      </c>
-      <c r="H138">
-        <v>3</v>
       </c>
       <c r="I138" t="s">
         <v>40</v>
       </c>
       <c r="J138">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="K138">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L138">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="M138">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="N138">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O138">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="P138">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
         <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12389,7 +12389,7 @@
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
         <v>35</v>
@@ -12401,7 +12401,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>7</v>
@@ -12475,7 +12475,7 @@
         <v>45399.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
         <v>37</v>
@@ -12487,7 +12487,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>2.3</v>
@@ -12552,85 +12552,85 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7723749</v>
+        <v>7721017</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2">
-        <v>45402.27083333334</v>
+        <v>45402.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J141">
-        <v>3.8</v>
+        <v>1.166</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L141">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="M141">
-        <v>2.75</v>
+        <v>1.1</v>
       </c>
       <c r="N141">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="O141">
-        <v>2.25</v>
+        <v>19</v>
       </c>
       <c r="P141">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T141">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
         <v>-1</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="X141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12659,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12724,85 +12724,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7721017</v>
+        <v>7723749</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
       </c>
       <c r="D143" s="2">
-        <v>45402.45833333334</v>
+        <v>45402.27083333334</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>41</v>
+      </c>
+      <c r="J143">
+        <v>3.8</v>
+      </c>
+      <c r="K143">
+        <v>3.75</v>
+      </c>
+      <c r="L143">
+        <v>1.7</v>
+      </c>
+      <c r="M143">
+        <v>2.75</v>
+      </c>
+      <c r="N143">
+        <v>3.4</v>
+      </c>
+      <c r="O143">
+        <v>2.25</v>
+      </c>
+      <c r="P143">
+        <v>0.25</v>
+      </c>
+      <c r="Q143">
+        <v>1.8</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>2.75</v>
+      </c>
+      <c r="T143">
+        <v>1.95</v>
+      </c>
+      <c r="U143">
+        <v>1.85</v>
+      </c>
+      <c r="V143">
+        <v>-1</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>1.25</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
         <v>1</v>
       </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="I143" t="s">
-        <v>42</v>
-      </c>
-      <c r="J143">
-        <v>1.166</v>
-      </c>
-      <c r="K143">
-        <v>7</v>
-      </c>
-      <c r="L143">
-        <v>11</v>
-      </c>
-      <c r="M143">
-        <v>1.1</v>
-      </c>
-      <c r="N143">
-        <v>8.5</v>
-      </c>
-      <c r="O143">
-        <v>19</v>
-      </c>
-      <c r="P143">
-        <v>-2.5</v>
-      </c>
-      <c r="Q143">
-        <v>1.825</v>
-      </c>
-      <c r="R143">
-        <v>1.975</v>
-      </c>
-      <c r="S143">
-        <v>3.25</v>
-      </c>
-      <c r="T143">
-        <v>1.775</v>
-      </c>
-      <c r="U143">
-        <v>1.925</v>
-      </c>
-      <c r="V143">
-        <v>-1</v>
-      </c>
-      <c r="W143">
-        <v>7.5</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12819,7 +12819,7 @@
         <v>45403.35416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
         <v>34</v>
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12905,10 +12905,10 @@
         <v>45403.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13068,85 +13068,85 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7721020</v>
+        <v>7719652</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2">
-        <v>45409.45833333334</v>
+        <v>45409.35416666666</v>
       </c>
       <c r="E147" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147" t="s">
         <v>28</v>
       </c>
-      <c r="F147" t="s">
-        <v>30</v>
-      </c>
       <c r="G147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J147">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K147">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N147">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O147">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="P147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U147">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
         <v>-1</v>
       </c>
       <c r="W147">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13154,85 +13154,257 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7719652</v>
+        <v>7721020</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>45409.35416666666</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="E148" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" t="s">
         <v>32</v>
       </c>
-      <c r="F148" t="s">
-        <v>29</v>
-      </c>
       <c r="G148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148">
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J148">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="K148">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L148">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="M148">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N148">
+        <v>3.8</v>
+      </c>
+      <c r="O148">
+        <v>1.666</v>
+      </c>
+      <c r="P148">
+        <v>0.75</v>
+      </c>
+      <c r="Q148">
+        <v>1.9</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>3</v>
+      </c>
+      <c r="T148">
+        <v>1.95</v>
+      </c>
+      <c r="U148">
+        <v>1.75</v>
+      </c>
+      <c r="V148">
+        <v>-1</v>
+      </c>
+      <c r="W148">
+        <v>2.8</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.95</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7721021</v>
+      </c>
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45410.35416666666</v>
+      </c>
+      <c r="E149" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149" t="s">
+        <v>41</v>
+      </c>
+      <c r="J149">
+        <v>7</v>
+      </c>
+      <c r="K149">
+        <v>6</v>
+      </c>
+      <c r="L149">
+        <v>1.25</v>
+      </c>
+      <c r="M149">
+        <v>10</v>
+      </c>
+      <c r="N149">
+        <v>6</v>
+      </c>
+      <c r="O149">
+        <v>1.2</v>
+      </c>
+      <c r="P149">
+        <v>1.75</v>
+      </c>
+      <c r="Q149">
+        <v>1.85</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>3</v>
+      </c>
+      <c r="T149">
+        <v>1.975</v>
+      </c>
+      <c r="U149">
+        <v>1.825</v>
+      </c>
+      <c r="V149">
+        <v>-1</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>0.2</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.95</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7721022</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45410.45833333334</v>
+      </c>
+      <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>42</v>
+      </c>
+      <c r="J150">
+        <v>5</v>
+      </c>
+      <c r="K150">
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <v>1.5</v>
+      </c>
+      <c r="M150">
+        <v>8.5</v>
+      </c>
+      <c r="N150">
         <v>4.5</v>
       </c>
-      <c r="O148">
-        <v>1.533</v>
-      </c>
-      <c r="P148">
+      <c r="O150">
+        <v>1.285</v>
+      </c>
+      <c r="P150">
+        <v>1.5</v>
+      </c>
+      <c r="Q150">
+        <v>1.975</v>
+      </c>
+      <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>2.75</v>
+      </c>
+      <c r="T150">
+        <v>1.8</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
+        <v>-1</v>
+      </c>
+      <c r="W150">
+        <v>3.5</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
         <v>1</v>
-      </c>
-      <c r="Q148">
-        <v>1.85</v>
-      </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>2.75</v>
-      </c>
-      <c r="T148">
-        <v>1.825</v>
-      </c>
-      <c r="U148">
-        <v>1.975</v>
-      </c>
-      <c r="V148">
-        <v>-1</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.95</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,22 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>8162954</t>
+  </si>
+  <si>
+    <t>7721055</t>
+  </si>
+  <si>
     <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
+    <t>FC Kuressaare</t>
   </si>
   <si>
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>FC Kuressaare</t>
+    <t>FC Flora Tallinn</t>
   </si>
   <si>
     <t>JK Tallinna Kalev</t>
@@ -112,19 +121,16 @@
     <t>JK Tammeka Tartu</t>
   </si>
   <si>
-    <t>FC Flora Tallinn</t>
-  </si>
-  <si>
     <t>Parnu JK Vaprus</t>
   </si>
   <si>
     <t>JK Trans Narva</t>
   </si>
   <si>
-    <t>FC Levadia Tallinn</t>
+    <t>Harju JK Laagri</t>
   </si>
   <si>
-    <t>Harju JK Laagri</t>
+    <t>FC Levadia Tallinn</t>
   </si>
   <si>
     <t>Paide Linnameeskond</t>
@@ -136,10 +142,10 @@
     <t>Viimsi JK</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -504,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,85 +604,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6138122</v>
+        <v>6139016</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
-        <v>45083.58333333334</v>
+        <v>45083.5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="M2">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="N2">
         <v>3.6</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="P2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q2">
+        <v>1.8</v>
+      </c>
+      <c r="R2">
         <v>2</v>
-      </c>
-      <c r="R2">
-        <v>1.8</v>
       </c>
       <c r="S2">
         <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -684,85 +690,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6139016</v>
+        <v>6138122</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
-        <v>45083.5</v>
+        <v>45083.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="K3">
+        <v>3.25</v>
+      </c>
+      <c r="L3">
         <v>4</v>
       </c>
-      <c r="L3">
-        <v>1.444</v>
-      </c>
       <c r="M3">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="N3">
         <v>3.6</v>
       </c>
       <c r="O3">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
         <v>1.8</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
       </c>
       <c r="S3">
         <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -770,85 +776,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139018</v>
+        <v>6139019</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
-        <v>45084.5</v>
+        <v>45084.54166666666</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O4">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="P4">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q4">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
+        <v>1.875</v>
+      </c>
+      <c r="U4">
         <v>1.925</v>
       </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X4">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -856,85 +862,85 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6139017</v>
+        <v>6139018</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45084.5</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -942,85 +948,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6139019</v>
+        <v>6139017</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
-        <v>45084.54166666666</v>
+        <v>45084.5</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="K6">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L6">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="N6">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1031,16 +1037,16 @@
         <v>6138123</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45087.5625</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1049,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1117,13 +1123,13 @@
         <v>6139021</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1135,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -1203,16 +1209,16 @@
         <v>6139023</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45088.54166666666</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1286,55 +1292,55 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6139020</v>
+        <v>6139022</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
-        <v>45088.45833333334</v>
+        <v>45088.35416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="K10">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L10">
+        <v>1.533</v>
+      </c>
+      <c r="M10">
         <v>6.5</v>
       </c>
-      <c r="M10">
-        <v>1.3</v>
-      </c>
       <c r="N10">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="P10">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
         <v>2.75</v>
@@ -1346,25 +1352,25 @@
         <v>2</v>
       </c>
       <c r="V10">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1372,55 +1378,55 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6139022</v>
+        <v>6139020</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
-        <v>45088.35416666666</v>
+        <v>45088.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J11">
+        <v>1.363</v>
+      </c>
+      <c r="K11">
+        <v>4.333</v>
+      </c>
+      <c r="L11">
+        <v>6.5</v>
+      </c>
+      <c r="M11">
+        <v>1.3</v>
+      </c>
+      <c r="N11">
         <v>4.75</v>
       </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>1.533</v>
-      </c>
-      <c r="M11">
-        <v>6.5</v>
-      </c>
-      <c r="N11">
-        <v>4.2</v>
-      </c>
       <c r="O11">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="P11">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
         <v>2.75</v>
@@ -1432,25 +1438,25 @@
         <v>2</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA11">
+        <v>0.4</v>
+      </c>
+      <c r="AB11">
         <v>-0.5</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1458,85 +1464,85 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6139024</v>
+        <v>6138124</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
-        <v>45104.5</v>
+        <v>45104.58333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12">
+        <v>3.4</v>
+      </c>
+      <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3.4</v>
+      </c>
+      <c r="O12">
         <v>3.3</v>
       </c>
-      <c r="L12">
-        <v>3.2</v>
-      </c>
-      <c r="M12">
-        <v>2.625</v>
-      </c>
-      <c r="N12">
-        <v>3.2</v>
-      </c>
-      <c r="O12">
-        <v>2.4</v>
-      </c>
       <c r="P12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
         <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA12">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1547,16 +1553,16 @@
         <v>6139025</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1565,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1630,85 +1636,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6138124</v>
+        <v>6139024</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>45104.58333333334</v>
+        <v>45104.5</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
+        <v>2.625</v>
+      </c>
+      <c r="N14">
+        <v>3.2</v>
+      </c>
+      <c r="O14">
+        <v>2.4</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>3.4</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>-0.5</v>
-      </c>
-      <c r="Q14">
-        <v>1.95</v>
-      </c>
       <c r="R14">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
         <v>2.25</v>
       </c>
       <c r="T14">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
         <v>0.75</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
       <c r="AB14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1716,58 +1722,58 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6139027</v>
+        <v>6139026</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>45105.54166666666</v>
+        <v>45105.5</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J15">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="K15">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L15">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="N15">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O15">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q15">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T15">
         <v>1.875</v>
@@ -1779,16 +1785,16 @@
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1802,58 +1808,58 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6139026</v>
+        <v>6139027</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
-        <v>45105.5</v>
+        <v>45105.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="K16">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P16">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T16">
         <v>1.875</v>
@@ -1865,16 +1871,16 @@
         <v>-1</v>
       </c>
       <c r="W16">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
         <v>-1</v>
@@ -1891,16 +1897,16 @@
         <v>6139028</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45107.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>6.5</v>
@@ -1977,16 +1983,16 @@
         <v>6139029</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45108.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1995,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>4.2</v>
@@ -2063,16 +2069,16 @@
         <v>6139030</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45108.5625</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2081,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2146,85 +2152,85 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6139031</v>
+        <v>6138125</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>45109.54166666666</v>
+        <v>45109.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="M20">
-        <v>1.125</v>
+        <v>1.55</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="O20">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="Q20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2232,85 +2238,85 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6138125</v>
+        <v>6139031</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
-        <v>45109.45833333334</v>
+        <v>45109.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J21">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="K21">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>1.55</v>
+        <v>1.125</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="Q21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2321,13 +2327,13 @@
         <v>6139032</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>32</v>
@@ -2339,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2404,65 +2410,65 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6139033</v>
+        <v>6139034</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
-        <v>45115.45833333334</v>
+        <v>45115.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J23">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K23">
         <v>3.5</v>
       </c>
       <c r="L23">
+        <v>2.2</v>
+      </c>
+      <c r="M23">
+        <v>3.1</v>
+      </c>
+      <c r="N23">
+        <v>3.5</v>
+      </c>
+      <c r="O23">
+        <v>2.05</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>1.725</v>
+      </c>
+      <c r="R23">
+        <v>2.075</v>
+      </c>
+      <c r="S23">
         <v>2.75</v>
       </c>
-      <c r="M23">
-        <v>1.8</v>
-      </c>
-      <c r="N23">
-        <v>3.75</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>-0.5</v>
-      </c>
-      <c r="Q23">
-        <v>1.825</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
-      <c r="S23">
-        <v>2.25</v>
-      </c>
       <c r="T23">
+        <v>1.925</v>
+      </c>
+      <c r="U23">
         <v>1.875</v>
       </c>
-      <c r="U23">
-        <v>1.925</v>
-      </c>
       <c r="V23">
         <v>-1</v>
       </c>
@@ -2470,16 +2476,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2490,65 +2496,65 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6139034</v>
+        <v>6139033</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
-        <v>45115.5625</v>
+        <v>45115.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K24">
         <v>3.5</v>
       </c>
       <c r="L24">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O24">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q24">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="R24">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
+        <v>1.875</v>
+      </c>
+      <c r="U24">
         <v>1.925</v>
       </c>
-      <c r="U24">
-        <v>1.875</v>
-      </c>
       <c r="V24">
         <v>-1</v>
       </c>
@@ -2556,16 +2562,16 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
         <v>-1</v>
@@ -2576,16 +2582,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6139035</v>
+        <v>6138126</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
-        <v>45116.45833333334</v>
+        <v>45116.54166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -2597,37 +2603,37 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="K25">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L25">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="N25">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O25">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q25">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T25">
         <v>1.9</v>
@@ -2636,7 +2642,7 @@
         <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2645,16 +2651,16 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2662,19 +2668,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6138126</v>
+        <v>6139035</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
-        <v>45116.54166666666</v>
+        <v>45116.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2683,37 +2689,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J26">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="M26">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="N26">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="P26">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T26">
         <v>1.9</v>
@@ -2722,7 +2728,7 @@
         <v>1.9</v>
       </c>
       <c r="V26">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2731,16 +2737,16 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2748,85 +2754,85 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6139037</v>
+        <v>6140397</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
-        <v>45129.45833333334</v>
+        <v>45129.5625</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L27">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M27">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W27">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2834,85 +2840,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6140397</v>
+        <v>6139037</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
-        <v>45129.5625</v>
+        <v>45129.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J28">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="K28">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M28">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2923,7 +2929,7 @@
         <v>6813618</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45130.58333333334</v>
@@ -2932,7 +2938,7 @@
         <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2941,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>1.181</v>
@@ -3009,16 +3015,16 @@
         <v>6139039</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45130.5</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3027,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>6.5</v>
@@ -3095,16 +3101,16 @@
         <v>6139038</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3113,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>2.5</v>
@@ -3181,7 +3187,7 @@
         <v>6964794</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45135.54166666666</v>
@@ -3190,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3199,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>1.125</v>
@@ -3267,16 +3273,16 @@
         <v>6825464</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45138.57291666666</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3285,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>1.85</v>
@@ -3353,7 +3359,7 @@
         <v>6139040</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45142.54166666666</v>
@@ -3362,7 +3368,7 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3371,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>1.142</v>
@@ -3436,85 +3442,85 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6139041</v>
+        <v>6138127</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
-        <v>45143.5625</v>
+        <v>45143.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>4.2</v>
+      </c>
+      <c r="M35">
+        <v>1.7</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
         <v>3.75</v>
       </c>
-      <c r="L35">
-        <v>3.4</v>
-      </c>
-      <c r="M35">
-        <v>2.1</v>
-      </c>
-      <c r="N35">
-        <v>3.5</v>
-      </c>
-      <c r="O35">
-        <v>2.8</v>
-      </c>
       <c r="P35">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q35">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
         <v>2.5</v>
       </c>
       <c r="T35">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z35">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3522,85 +3528,85 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6138127</v>
+        <v>6139041</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
-        <v>45143.45833333334</v>
+        <v>45143.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J36">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L36">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P36">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
         <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA36">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3611,16 +3617,16 @@
         <v>6139042</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45144.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3629,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -3697,16 +3703,16 @@
         <v>6139043</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3715,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>7.5</v>
@@ -3780,19 +3786,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6139046</v>
+        <v>6139045</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
-        <v>45150.5625</v>
+        <v>45150.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,37 +3807,37 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J39">
-        <v>1.125</v>
+        <v>1.533</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="N39">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="O39">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P39">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T39">
         <v>1.95</v>
@@ -3843,7 +3849,7 @@
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3852,7 +3858,7 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3866,19 +3872,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6139045</v>
+        <v>6139046</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
-        <v>45150.45833333334</v>
+        <v>45150.5625</v>
       </c>
       <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
         <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>30</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3887,37 +3893,37 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J40">
-        <v>1.533</v>
+        <v>1.125</v>
       </c>
       <c r="K40">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="N40">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="O40">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P40">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
         <v>1.95</v>
@@ -3929,7 +3935,7 @@
         <v>-1</v>
       </c>
       <c r="W40">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -3938,7 +3944,7 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -3955,16 +3961,16 @@
         <v>6139047</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45151.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3973,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>2.1</v>
@@ -4041,16 +4047,16 @@
         <v>6138128</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45151.45833333334</v>
       </c>
       <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
         <v>31</v>
-      </c>
-      <c r="F42" t="s">
-        <v>28</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4059,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>2.75</v>
@@ -4127,16 +4133,16 @@
         <v>6139048</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
         <v>36</v>
-      </c>
-      <c r="F43" t="s">
-        <v>34</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4145,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>3.75</v>
@@ -4210,82 +4216,82 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6139050</v>
+        <v>6138129</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
-        <v>45157.45833333334</v>
+        <v>45157.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J44">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L44">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="M44">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O44">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="P44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q44">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
         <v>2.5</v>
       </c>
       <c r="T44">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U44">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
         <v>-1</v>
@@ -4296,82 +4302,82 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6138129</v>
+        <v>6139050</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
-        <v>45157.54166666666</v>
+        <v>45157.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N45">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="P45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
         <v>2.5</v>
       </c>
       <c r="T45">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W45">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4385,16 +4391,16 @@
         <v>6139049</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>8</v>
@@ -4471,13 +4477,13 @@
         <v>6139051</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45158.5</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
         <v>32</v>
@@ -4489,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>10</v>
@@ -4557,7 +4563,7 @@
         <v>6139052</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45163.54166666666</v>
@@ -4566,7 +4572,7 @@
         <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4575,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>1.125</v>
@@ -4640,85 +4646,85 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6139053</v>
+        <v>6139054</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
-        <v>45164.45833333334</v>
+        <v>45164.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
         <v>33</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J49">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L49">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="M49">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
+        <v>9</v>
+      </c>
+      <c r="P49">
+        <v>-1.75</v>
+      </c>
+      <c r="Q49">
+        <v>1.975</v>
+      </c>
+      <c r="R49">
+        <v>1.825</v>
+      </c>
+      <c r="S49">
         <v>3</v>
       </c>
-      <c r="P49">
-        <v>-0.25</v>
-      </c>
-      <c r="Q49">
-        <v>1.825</v>
-      </c>
-      <c r="R49">
-        <v>1.975</v>
-      </c>
-      <c r="S49">
-        <v>2.5</v>
-      </c>
       <c r="T49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
         <v>-1</v>
       </c>
       <c r="W49">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4726,85 +4732,85 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6139054</v>
+        <v>6139053</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
-        <v>45164.54166666666</v>
+        <v>45164.45833333334</v>
       </c>
       <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" t="s">
-        <v>30</v>
-      </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J50">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="K50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="M50">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q50">
+        <v>1.825</v>
+      </c>
+      <c r="R50">
         <v>1.975</v>
       </c>
-      <c r="R50">
+      <c r="S50">
+        <v>2.5</v>
+      </c>
+      <c r="T50">
+        <v>1.975</v>
+      </c>
+      <c r="U50">
         <v>1.825</v>
       </c>
-      <c r="S50">
-        <v>3</v>
-      </c>
-      <c r="T50">
-        <v>1.925</v>
-      </c>
-      <c r="U50">
-        <v>1.875</v>
-      </c>
       <c r="V50">
         <v>-1</v>
       </c>
       <c r="W50">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z50">
+        <v>0.4875</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.825</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4812,85 +4818,85 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6138130</v>
+        <v>6139055</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
-        <v>45165.52083333334</v>
+        <v>45165.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51">
+        <v>2.7</v>
+      </c>
+      <c r="K51">
+        <v>3.3</v>
+      </c>
+      <c r="L51">
+        <v>2.25</v>
+      </c>
+      <c r="M51">
+        <v>3.6</v>
+      </c>
+      <c r="N51">
+        <v>3.4</v>
+      </c>
+      <c r="O51">
+        <v>1.909</v>
+      </c>
+      <c r="P51">
+        <v>0.5</v>
+      </c>
+      <c r="Q51">
+        <v>1.875</v>
+      </c>
+      <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
+        <v>2.25</v>
+      </c>
+      <c r="T51">
+        <v>1.8</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>-1</v>
+      </c>
+      <c r="W51">
+        <v>2.4</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
+        <v>0.875</v>
+      </c>
+      <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51">
-        <v>1.727</v>
-      </c>
-      <c r="K51">
-        <v>3.5</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
-      <c r="M51">
-        <v>1.666</v>
-      </c>
-      <c r="N51">
-        <v>3.5</v>
-      </c>
-      <c r="O51">
-        <v>4.2</v>
-      </c>
-      <c r="P51">
-        <v>-0.75</v>
-      </c>
-      <c r="Q51">
-        <v>1.925</v>
-      </c>
-      <c r="R51">
-        <v>1.875</v>
-      </c>
-      <c r="S51">
-        <v>2.5</v>
-      </c>
-      <c r="T51">
-        <v>1.85</v>
-      </c>
-      <c r="U51">
-        <v>1.95</v>
-      </c>
-      <c r="V51">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>0.925</v>
-      </c>
-      <c r="Z51">
-        <v>-1</v>
-      </c>
-      <c r="AA51">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4898,85 +4904,85 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6139055</v>
+        <v>6138130</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
-        <v>45165.45833333334</v>
+        <v>45165.52083333334</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="K52">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L52">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="N52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O52">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="P52">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q52">
+        <v>1.925</v>
+      </c>
+      <c r="R52">
         <v>1.875</v>
       </c>
-      <c r="R52">
-        <v>1.925</v>
-      </c>
       <c r="S52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T52">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -4987,16 +4993,16 @@
         <v>6139056</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45170.5</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5005,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>2.375</v>
@@ -5070,85 +5076,85 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6139058</v>
+        <v>6139057</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
-        <v>45171.35416666666</v>
+        <v>45171.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54">
+        <v>1.833</v>
+      </c>
+      <c r="K54">
+        <v>3.5</v>
+      </c>
+      <c r="L54">
         <v>4</v>
       </c>
-      <c r="I54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54">
-        <v>3.1</v>
-      </c>
-      <c r="K54">
-        <v>3.8</v>
-      </c>
-      <c r="L54">
-        <v>1.95</v>
-      </c>
       <c r="M54">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N54">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V54">
         <v>-1</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5156,85 +5162,85 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6139057</v>
+        <v>6139058</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
-        <v>45171.45833333334</v>
+        <v>45171.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I55" t="s">
         <v>42</v>
       </c>
       <c r="J55">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="K55">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="M55">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O55">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="P55">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
         <v>-1</v>
       </c>
       <c r="W55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5245,7 +5251,7 @@
         <v>6139059</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45172.45833333334</v>
@@ -5254,7 +5260,7 @@
         <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5263,7 +5269,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5331,16 +5337,16 @@
         <v>6138131</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5349,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>2.375</v>
@@ -5417,16 +5423,16 @@
         <v>6139060</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5435,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>2.75</v>
@@ -5503,16 +5509,16 @@
         <v>6139061</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5521,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>1.727</v>
@@ -5589,16 +5595,16 @@
         <v>6139062</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45185.5625</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5607,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J60">
         <v>1.727</v>
@@ -5675,13 +5681,13 @@
         <v>6138132</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
         <v>32</v>
@@ -5693,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>5.25</v>
@@ -5761,16 +5767,16 @@
         <v>6139063</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5779,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5847,7 +5853,7 @@
         <v>6139068</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45191.57291666666</v>
@@ -5856,7 +5862,7 @@
         <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5930,67 +5936,67 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6139065</v>
+        <v>6139067</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
-        <v>45192.5625</v>
+        <v>45192.35416666666</v>
       </c>
       <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s">
         <v>35</v>
       </c>
-      <c r="F64" t="s">
-        <v>29</v>
-      </c>
       <c r="G64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J64">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K64">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L64">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O64">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="P64">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="Q64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R64">
         <v>1.95</v>
       </c>
       <c r="S64">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T64">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>0.2849999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -5999,13 +6005,13 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6016,82 +6022,82 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6138133</v>
+        <v>6139064</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
-        <v>45192.45833333334</v>
+        <v>45192.35416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>1.75</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
+        <v>3.8</v>
+      </c>
+      <c r="M65">
+        <v>1.45</v>
+      </c>
+      <c r="N65">
         <v>4</v>
       </c>
-      <c r="M65">
-        <v>1.533</v>
-      </c>
-      <c r="N65">
-        <v>3.5</v>
-      </c>
       <c r="O65">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P65">
         <v>-1</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
         <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6102,82 +6108,82 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6139064</v>
+        <v>6138133</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
-        <v>45192.35416666666</v>
+        <v>45192.45833333334</v>
       </c>
       <c r="E66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" t="s">
         <v>34</v>
       </c>
-      <c r="F66" t="s">
-        <v>36</v>
-      </c>
       <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
         <v>1</v>
       </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>1.75</v>
       </c>
       <c r="K66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O66">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P66">
         <v>-1</v>
       </c>
       <c r="Q66">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
         <v>2.5</v>
       </c>
       <c r="T66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6188,67 +6194,67 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6139067</v>
+        <v>6139065</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
-        <v>45192.35416666666</v>
+        <v>45192.5625</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J67">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K67">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L67">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="M67">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="N67">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="O67">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="P67">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="Q67">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R67">
         <v>1.95</v>
       </c>
       <c r="S67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>0.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6257,13 +6263,13 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6277,16 +6283,16 @@
         <v>6138134</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45195.46875</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6295,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>5.5</v>
@@ -6363,16 +6369,16 @@
         <v>6139069</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45195.57291666666</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6381,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -6446,49 +6452,49 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6139070</v>
+        <v>6139071</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
-        <v>45196.45833333334</v>
+        <v>45196.54166666666</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
         <v>2</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="K70">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O70">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P70">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q70">
         <v>1.825</v>
@@ -6497,16 +6503,16 @@
         <v>1.975</v>
       </c>
       <c r="S70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T70">
+        <v>1.875</v>
+      </c>
+      <c r="U70">
+        <v>1.925</v>
+      </c>
+      <c r="V70">
         <v>2</v>
-      </c>
-      <c r="U70">
-        <v>1.8</v>
-      </c>
-      <c r="V70">
-        <v>2.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6521,10 +6527,10 @@
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6532,49 +6538,49 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6139071</v>
+        <v>6139070</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
-        <v>45196.54166666666</v>
+        <v>45196.45833333334</v>
       </c>
       <c r="E71" t="s">
         <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J71">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N71">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O71">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P71">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q71">
         <v>1.825</v>
@@ -6583,16 +6589,16 @@
         <v>1.975</v>
       </c>
       <c r="S71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T71">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6607,10 +6613,10 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6621,13 +6627,13 @@
         <v>6139072</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45196.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
         <v>32</v>
@@ -6639,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>9</v>
@@ -6704,85 +6710,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7262749</v>
+        <v>6139073</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
-        <v>45199.35416666666</v>
+        <v>45199.45833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J73">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="K73">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="L73">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="M73">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="P73">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q73">
+        <v>1.95</v>
+      </c>
+      <c r="R73">
         <v>1.75</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
       <c r="S73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y73">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6790,85 +6796,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6139073</v>
+        <v>7262749</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
-        <v>45199.45833333334</v>
+        <v>45199.35416666666</v>
       </c>
       <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s">
         <v>31</v>
-      </c>
-      <c r="F74" t="s">
-        <v>37</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74">
+        <v>9.5</v>
+      </c>
+      <c r="K74">
+        <v>6.5</v>
+      </c>
+      <c r="L74">
+        <v>1.181</v>
+      </c>
+      <c r="M74">
+        <v>9</v>
+      </c>
+      <c r="N74">
+        <v>8</v>
+      </c>
+      <c r="O74">
+        <v>1.166</v>
+      </c>
+      <c r="P74">
+        <v>2.25</v>
+      </c>
+      <c r="Q74">
+        <v>1.75</v>
+      </c>
+      <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>1.8</v>
+      </c>
+      <c r="U74">
         <v>2</v>
       </c>
-      <c r="I74" t="s">
-        <v>41</v>
-      </c>
-      <c r="J74">
-        <v>5</v>
-      </c>
-      <c r="K74">
-        <v>4</v>
-      </c>
-      <c r="L74">
-        <v>1.5</v>
-      </c>
-      <c r="M74">
-        <v>4.5</v>
-      </c>
-      <c r="N74">
-        <v>3.8</v>
-      </c>
-      <c r="O74">
-        <v>1.571</v>
-      </c>
-      <c r="P74">
+      <c r="V74">
+        <v>8</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
         <v>0.75</v>
       </c>
-      <c r="Q74">
-        <v>1.95</v>
-      </c>
-      <c r="R74">
-        <v>1.75</v>
-      </c>
-      <c r="S74">
-        <v>2.75</v>
-      </c>
-      <c r="T74">
-        <v>1.9</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>-1</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>0.571</v>
-      </c>
-      <c r="Y74">
-        <v>-0.5</v>
-      </c>
       <c r="Z74">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6876,85 +6882,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6139076</v>
+        <v>6139075</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
-        <v>45200.45833333334</v>
+        <v>45200.35416666666</v>
       </c>
       <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
         <v>33</v>
       </c>
-      <c r="F75" t="s">
-        <v>32</v>
-      </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J75">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="K75">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="L75">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O75">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q75">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T75">
+        <v>1.8</v>
+      </c>
+      <c r="U75">
         <v>2</v>
       </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
       <c r="V75">
         <v>-1</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X75">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6962,85 +6968,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6139074</v>
+        <v>6139076</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
-        <v>45200.54166666666</v>
+        <v>45200.45833333334</v>
       </c>
       <c r="E76" t="s">
         <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J76">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="K76">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L76">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="M76">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="P76">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y76">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7048,85 +7054,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6139075</v>
+        <v>6139074</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
-        <v>45200.35416666666</v>
+        <v>45200.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J77">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="K77">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L77">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="M77">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="N77">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O77">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="P77">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q77">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W77">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7137,16 +7143,16 @@
         <v>6354608</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45206.27083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7155,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>1.666</v>
@@ -7223,16 +7229,16 @@
         <v>6354607</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45206.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7241,7 +7247,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>6.5</v>
@@ -7309,16 +7315,16 @@
         <v>6368429</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
         <v>34</v>
-      </c>
-      <c r="F80" t="s">
-        <v>31</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7327,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -7395,7 +7401,7 @@
         <v>7287901</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45206.5625</v>
@@ -7404,7 +7410,7 @@
         <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7413,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>1.125</v>
@@ -7481,16 +7487,16 @@
         <v>6350613</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
         <v>37</v>
-      </c>
-      <c r="F82" t="s">
-        <v>36</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7499,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>1.166</v>
@@ -7567,16 +7573,16 @@
         <v>6368431</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45220.27083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7585,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7653,16 +7659,16 @@
         <v>6370778</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7671,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>3.5</v>
@@ -7739,16 +7745,16 @@
         <v>6369469</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7757,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7822,49 +7828,49 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6376944</v>
+        <v>6368432</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
-        <v>45221.35416666666</v>
+        <v>45221.45833333334</v>
       </c>
       <c r="E86" t="s">
         <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J86">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>1.142</v>
       </c>
       <c r="M86">
-        <v>1.285</v>
+        <v>11</v>
       </c>
       <c r="N86">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O86">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="P86">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="Q86">
         <v>1.8</v>
@@ -7873,34 +7879,34 @@
         <v>2</v>
       </c>
       <c r="S86">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7908,49 +7914,49 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6368432</v>
+        <v>6376944</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
-        <v>45221.45833333334</v>
+        <v>45221.35416666666</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J87">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="K87">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>1.142</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>1.285</v>
       </c>
       <c r="N87">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O87">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="P87">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="Q87">
         <v>1.8</v>
@@ -7959,34 +7965,34 @@
         <v>2</v>
       </c>
       <c r="S87">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T87">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
         <v>0.8</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
-      <c r="AA87">
-        <v>0.75</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -7997,16 +8003,16 @@
         <v>6376945</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8015,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8083,16 +8089,16 @@
         <v>6376947</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8107,7 @@
         <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>3.6</v>
@@ -8169,16 +8175,16 @@
         <v>6416365</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45227.27083333334</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8187,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>2.3</v>
@@ -8255,7 +8261,7 @@
         <v>6418048</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45227.35416666666</v>
@@ -8264,7 +8270,7 @@
         <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8273,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8341,16 +8347,16 @@
         <v>7380346</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8359,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8427,16 +8433,16 @@
         <v>6418047</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45230.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8445,7 +8451,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>3.75</v>
@@ -8513,16 +8519,16 @@
         <v>6419652</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45230.61458333334</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8531,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8596,85 +8602,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6416370</v>
+        <v>6482819</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="s">
         <v>42</v>
       </c>
       <c r="J95">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="K95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N95">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O95">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P95">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
         <v>3</v>
       </c>
       <c r="T95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8682,85 +8688,85 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6482819</v>
+        <v>6416370</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45231.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J96">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M96">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N96">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O96">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P96">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
         <v>3</v>
       </c>
       <c r="T96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
         <v>-1</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8771,13 +8777,13 @@
         <v>6513856</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45231.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
         <v>32</v>
@@ -8789,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>12</v>
@@ -8857,16 +8863,16 @@
         <v>6502200</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45234.3125</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8943,16 +8949,16 @@
         <v>6356579</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45234.39583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8961,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9029,16 +9035,16 @@
         <v>6533011</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45235.5</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9047,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9115,13 +9121,13 @@
         <v>6529676</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
         <v>32</v>
@@ -9133,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>2.5</v>
@@ -9201,16 +9207,16 @@
         <v>6528945</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9219,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -9287,16 +9293,16 @@
         <v>7440206</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9305,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9370,10 +9376,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6537869</v>
+        <v>6533597</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45241.375</v>
@@ -9382,55 +9388,55 @@
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J104">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="K104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M104">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="P104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
         <v>2.75</v>
       </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9439,16 +9445,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9459,16 +9465,16 @@
         <v>6535416</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45241.375</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9477,7 +9483,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>3</v>
@@ -9542,67 +9548,67 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6533597</v>
+        <v>6537869</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45241.375</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J106">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K106">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O106">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="P106">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S106">
         <v>2.75</v>
       </c>
       <c r="T106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9611,16 +9617,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9631,7 +9637,7 @@
         <v>6537957</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45241.375</v>
@@ -9640,7 +9646,7 @@
         <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9649,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>1.4</v>
@@ -9717,16 +9723,16 @@
         <v>7551820</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9735,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>1.285</v>
@@ -9803,7 +9809,7 @@
         <v>7891672</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45352.58333333334</v>
@@ -9812,7 +9818,7 @@
         <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9821,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.285</v>
@@ -9889,16 +9895,16 @@
         <v>7891673</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45353.3125</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9907,7 +9913,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -9975,16 +9981,16 @@
         <v>7891674</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45353.39583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>6</v>
@@ -9993,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>1.285</v>
@@ -10061,16 +10067,16 @@
         <v>7891675</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10079,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.571</v>
@@ -10147,16 +10153,16 @@
         <v>7891676</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10165,7 +10171,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10233,16 +10239,16 @@
         <v>7919322</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45360.39583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10251,7 +10257,7 @@
         <v>6</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>11</v>
@@ -10316,67 +10322,67 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7919321</v>
+        <v>7919323</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
-        <v>45360.3125</v>
+        <v>45360.39583333334</v>
       </c>
       <c r="E115" t="s">
         <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J115">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="K115">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L115">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="M115">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10385,16 +10391,16 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10402,67 +10408,67 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7919323</v>
+        <v>7919321</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
-        <v>45360.39583333334</v>
+        <v>45360.3125</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J116">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="K116">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L116">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="M116">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N116">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10471,16 +10477,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10491,7 +10497,7 @@
         <v>7719642</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45361.39583333334</v>
@@ -10500,7 +10506,7 @@
         <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10509,7 +10515,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>1.444</v>
@@ -10577,16 +10583,16 @@
         <v>7721006</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10595,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>1.285</v>
@@ -10660,58 +10666,58 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7721007</v>
+        <v>7719643</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
-        <v>45367.39583333334</v>
+        <v>45367.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>42</v>
+      </c>
+      <c r="J119">
         <v>5</v>
       </c>
-      <c r="I119" t="s">
-        <v>41</v>
-      </c>
-      <c r="J119">
-        <v>2.25</v>
-      </c>
       <c r="K119">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L119">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="M119">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N119">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="O119">
+        <v>1.2</v>
+      </c>
+      <c r="P119">
+        <v>1.75</v>
+      </c>
+      <c r="Q119">
+        <v>1.975</v>
+      </c>
+      <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
         <v>3</v>
-      </c>
-      <c r="P119">
-        <v>-0.25</v>
-      </c>
-      <c r="Q119">
-        <v>1.875</v>
-      </c>
-      <c r="R119">
-        <v>1.925</v>
-      </c>
-      <c r="S119">
-        <v>2.5</v>
       </c>
       <c r="T119">
         <v>1.825</v>
@@ -10726,19 +10732,19 @@
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10749,13 +10755,13 @@
         <v>7721087</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
         <v>32</v>
@@ -10767,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10832,58 +10838,58 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7719643</v>
+        <v>7721007</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
-        <v>45367.3125</v>
+        <v>45367.39583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J121">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="K121">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L121">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="M121">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N121">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="O121">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T121">
         <v>1.825</v>
@@ -10898,19 +10904,19 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="Y121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10921,16 +10927,16 @@
         <v>7721008</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45368.3125</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10939,7 +10945,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>1.5</v>
@@ -11007,16 +11013,16 @@
         <v>7723750</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11025,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>5</v>
@@ -11093,16 +11099,16 @@
         <v>7719645</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45380.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11111,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11179,16 +11185,16 @@
         <v>7719646</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45381.3125</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11197,7 +11203,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>3.1</v>
@@ -11265,16 +11271,16 @@
         <v>7721009</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11283,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>1.95</v>
@@ -11348,76 +11354,76 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7721088</v>
+        <v>7721010</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
-        <v>45382.27083333334</v>
+        <v>45382.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J127">
-        <v>11</v>
+        <v>1.615</v>
       </c>
       <c r="K127">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="L127">
-        <v>1.222</v>
+        <v>4.8</v>
       </c>
       <c r="M127">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N127">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O127">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="P127">
+        <v>-0.75</v>
+      </c>
+      <c r="Q127">
+        <v>1.975</v>
+      </c>
+      <c r="R127">
+        <v>1.825</v>
+      </c>
+      <c r="S127">
+        <v>2.5</v>
+      </c>
+      <c r="T127">
+        <v>1.925</v>
+      </c>
+      <c r="U127">
+        <v>1.875</v>
+      </c>
+      <c r="V127">
         <v>0.75</v>
       </c>
-      <c r="Q127">
-        <v>1.925</v>
-      </c>
-      <c r="R127">
-        <v>1.875</v>
-      </c>
-      <c r="S127">
-        <v>2.25</v>
-      </c>
-      <c r="T127">
-        <v>1.825</v>
-      </c>
-      <c r="U127">
-        <v>1.975</v>
-      </c>
-      <c r="V127">
-        <v>-1</v>
-      </c>
       <c r="W127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11426,7 +11432,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11434,85 +11440,85 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7721010</v>
+        <v>7721088</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
-        <v>45382.35416666666</v>
+        <v>45382.27083333334</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J128">
-        <v>1.615</v>
+        <v>11</v>
       </c>
       <c r="K128">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="L128">
-        <v>4.8</v>
+        <v>1.222</v>
       </c>
       <c r="M128">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N128">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="P128">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q128">
+        <v>1.925</v>
+      </c>
+      <c r="R128">
+        <v>1.875</v>
+      </c>
+      <c r="S128">
+        <v>2.25</v>
+      </c>
+      <c r="T128">
+        <v>1.825</v>
+      </c>
+      <c r="U128">
         <v>1.975</v>
       </c>
-      <c r="R128">
-        <v>1.825</v>
-      </c>
-      <c r="S128">
-        <v>2.5</v>
-      </c>
-      <c r="T128">
-        <v>1.925</v>
-      </c>
-      <c r="U128">
-        <v>1.875</v>
-      </c>
       <c r="V128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
+        <v>0.925</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z128">
-        <v>-1</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11523,16 +11529,16 @@
         <v>7721011</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>3.8</v>
@@ -11606,67 +11612,67 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7721012</v>
+        <v>7721013</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
-        <v>45388.35416666666</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G130">
+        <v>4</v>
+      </c>
+      <c r="H130">
         <v>3</v>
       </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J130">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="K130">
+        <v>6</v>
+      </c>
+      <c r="L130">
+        <v>13</v>
+      </c>
+      <c r="M130">
+        <v>1.4</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130">
         <v>5.25</v>
       </c>
-      <c r="L130">
-        <v>7.5</v>
-      </c>
-      <c r="M130">
-        <v>1.2</v>
-      </c>
-      <c r="N130">
-        <v>7</v>
-      </c>
-      <c r="O130">
-        <v>7.5</v>
-      </c>
       <c r="P130">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="Q130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -11675,13 +11681,13 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -11692,67 +11698,67 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7721013</v>
+        <v>7721012</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
-        <v>45388.45833333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J131">
-        <v>1.181</v>
+        <v>1.3</v>
       </c>
       <c r="K131">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="L131">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="M131">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="N131">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O131">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="P131">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="Q131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -11761,13 +11767,13 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z131">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
@@ -11781,16 +11787,16 @@
         <v>7719647</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45388.27083333334</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11799,7 +11805,7 @@
         <v>5</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>3.9</v>
@@ -11867,16 +11873,16 @@
         <v>7719648</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11885,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11950,85 +11956,85 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7721015</v>
+        <v>7719649</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
-        <v>45395.54166666666</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>2</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J134">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="K134">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="M134">
-        <v>1.062</v>
+        <v>2.3</v>
       </c>
       <c r="N134">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="O134">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="P134">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z134">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12036,85 +12042,85 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7719649</v>
+        <v>7721015</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
-        <v>45395.45833333334</v>
+        <v>45395.54166666666</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>2</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J135">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L135">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="M135">
-        <v>2.3</v>
+        <v>1.062</v>
       </c>
       <c r="N135">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="O135">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="P135">
-        <v>0</v>
+        <v>-3.25</v>
       </c>
       <c r="Q135">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="W135">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12125,16 +12131,16 @@
         <v>7721014</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45395.27083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12143,7 +12149,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>2.2</v>
@@ -12208,85 +12214,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7721016</v>
+        <v>7719650</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
-        <v>45396.35416666666</v>
+        <v>45396.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
         <v>1</v>
       </c>
-      <c r="H137">
-        <v>3</v>
-      </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J137">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="K137">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L137">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="M137">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="N137">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O137">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="P137">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
         <v>2.75</v>
       </c>
       <c r="T137">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12294,85 +12300,85 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7719650</v>
+        <v>7721016</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
-        <v>45396.45833333334</v>
+        <v>45396.35416666666</v>
       </c>
       <c r="E138" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J138">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="K138">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L138">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="M138">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="N138">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O138">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
         <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12383,16 +12389,16 @@
         <v>7719670</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45398.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12401,7 +12407,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>7</v>
@@ -12469,7 +12475,7 @@
         <v>7721093</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45399.54166666666</v>
@@ -12478,7 +12484,7 @@
         <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12493,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>2.3</v>
@@ -12552,85 +12558,85 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7721017</v>
+        <v>7723749</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
-        <v>45402.45833333334</v>
+        <v>45402.27083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
         <v>33</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="s">
         <v>42</v>
       </c>
       <c r="J141">
-        <v>1.166</v>
+        <v>3.8</v>
       </c>
       <c r="K141">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="M141">
-        <v>1.1</v>
+        <v>2.75</v>
       </c>
       <c r="N141">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="O141">
-        <v>19</v>
+        <v>2.25</v>
       </c>
       <c r="P141">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T141">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
         <v>-1</v>
       </c>
       <c r="W141">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12641,16 +12647,16 @@
         <v>7721089</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12659,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12724,85 +12730,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7723749</v>
+        <v>7721017</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
-        <v>45402.27083333334</v>
+        <v>45402.45833333334</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J143">
-        <v>3.8</v>
+        <v>1.166</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L143">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="M143">
-        <v>2.75</v>
+        <v>1.1</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="O143">
-        <v>2.25</v>
+        <v>19</v>
       </c>
       <c r="P143">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T143">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
         <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="X143">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12810,82 +12816,82 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7721018</v>
+        <v>7719651</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
-        <v>45403.35416666666</v>
+        <v>45403.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J144">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K144">
         <v>3.4</v>
       </c>
       <c r="L144">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M144">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O144">
+        <v>2.4</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>1.95</v>
+      </c>
+      <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
+        <v>2.5</v>
+      </c>
+      <c r="T144">
+        <v>1.825</v>
+      </c>
+      <c r="U144">
+        <v>1.975</v>
+      </c>
+      <c r="V144">
+        <v>-1</v>
+      </c>
+      <c r="W144">
         <v>2.3</v>
       </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>2</v>
-      </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>3</v>
-      </c>
-      <c r="T144">
-        <v>1.975</v>
-      </c>
-      <c r="U144">
-        <v>1.825</v>
-      </c>
-      <c r="V144">
-        <v>1.6</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -12896,82 +12902,82 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7719651</v>
+        <v>7721018</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
-        <v>45403.45833333334</v>
+        <v>45403.35416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J145">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K145">
         <v>3.4</v>
       </c>
       <c r="L145">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O145">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P145">
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T145">
+        <v>1.975</v>
+      </c>
+      <c r="U145">
         <v>1.825</v>
       </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
       <c r="V145">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
         <v>-1</v>
@@ -12985,16 +12991,16 @@
         <v>7721019</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13003,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13071,16 +13077,16 @@
         <v>7719652</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45409.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13089,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J147">
         <v>3.1</v>
@@ -13157,13 +13163,13 @@
         <v>7721020</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
         <v>32</v>
@@ -13175,7 +13181,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J148">
         <v>5</v>
@@ -13243,16 +13249,16 @@
         <v>7721021</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13261,7 +13267,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J149">
         <v>7</v>
@@ -13329,16 +13335,16 @@
         <v>7721022</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13347,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>5</v>
@@ -13405,6 +13411,136 @@
       </c>
       <c r="AB150">
         <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="E151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F151" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151">
+        <v>3.8</v>
+      </c>
+      <c r="K151">
+        <v>4</v>
+      </c>
+      <c r="L151">
+        <v>1.666</v>
+      </c>
+      <c r="M151">
+        <v>3.75</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151">
+        <v>1.666</v>
+      </c>
+      <c r="P151">
+        <v>0.75</v>
+      </c>
+      <c r="Q151">
+        <v>1.9</v>
+      </c>
+      <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>2.75</v>
+      </c>
+      <c r="T151">
+        <v>1.8</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45413.35416666666</v>
+      </c>
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
+        <v>39</v>
+      </c>
+      <c r="J152">
+        <v>1.444</v>
+      </c>
+      <c r="K152">
+        <v>4.333</v>
+      </c>
+      <c r="L152">
+        <v>5.25</v>
+      </c>
+      <c r="M152">
+        <v>1.444</v>
+      </c>
+      <c r="N152">
+        <v>4.333</v>
+      </c>
+      <c r="O152">
+        <v>5.25</v>
+      </c>
+      <c r="P152">
+        <v>-1.25</v>
+      </c>
+      <c r="Q152">
+        <v>2</v>
+      </c>
+      <c r="R152">
+        <v>1.8</v>
+      </c>
+      <c r="S152">
+        <v>2.75</v>
+      </c>
+      <c r="T152">
+        <v>1.875</v>
+      </c>
+      <c r="U152">
+        <v>1.925</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
+++ b/Estonia Meistriliiga/Estonia Meistriliiga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -97,12 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8162954</t>
-  </si>
-  <si>
-    <t>7721055</t>
-  </si>
-  <si>
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
@@ -112,25 +106,25 @@
     <t>JK Nomme Kalju</t>
   </si>
   <si>
-    <t>FC Flora Tallinn</t>
+    <t>JK Tammeka Tartu</t>
   </si>
   <si>
     <t>JK Tallinna Kalev</t>
   </si>
   <si>
-    <t>JK Tammeka Tartu</t>
+    <t>FC Flora Tallinn</t>
   </si>
   <si>
     <t>Parnu JK Vaprus</t>
-  </si>
-  <si>
-    <t>JK Trans Narva</t>
   </si>
   <si>
     <t>Harju JK Laagri</t>
   </si>
   <si>
     <t>FC Levadia Tallinn</t>
+  </si>
+  <si>
+    <t>JK Trans Narva</t>
   </si>
   <si>
     <t>Paide Linnameeskond</t>
@@ -510,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +601,16 @@
         <v>6139016</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45083.5</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -625,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -693,16 +687,16 @@
         <v>6138122</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -711,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -776,85 +770,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6139019</v>
+        <v>6139017</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45084.54166666666</v>
+        <v>45084.5</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="K4">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L4">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M4">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="N4">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W4">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -865,13 +859,13 @@
         <v>6139018</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45084.5</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -883,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>2.4</v>
@@ -948,85 +942,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6139017</v>
+        <v>6139019</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>45084.5</v>
+        <v>45084.54166666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1034,58 +1028,58 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6138123</v>
+        <v>6139021</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>45087.5625</v>
+        <v>45087.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>1.181</v>
       </c>
       <c r="P7">
-        <v>-0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q7">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R7">
         <v>1.95</v>
       </c>
       <c r="S7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>1.85</v>
@@ -1094,25 +1088,25 @@
         <v>1.95</v>
       </c>
       <c r="V7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>0.95</v>
+      </c>
+      <c r="AA7">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z7">
-        <v>-1</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1120,58 +1114,58 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6139021</v>
+        <v>6138123</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45087.5625</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2">
-        <v>45087.45833333334</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O8">
-        <v>1.181</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q8">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R8">
         <v>1.95</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T8">
         <v>1.85</v>
@@ -1180,25 +1174,25 @@
         <v>1.95</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.95</v>
-      </c>
-      <c r="AA8">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1206,85 +1200,85 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6139023</v>
+        <v>6139022</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>45088.54166666666</v>
+        <v>45088.35416666666</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>4.75</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>1.533</v>
+      </c>
+      <c r="M9">
+        <v>6.5</v>
+      </c>
+      <c r="N9">
+        <v>4.2</v>
+      </c>
+      <c r="O9">
+        <v>1.4</v>
+      </c>
+      <c r="P9">
+        <v>1.25</v>
+      </c>
+      <c r="Q9">
+        <v>1.875</v>
+      </c>
+      <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
+        <v>2.75</v>
+      </c>
+      <c r="T9">
+        <v>1.8</v>
+      </c>
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>3.3</v>
-      </c>
-      <c r="L9">
-        <v>3.2</v>
-      </c>
-      <c r="M9">
-        <v>2.05</v>
-      </c>
-      <c r="N9">
-        <v>3.3</v>
-      </c>
-      <c r="O9">
-        <v>3.1</v>
-      </c>
-      <c r="P9">
-        <v>-0.25</v>
-      </c>
-      <c r="Q9">
-        <v>1.85</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
-      <c r="S9">
-        <v>2.25</v>
-      </c>
-      <c r="T9">
-        <v>1.925</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1292,55 +1286,55 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6139022</v>
+        <v>6139020</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>45088.35416666666</v>
+        <v>45088.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10">
+        <v>1.363</v>
+      </c>
+      <c r="K10">
+        <v>4.333</v>
+      </c>
+      <c r="L10">
+        <v>6.5</v>
+      </c>
+      <c r="M10">
+        <v>1.3</v>
+      </c>
+      <c r="N10">
         <v>4.75</v>
       </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>1.533</v>
-      </c>
-      <c r="M10">
-        <v>6.5</v>
-      </c>
-      <c r="N10">
-        <v>4.2</v>
-      </c>
       <c r="O10">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="P10">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
         <v>2.75</v>
@@ -1352,25 +1346,25 @@
         <v>2</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.4</v>
+      </c>
+      <c r="AB10">
         <v>-0.5</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1378,67 +1372,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6139020</v>
+        <v>6139023</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>45088.45833333334</v>
+        <v>45088.54166666666</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L11">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="N11">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q11">
+        <v>1.85</v>
+      </c>
+      <c r="R11">
         <v>1.95</v>
       </c>
-      <c r="R11">
-        <v>1.85</v>
-      </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1447,16 +1441,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1464,85 +1458,85 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6138124</v>
+        <v>6139024</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>45104.58333333334</v>
+        <v>45104.5</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
+        <v>2.625</v>
+      </c>
+      <c r="N12">
+        <v>3.2</v>
+      </c>
+      <c r="O12">
+        <v>2.4</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>3.4</v>
-      </c>
-      <c r="O12">
-        <v>3.3</v>
-      </c>
-      <c r="P12">
-        <v>-0.5</v>
-      </c>
-      <c r="Q12">
-        <v>1.95</v>
-      </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
         <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.75</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1553,16 +1547,16 @@
         <v>6139025</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1571,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1636,85 +1630,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6139024</v>
+        <v>6138124</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45104.58333333334</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2">
-        <v>45104.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
       <c r="G14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14">
+        <v>3.4</v>
+      </c>
+      <c r="L14">
+        <v>3.1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>3.4</v>
+      </c>
+      <c r="O14">
         <v>3.3</v>
       </c>
-      <c r="L14">
-        <v>3.2</v>
-      </c>
-      <c r="M14">
-        <v>2.625</v>
-      </c>
-      <c r="N14">
-        <v>3.2</v>
-      </c>
-      <c r="O14">
-        <v>2.4</v>
-      </c>
       <c r="P14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S14">
         <v>2.25</v>
       </c>
       <c r="T14">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA14">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1725,16 +1719,16 @@
         <v>6139026</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45105.5</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1743,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.444</v>
@@ -1811,13 +1805,13 @@
         <v>6139027</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -1829,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>2.7</v>
@@ -1897,16 +1891,16 @@
         <v>6139028</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45107.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>6.5</v>
@@ -1983,16 +1977,16 @@
         <v>6139029</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45108.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2001,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>4.2</v>
@@ -2069,13 +2063,13 @@
         <v>6139030</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45108.5625</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
@@ -2087,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2155,16 +2149,16 @@
         <v>6138125</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45109.45833333334</v>
       </c>
       <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2173,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2241,7 +2235,7 @@
         <v>6139031</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45109.54166666666</v>
@@ -2250,7 +2244,7 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2259,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>1.2</v>
@@ -2327,13 +2321,13 @@
         <v>6139032</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>32</v>
@@ -2345,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2410,65 +2404,65 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6139034</v>
+        <v>6139033</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>45115.5625</v>
+        <v>45115.45833333334</v>
       </c>
       <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J23">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K23">
         <v>3.5</v>
       </c>
       <c r="L23">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O23">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="R23">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T23">
+        <v>1.875</v>
+      </c>
+      <c r="U23">
         <v>1.925</v>
       </c>
-      <c r="U23">
-        <v>1.875</v>
-      </c>
       <c r="V23">
         <v>-1</v>
       </c>
@@ -2476,16 +2470,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2496,65 +2490,65 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6139033</v>
+        <v>6139034</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
-        <v>45115.45833333334</v>
+        <v>45115.5625</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J24">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K24">
         <v>3.5</v>
       </c>
       <c r="L24">
+        <v>2.2</v>
+      </c>
+      <c r="M24">
+        <v>3.1</v>
+      </c>
+      <c r="N24">
+        <v>3.5</v>
+      </c>
+      <c r="O24">
+        <v>2.05</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>1.725</v>
+      </c>
+      <c r="R24">
+        <v>2.075</v>
+      </c>
+      <c r="S24">
         <v>2.75</v>
       </c>
-      <c r="M24">
-        <v>1.8</v>
-      </c>
-      <c r="N24">
-        <v>3.75</v>
-      </c>
-      <c r="O24">
-        <v>3.6</v>
-      </c>
-      <c r="P24">
-        <v>-0.5</v>
-      </c>
-      <c r="Q24">
-        <v>1.825</v>
-      </c>
-      <c r="R24">
-        <v>1.975</v>
-      </c>
-      <c r="S24">
-        <v>2.25</v>
-      </c>
       <c r="T24">
+        <v>1.925</v>
+      </c>
+      <c r="U24">
         <v>1.875</v>
       </c>
-      <c r="U24">
-        <v>1.925</v>
-      </c>
       <c r="V24">
         <v>-1</v>
       </c>
@@ -2562,16 +2556,16 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
         <v>-1</v>
@@ -2582,19 +2576,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6138126</v>
+        <v>6139035</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>45116.54166666666</v>
+        <v>45116.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2603,37 +2597,37 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J25">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="M25">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="N25">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="P25">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T25">
         <v>1.9</v>
@@ -2642,7 +2636,7 @@
         <v>1.9</v>
       </c>
       <c r="V25">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2651,16 +2645,16 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2668,19 +2662,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6139035</v>
+        <v>6138126</v>
       </c>
       <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45116.54166666666</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
         <v>29</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45116.45833333334</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2689,37 +2683,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="K26">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L26">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="N26">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O26">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q26">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T26">
         <v>1.9</v>
@@ -2728,7 +2722,7 @@
         <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2737,16 +2731,16 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2754,85 +2748,85 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6140397</v>
+        <v>6139037</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>45129.5625</v>
+        <v>45129.45833333334</v>
       </c>
       <c r="E27" t="s">
         <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="K27">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N27">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>